--- a/Data/GRF Templates/TemplateGRFwalk.xlsx
+++ b/Data/GRF Templates/TemplateGRFwalk.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11122"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Studies\71EquineMusculoskeletalModel\Processed Data\GroundReactionForces\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gsipes/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97D901F0-35FB-4469-BF58-4018C914B486}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{714E84D8-4E3A-3146-BB59-48F123560AFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="41415" yWindow="2355" windowWidth="12585" windowHeight="15150" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="620" windowWidth="38400" windowHeight="23380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Fx_template</t>
   </si>
@@ -43,15 +43,6 @@
   <si>
     <t>Fz_template</t>
   </si>
-  <si>
-    <t>Px_template</t>
-  </si>
-  <si>
-    <t>Py_template</t>
-  </si>
-  <si>
-    <t>Pz_template</t>
-  </si>
 </sst>
 </file>
 
@@ -60,7 +51,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000000000"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -124,9 +115,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -164,7 +155,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -270,7 +261,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -412,7 +403,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -422,22 +413,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F734"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A272" workbookViewId="0">
-      <selection activeCell="D286" sqref="D286"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:F1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="16.28515625" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" customWidth="1"/>
+    <col min="1" max="2" width="16.33203125" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" customWidth="1"/>
     <col min="4" max="4" width="17" customWidth="1"/>
     <col min="5" max="5" width="16" customWidth="1"/>
-    <col min="6" max="7" width="16.28515625" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" customWidth="1"/>
+    <col min="6" max="7" width="16.33203125" customWidth="1"/>
+    <col min="8" max="8" width="14.33203125" customWidth="1"/>
     <col min="11" max="11" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -447,17 +438,11 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -467,17 +452,8 @@
       <c r="C2">
         <v>-8.962159741325873E-3</v>
       </c>
-      <c r="D2">
-        <v>1.526036937</v>
-      </c>
-      <c r="E2">
-        <v>1.3843128E-2</v>
-      </c>
-      <c r="F2">
-        <v>-6.2684261000000005E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>0</v>
       </c>
@@ -487,17 +463,8 @@
       <c r="C3">
         <v>-6.766452170453025E-3</v>
       </c>
-      <c r="D3">
-        <v>1.5261995909999999</v>
-      </c>
-      <c r="E3">
-        <v>1.3456780999999999E-2</v>
-      </c>
-      <c r="F3">
-        <v>-6.2762946E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>0</v>
       </c>
@@ -507,17 +474,8 @@
       <c r="C4">
         <v>-4.2936534267236639E-3</v>
       </c>
-      <c r="D4">
-        <v>1.52632736</v>
-      </c>
-      <c r="E4">
-        <v>1.3053824E-2</v>
-      </c>
-      <c r="F4">
-        <v>-6.2804927999999996E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>0</v>
       </c>
@@ -527,17 +485,8 @@
       <c r="C5">
         <v>-1.4946243000521252E-3</v>
       </c>
-      <c r="D5">
-        <v>1.5264195410000001</v>
-      </c>
-      <c r="E5">
-        <v>1.2647116E-2</v>
-      </c>
-      <c r="F5">
-        <v>-6.2812860999999998E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>0</v>
       </c>
@@ -547,17 +496,8 @@
       <c r="C6">
         <v>1.6816256207543691E-3</v>
       </c>
-      <c r="D6">
-        <v>1.526476352</v>
-      </c>
-      <c r="E6">
-        <v>1.2249645999999999E-2</v>
-      </c>
-      <c r="F6">
-        <v>-6.2789655E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>0</v>
       </c>
@@ -567,17 +507,8 @@
       <c r="C7">
         <v>5.2865564779704024E-3</v>
       </c>
-      <c r="D7">
-        <v>1.526498876</v>
-      </c>
-      <c r="E7">
-        <v>1.1874129000000001E-2</v>
-      </c>
-      <c r="F7">
-        <v>-6.2738448000000002E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>0</v>
       </c>
@@ -587,17 +518,8 @@
       <c r="C8">
         <v>9.3705565230220323E-3</v>
       </c>
-      <c r="D8">
-        <v>1.5264889859999999</v>
-      </c>
-      <c r="E8">
-        <v>1.1532624E-2</v>
-      </c>
-      <c r="F8">
-        <v>-6.2662605999999996E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>0</v>
       </c>
@@ -607,17 +529,8 @@
       <c r="C9">
         <v>1.3981281070202398E-2</v>
       </c>
-      <c r="D9">
-        <v>1.526449234</v>
-      </c>
-      <c r="E9">
-        <v>1.1236127E-2</v>
-      </c>
-      <c r="F9">
-        <v>-6.2565738999999995E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>0</v>
       </c>
@@ -627,17 +540,8 @@
       <c r="C10">
         <v>1.9161920230499931E-2</v>
       </c>
-      <c r="D10">
-        <v>1.5263827089999999</v>
-      </c>
-      <c r="E10">
-        <v>1.0994138000000001E-2</v>
-      </c>
-      <c r="F10">
-        <v>-6.2451742999999997E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>0</v>
       </c>
@@ -647,17 +551,8 @@
       <c r="C11">
         <v>2.4949451243091413E-2</v>
       </c>
-      <c r="D11">
-        <v>1.526292856</v>
-      </c>
-      <c r="E11">
-        <v>1.0814193E-2</v>
-      </c>
-      <c r="F11">
-        <v>-6.2324840999999999E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>0</v>
       </c>
@@ -667,17 +562,8 @@
       <c r="C12">
         <v>3.1372938366593717E-2</v>
       </c>
-      <c r="D12">
-        <v>1.52618327</v>
-      </c>
-      <c r="E12">
-        <v>1.0701382000000001E-2</v>
-      </c>
-      <c r="F12">
-        <v>-6.2189643000000003E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>0</v>
       </c>
@@ -687,17 +573,8 @@
       <c r="C13">
         <v>3.8451948884069179E-2</v>
       </c>
-      <c r="D13">
-        <v>1.52605748</v>
-      </c>
-      <c r="E13">
-        <v>1.0657885000000001E-2</v>
-      </c>
-      <c r="F13">
-        <v>-6.2051172000000002E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>0</v>
       </c>
@@ -707,17 +584,8 @@
       <c r="C14">
         <v>4.6195156562632574E-2</v>
       </c>
-      <c r="D14">
-        <v>1.5259187599999999</v>
-      </c>
-      <c r="E14">
-        <v>1.0682587E-2</v>
-      </c>
-      <c r="F14">
-        <v>-6.1914865999999999E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>0</v>
       </c>
@@ -727,17 +595,8 @@
       <c r="C15">
         <v>5.4599202847618017E-2</v>
       </c>
-      <c r="D15">
-        <v>1.5257699769999999</v>
-      </c>
-      <c r="E15">
-        <v>1.0770829000000001E-2</v>
-      </c>
-      <c r="F15">
-        <v>-6.1786511000000002E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>0</v>
       </c>
@@ -747,17 +606,8 @@
       <c r="C16">
         <v>6.364788065347049E-2</v>
       </c>
-      <c r="D16">
-        <v>1.525613508</v>
-      </c>
-      <c r="E16">
-        <v>1.0914363E-2</v>
-      </c>
-      <c r="F16">
-        <v>-6.1672089999999999E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>0</v>
       </c>
@@ -767,17 +617,8 @@
       <c r="C17">
         <v>7.3311695941739058E-2</v>
       </c>
-      <c r="D17">
-        <v>1.525451243</v>
-      </c>
-      <c r="E17">
-        <v>1.1101556E-2</v>
-      </c>
-      <c r="F17">
-        <v>-6.1577562000000002E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>0</v>
       </c>
@@ -787,17 +628,8 @@
       <c r="C18">
         <v>8.3547848847805431E-2</v>
       </c>
-      <c r="D18">
-        <v>1.5252846550000001</v>
-      </c>
-      <c r="E18">
-        <v>1.1317878999999999E-2</v>
-      </c>
-      <c r="F18">
-        <v>-6.1508552000000001E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>0</v>
       </c>
@@ -807,17 +639,8 @@
       <c r="C19">
         <v>9.4300659488478059E-2</v>
       </c>
-      <c r="D19">
-        <v>1.5251149420000001</v>
-      </c>
-      <c r="E19">
-        <v>1.1546656000000001E-2</v>
-      </c>
-      <c r="F19">
-        <v>-6.1469992000000001E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>0</v>
       </c>
@@ -827,17 +650,8 @@
       <c r="C20">
         <v>0.1055024441950773</v>
       </c>
-      <c r="D20">
-        <v>1.5249431899999999</v>
-      </c>
-      <c r="E20">
-        <v>1.1770047E-2</v>
-      </c>
-      <c r="F20">
-        <v>-6.1465734000000001E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>0</v>
       </c>
@@ -847,17 +661,8 @@
       <c r="C21">
         <v>0.11707482628575626</v>
       </c>
-      <c r="D21">
-        <v>1.5247705359999999</v>
-      </c>
-      <c r="E21">
-        <v>1.1970208E-2</v>
-      </c>
-      <c r="F21">
-        <v>-6.1498171999999997E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>0</v>
       </c>
@@ -867,17 +672,8 @@
       <c r="C22">
         <v>0.12893044260437492</v>
       </c>
-      <c r="D22">
-        <v>1.524598296</v>
-      </c>
-      <c r="E22">
-        <v>1.2130525E-2</v>
-      </c>
-      <c r="F22">
-        <v>-6.1567918999999999E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>0</v>
       </c>
@@ -887,17 +683,8 @@
       <c r="C23">
         <v>0.14097498457724122</v>
       </c>
-      <c r="D23">
-        <v>1.524428039</v>
-      </c>
-      <c r="E23">
-        <v>1.2236844E-2</v>
-      </c>
-      <c r="F23">
-        <v>-6.1673556999999997E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>0</v>
       </c>
@@ -907,17 +694,8 @@
       <c r="C24">
         <v>0.15310949263177887</v>
       </c>
-      <c r="D24">
-        <v>1.5242616010000001</v>
-      </c>
-      <c r="E24">
-        <v>1.2278598999999999E-2</v>
-      </c>
-      <c r="F24">
-        <v>-6.1811497999999999E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>0</v>
       </c>
@@ -927,17 +705,8 @@
       <c r="C25">
         <v>0.1652328077252834</v>
       </c>
-      <c r="D25">
-        <v>1.5241010719999999</v>
-      </c>
-      <c r="E25">
-        <v>1.2249725E-2</v>
-      </c>
-      <c r="F25">
-        <v>-6.1975967999999999E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>0</v>
       </c>
@@ -947,17 +716,8 @@
       <c r="C26">
         <v>0.17724407535516754</v>
       </c>
-      <c r="D26">
-        <v>1.5239487679999999</v>
-      </c>
-      <c r="E26">
-        <v>1.2149289000000001E-2</v>
-      </c>
-      <c r="F26">
-        <v>-6.2159132999999998E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>0</v>
       </c>
@@ -967,17 +727,8 @@
       <c r="C27">
         <v>0.18904519701265171</v>
       </c>
-      <c r="D27">
-        <v>1.5238072009999999</v>
-      </c>
-      <c r="E27">
-        <v>1.1981755E-2</v>
-      </c>
-      <c r="F27">
-        <v>-6.2351374000000001E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>0</v>
       </c>
@@ -987,17 +738,8 @@
       <c r="C28">
         <v>0.20054313195588661</v>
       </c>
-      <c r="D28">
-        <v>1.5236790659999999</v>
-      </c>
-      <c r="E28">
-        <v>1.1756819E-2</v>
-      </c>
-      <c r="F28">
-        <v>-6.2541737E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>0</v>
       </c>
@@ -1007,17 +749,8 @@
       <c r="C29">
         <v>0.21165196769614669</v>
       </c>
-      <c r="D29">
-        <v>1.523567219</v>
-      </c>
-      <c r="E29">
-        <v>1.1488780000000001E-2</v>
-      </c>
-      <c r="F29">
-        <v>-6.2718570000000001E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>0</v>
       </c>
@@ -1027,17 +760,8 @@
       <c r="C30">
         <v>0.22229469890545778</v>
       </c>
-      <c r="D30">
-        <v>1.523474631</v>
-      </c>
-      <c r="E30">
-        <v>1.1195455999999999E-2</v>
-      </c>
-      <c r="F30">
-        <v>-6.2870328000000003E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>0</v>
       </c>
@@ -1047,17 +771,8 @@
       <c r="C31">
         <v>0.23240467893832364</v>
       </c>
-      <c r="D31">
-        <v>1.5234042919999999</v>
-      </c>
-      <c r="E31">
-        <v>1.0896711999999999E-2</v>
-      </c>
-      <c r="F31">
-        <v>-6.2986507999999997E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>0</v>
       </c>
@@ -1067,17 +782,8 @@
       <c r="C32">
         <v>0.2419267327003411</v>
       </c>
-      <c r="D32">
-        <v>1.5233590589999999</v>
-      </c>
-      <c r="E32">
-        <v>1.0612709E-2</v>
-      </c>
-      <c r="F32">
-        <v>-6.3058656000000005E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>0</v>
       </c>
@@ -1087,17 +793,8 @@
       <c r="C33">
         <v>0.25081794092049081</v>
       </c>
-      <c r="D33">
-        <v>1.5233414350000001</v>
-      </c>
-      <c r="E33">
-        <v>1.0362059E-2</v>
-      </c>
-      <c r="F33">
-        <v>-6.3081324999999994E-2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>0</v>
       </c>
@@ -1107,17 +804,8 @@
       <c r="C34">
         <v>0.25904812112551906</v>
       </c>
-      <c r="D34">
-        <v>1.5233532860000001</v>
-      </c>
-      <c r="E34">
-        <v>1.0160066000000001E-2</v>
-      </c>
-      <c r="F34">
-        <v>-6.3052886000000002E-2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>0</v>
       </c>
@@ -1127,17 +815,8 @@
       <c r="C35">
         <v>0.26660003804512872</v>
       </c>
-      <c r="D35">
-        <v>1.5233955400000001</v>
-      </c>
-      <c r="E35">
-        <v>1.0017269000000001E-2</v>
-      </c>
-      <c r="F35">
-        <v>-6.2976070999999995E-2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>0</v>
       </c>
@@ -1147,17 +826,8 @@
       <c r="C36">
         <v>0.27346937570795588</v>
       </c>
-      <c r="D36">
-        <v>1.5234678880000001</v>
-      </c>
-      <c r="E36">
-        <v>9.9384139999999996E-3</v>
-      </c>
-      <c r="F36">
-        <v>-6.2858151000000001E-2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <v>0</v>
       </c>
@@ -1167,17 +837,8 @@
       <c r="C37">
         <v>0.2796644967900796</v>
       </c>
-      <c r="D37">
-        <v>1.523568531</v>
-      </c>
-      <c r="E37">
-        <v>9.9219870000000002E-3</v>
-      </c>
-      <c r="F37">
-        <v>-6.2710681000000004E-2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <v>0</v>
       </c>
@@ -1187,17 +848,8 @@
       <c r="C38">
         <v>0.28520600501652593</v>
       </c>
-      <c r="D38">
-        <v>1.52369402</v>
-      </c>
-      <c r="E38">
-        <v>9.960343E-3</v>
-      </c>
-      <c r="F38">
-        <v>-6.2548796000000004E-2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <v>0</v>
       </c>
@@ -1207,17 +859,8 @@
       <c r="C39">
         <v>0.29012611753564932</v>
       </c>
-      <c r="D39">
-        <v>1.523839197</v>
-      </c>
-      <c r="E39">
-        <v>1.0040426999999999E-2</v>
-      </c>
-      <c r="F39">
-        <v>-6.2390095E-2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <v>0</v>
       </c>
@@ -1227,17 +870,8 @@
       <c r="C40">
         <v>0.29446784971492168</v>
       </c>
-      <c r="D40">
-        <v>1.5239972470000001</v>
-      </c>
-      <c r="E40">
-        <v>1.0144993999999999E-2</v>
-      </c>
-      <c r="F40">
-        <v>-6.2253192999999998E-2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <v>0</v>
       </c>
@@ -1247,17 +881,8 @@
       <c r="C41">
         <v>0.29828401657887554</v>
       </c>
-      <c r="D41">
-        <v>1.5241598439999999</v>
-      </c>
-      <c r="E41">
-        <v>1.0254226E-2</v>
-      </c>
-      <c r="F41">
-        <v>-6.2156100999999998E-2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <v>0</v>
       </c>
@@ -1267,17 +892,8 @@
       <c r="C42">
         <v>0.30163606265719856</v>
       </c>
-      <c r="D42">
-        <v>1.52431739</v>
-      </c>
-      <c r="E42">
-        <v>1.0347574E-2</v>
-      </c>
-      <c r="F42">
-        <v>-6.2114600999999998E-2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
         <v>0</v>
       </c>
@@ -1287,17 +903,8 @@
       <c r="C43">
         <v>0.30459274299115358</v>
       </c>
-      <c r="D43">
-        <v>1.524459322</v>
-      </c>
-      <c r="E43">
-        <v>1.0405653000000001E-2</v>
-      </c>
-      <c r="F43">
-        <v>-6.2140791000000001E-2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
         <v>0</v>
       </c>
@@ -1307,17 +914,8 @@
       <c r="C44">
         <v>0.30722868923416013</v>
       </c>
-      <c r="D44">
-        <v>1.524574498</v>
-      </c>
-      <c r="E44">
-        <v>1.0412039E-2</v>
-      </c>
-      <c r="F44">
-        <v>-6.2241958E-2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
         <v>0</v>
       </c>
@@ -1327,17 +925,8 @@
       <c r="C45">
         <v>0.30962290304656126</v>
       </c>
-      <c r="D45">
-        <v>1.524651647</v>
-      </c>
-      <c r="E45">
-        <v>1.0354814E-2</v>
-      </c>
-      <c r="F45">
-        <v>-6.2419891999999998E-2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6">
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
         <v>0</v>
       </c>
@@ -1347,17 +936,8 @@
       <c r="C46">
         <v>0.31185722215024386</v>
       </c>
-      <c r="D46">
-        <v>1.5246798800000001</v>
-      </c>
-      <c r="E46">
-        <v>1.0227702999999999E-2</v>
-      </c>
-      <c r="F46">
-        <v>-6.2670668999999998E-2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
         <v>0</v>
       </c>
@@ -1367,17 +947,8 @@
       <c r="C47">
         <v>0.31401480186848418</v>
       </c>
-      <c r="D47">
-        <v>1.524649242</v>
-      </c>
-      <c r="E47">
-        <v>1.0030710999999999E-2</v>
-      </c>
-      <c r="F47">
-        <v>-6.2984927999999996E-2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
         <v>0</v>
       </c>
@@ -1387,17 +958,8 @@
       <c r="C48">
         <v>0.31617864768748272</v>
       </c>
-      <c r="D48">
-        <v>1.524551282</v>
-      </c>
-      <c r="E48">
-        <v>9.7701639999999996E-3</v>
-      </c>
-      <c r="F48">
-        <v>-6.3348590999999996E-2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
         <v>0</v>
       </c>
@@ -1407,17 +969,8 @@
       <c r="C49">
         <v>0.31843022425692136</v>
       </c>
-      <c r="D49">
-        <v>1.5243795950000001</v>
-      </c>
-      <c r="E49">
-        <v>9.4581379999999996E-3</v>
-      </c>
-      <c r="F49">
-        <v>-6.3743968999999998E-2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
         <v>0</v>
       </c>
@@ -1427,17 +980,8 @@
       <c r="C50">
         <v>0.32084815548498974</v>
       </c>
-      <c r="D50">
-        <v>1.5241302889999999</v>
-      </c>
-      <c r="E50">
-        <v>9.1113040000000006E-3</v>
-      </c>
-      <c r="F50">
-        <v>-6.4151149000000005E-2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
         <v>0</v>
       </c>
@@ -1447,17 +991,8 @@
       <c r="C51">
         <v>0.32350702098803263</v>
       </c>
-      <c r="D51">
-        <v>1.52380231</v>
-      </c>
-      <c r="E51">
-        <v>8.7492760000000003E-3</v>
-      </c>
-      <c r="F51">
-        <v>-6.4549552999999996E-2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" s="2">
         <v>0</v>
       </c>
@@ -1467,17 +1002,8 @@
       <c r="C52">
         <v>0.32647624766192318</v>
       </c>
-      <c r="D52">
-        <v>1.523397594</v>
-      </c>
-      <c r="E52">
-        <v>8.392633E-3</v>
-      </c>
-      <c r="F52">
-        <v>-6.4919512999999998E-2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6">
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" s="2">
         <v>0</v>
       </c>
@@ -1487,17 +1013,8 @@
       <c r="C53">
         <v>0.32981909236770857</v>
       </c>
-      <c r="D53">
-        <v>1.522920982</v>
-      </c>
-      <c r="E53">
-        <v>8.0608120000000005E-3</v>
-      </c>
-      <c r="F53">
-        <v>-6.5243727000000001E-2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" s="2">
         <v>0</v>
       </c>
@@ -1507,17 +1024,8 @@
       <c r="C54">
         <v>0.33359171266130194</v>
       </c>
-      <c r="D54">
-        <v>1.522379911</v>
-      </c>
-      <c r="E54">
-        <v>7.7701280000000003E-3</v>
-      </c>
-      <c r="F54">
-        <v>-6.5508471999999998E-2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" s="2">
         <v>0</v>
       </c>
@@ -1527,17 +1035,8 @@
       <c r="C55">
         <v>0.33784232642648993</v>
       </c>
-      <c r="D55">
-        <v>1.5217838969999999</v>
-      </c>
-      <c r="E55">
-        <v>7.5321529999999998E-3</v>
-      </c>
-      <c r="F55">
-        <v>-6.5704473999999999E-2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" s="2">
         <v>0</v>
       </c>
@@ -1547,17 +1046,8 @@
       <c r="C56">
         <v>0.34261046700228565</v>
       </c>
-      <c r="D56">
-        <v>1.5211438770000001</v>
-      </c>
-      <c r="E56">
-        <v>7.3526590000000001E-3</v>
-      </c>
-      <c r="F56">
-        <v>-6.5827393999999997E-2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" s="2">
         <v>0</v>
       </c>
@@ -1567,17 +1057,8 @@
       <c r="C57">
         <v>0.34792634653028415</v>
       </c>
-      <c r="D57">
-        <v>1.520471498</v>
-      </c>
-      <c r="E57">
-        <v>7.2312499999999998E-3</v>
-      </c>
-      <c r="F57">
-        <v>-6.5877912999999996E-2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" s="2">
         <v>0</v>
       </c>
@@ -1587,17 +1068,8 @@
       <c r="C58">
         <v>0.35381034540744211</v>
       </c>
-      <c r="D58">
-        <v>1.519778442</v>
-      </c>
-      <c r="E58">
-        <v>7.1617249999999999E-3</v>
-      </c>
-      <c r="F58">
-        <v>-6.5861426000000001E-2</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" s="2">
         <v>0</v>
       </c>
@@ -1607,17 +1079,8 @@
       <c r="C59">
         <v>0.36027264878191606</v>
       </c>
-      <c r="D59">
-        <v>1.5190758719999999</v>
-      </c>
-      <c r="E59">
-        <v>7.133103E-3</v>
-      </c>
-      <c r="F59">
-        <v>-6.5787388000000002E-2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" s="2">
         <v>0</v>
       </c>
@@ -1627,17 +1090,8 @@
       <c r="C60">
         <v>0.36731305135933656</v>
       </c>
-      <c r="D60">
-        <v>1.5183740320000001</v>
-      </c>
-      <c r="E60">
-        <v>7.1311739999999997E-3</v>
-      </c>
-      <c r="F60">
-        <v>-6.5668372000000003E-2</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" s="2">
         <v>0</v>
       </c>
@@ -1647,17 +1101,8 @@
       <c r="C61">
         <v>0.37492094948128685</v>
       </c>
-      <c r="D61">
-        <v>1.5176820369999999</v>
-      </c>
-      <c r="E61">
-        <v>7.1403270000000001E-3</v>
-      </c>
-      <c r="F61">
-        <v>-6.5518950000000006E-2</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" s="2">
         <v>0</v>
       </c>
@@ -1667,17 +1112,8 @@
       <c r="C62">
         <v>0.38307553510847331</v>
       </c>
-      <c r="D62">
-        <v>1.517007805</v>
-      </c>
-      <c r="E62">
-        <v>7.1454279999999997E-3</v>
-      </c>
-      <c r="F62">
-        <v>-6.5354482000000005E-2</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6">
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" s="2">
         <v>0</v>
       </c>
@@ -1687,17 +1123,8 @@
       <c r="C63">
         <v>0.39174620072405714</v>
       </c>
-      <c r="D63">
-        <v>1.5163581159999999</v>
-      </c>
-      <c r="E63">
-        <v>7.133464E-3</v>
-      </c>
-      <c r="F63">
-        <v>-6.5189946999999998E-2</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" s="2">
         <v>0</v>
       </c>
@@ -1707,17 +1134,8 @@
       <c r="C64">
         <v>0.40089315789340768</v>
       </c>
-      <c r="D64">
-        <v>1.515738711</v>
-      </c>
-      <c r="E64">
-        <v>7.0947559999999998E-3</v>
-      </c>
-      <c r="F64">
-        <v>-6.5038894999999999E-2</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" s="2">
         <v>0</v>
       </c>
@@ -1727,17 +1145,8 @@
       <c r="C65">
         <v>0.41046826567931904</v>
       </c>
-      <c r="D65">
-        <v>1.515154398</v>
-      </c>
-      <c r="E65">
-        <v>7.0236140000000001E-3</v>
-      </c>
-      <c r="F65">
-        <v>-6.4912605999999998E-2</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" s="2">
         <v>0</v>
       </c>
@@ -1747,17 +1156,8 @@
       <c r="C66">
         <v>0.42041605839155688</v>
       </c>
-      <c r="D66">
-        <v>1.514609128</v>
-      </c>
-      <c r="E66">
-        <v>6.9183969999999997E-3</v>
-      </c>
-      <c r="F66">
-        <v>-6.4819508999999997E-2</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" s="2">
         <v>0</v>
       </c>
@@ -1767,17 +1167,8 @@
       <c r="C67">
         <v>0.43067495510260773</v>
       </c>
-      <c r="D67">
-        <v>1.5141060260000001</v>
-      </c>
-      <c r="E67">
-        <v>6.7810450000000003E-3</v>
-      </c>
-      <c r="F67">
-        <v>-6.4764880999999996E-2</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" s="2">
         <v>0</v>
       </c>
@@ -1787,17 +1178,8 @@
       <c r="C68">
         <v>0.44117862592877261</v>
       </c>
-      <c r="D68">
-        <v>1.513647392</v>
-      </c>
-      <c r="E68">
-        <v>6.6162319999999997E-3</v>
-      </c>
-      <c r="F68">
-        <v>-6.4750814000000004E-2</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" s="2">
         <v>0</v>
       </c>
@@ -1807,17 +1189,8 @@
       <c r="C69">
         <v>0.45185748247640917</v>
       </c>
-      <c r="D69">
-        <v>1.513234687</v>
-      </c>
-      <c r="E69">
-        <v>6.4303190000000003E-3</v>
-      </c>
-      <c r="F69">
-        <v>-6.4776430999999995E-2</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" s="2">
         <v>0</v>
       </c>
@@ -1827,17 +1200,8 @@
       <c r="C70">
         <v>0.4626402526396714</v>
       </c>
-      <c r="D70">
-        <v>1.5128685260000001</v>
-      </c>
-      <c r="E70">
-        <v>6.2303310000000004E-3</v>
-      </c>
-      <c r="F70">
-        <v>-6.4838288999999993E-2</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6">
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" s="2">
         <v>0</v>
       </c>
@@ -1847,17 +1211,8 @@
       <c r="C71">
         <v>0.47345559394481096</v>
       </c>
-      <c r="D71">
-        <v>1.5125486889999999</v>
-      </c>
-      <c r="E71">
-        <v>6.0230989999999996E-3</v>
-      </c>
-      <c r="F71">
-        <v>-6.4930897000000001E-2</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" s="2">
         <v>0</v>
       </c>
@@ -1867,17 +1222,8 @@
       <c r="C72">
         <v>0.48423369571663177</v>
       </c>
-      <c r="D72">
-        <v>1.5122741559999999</v>
-      </c>
-      <c r="E72">
-        <v>5.8146990000000004E-3</v>
-      </c>
-      <c r="F72">
-        <v>-6.5047284999999996E-2</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" s="2">
         <v>0</v>
       </c>
@@ -1887,17 +1233,8 @@
       <c r="C73">
         <v>0.49490781903247733</v>
       </c>
-      <c r="D73">
-        <v>1.5120431809999999</v>
-      </c>
-      <c r="E73">
-        <v>5.6102010000000004E-3</v>
-      </c>
-      <c r="F73">
-        <v>-6.5179556999999999E-2</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" s="2">
         <v>0</v>
       </c>
@@ -1907,17 +1244,8 @@
       <c r="C74">
         <v>0.50541572488575282</v>
       </c>
-      <c r="D74">
-        <v>1.5118533940000001</v>
-      </c>
-      <c r="E74">
-        <v>5.4137100000000004E-3</v>
-      </c>
-      <c r="F74">
-        <v>-6.5319378999999997E-2</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" s="2">
         <v>0</v>
       </c>
@@ -1927,17 +1255,8 @@
       <c r="C75">
         <v>0.51570094509177733</v>
       </c>
-      <c r="D75">
-        <v>1.511701966</v>
-      </c>
-      <c r="E75">
-        <v>5.2286249999999998E-3</v>
-      </c>
-      <c r="F75">
-        <v>-6.5458374999999999E-2</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" s="2">
         <v>0</v>
       </c>
@@ -1947,17 +1266,8 @@
       <c r="C76">
         <v>0.52571385690941308</v>
       </c>
-      <c r="D76">
-        <v>1.5115857960000001</v>
-      </c>
-      <c r="E76">
-        <v>5.0580210000000002E-3</v>
-      </c>
-      <c r="F76">
-        <v>-6.5588448999999993E-2</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" s="2">
         <v>0</v>
       </c>
@@ -1967,17 +1277,8 @@
       <c r="C77">
         <v>0.53541253062506766</v>
       </c>
-      <c r="D77">
-        <v>1.5115017209999999</v>
-      </c>
-      <c r="E77">
-        <v>4.9050609999999996E-3</v>
-      </c>
-      <c r="F77">
-        <v>-6.5702020999999999E-2</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" s="2">
         <v>0</v>
       </c>
@@ -1987,17 +1288,8 @@
       <c r="C78">
         <v>0.54476332885154111</v>
       </c>
-      <c r="D78">
-        <v>1.511446726</v>
-      </c>
-      <c r="E78">
-        <v>4.7733530000000001E-3</v>
-      </c>
-      <c r="F78">
-        <v>-6.5792214000000002E-2</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" s="2">
         <v>0</v>
       </c>
@@ -2007,17 +1299,8 @@
       <c r="C79">
         <v>0.5537412463785748</v>
       </c>
-      <c r="D79">
-        <v>1.511418114</v>
-      </c>
-      <c r="E79">
-        <v>4.6672279999999998E-3</v>
-      </c>
-      <c r="F79">
-        <v>-6.5853007000000005E-2</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6">
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" s="2">
         <v>0</v>
       </c>
@@ -2027,17 +1310,8 @@
       <c r="C80">
         <v>0.56232998943230839</v>
       </c>
-      <c r="D80">
-        <v>1.511413632</v>
-      </c>
-      <c r="E80">
-        <v>4.5918959999999998E-3</v>
-      </c>
-      <c r="F80">
-        <v>-6.5879363999999996E-2</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" s="2">
         <v>0</v>
       </c>
@@ -2047,17 +1321,8 @@
       <c r="C81">
         <v>0.57052180264026242</v>
       </c>
-      <c r="D81">
-        <v>1.5114315279999999</v>
-      </c>
-      <c r="E81">
-        <v>4.5534800000000004E-3</v>
-      </c>
-      <c r="F81">
-        <v>-6.5867354000000003E-2</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" s="2">
         <v>0</v>
       </c>
@@ -2067,17 +1332,8 @@
       <c r="C82">
         <v>0.57831706051212495</v>
       </c>
-      <c r="D82">
-        <v>1.5114705420000001</v>
-      </c>
-      <c r="E82">
-        <v>4.5589150000000002E-3</v>
-      </c>
-      <c r="F82">
-        <v>-6.5814262999999998E-2</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" s="2">
         <v>0</v>
       </c>
@@ -2087,17 +1343,8 @@
       <c r="C83">
         <v>0.58572364760617623</v>
       </c>
-      <c r="D83">
-        <v>1.5115298230000001</v>
-      </c>
-      <c r="E83">
-        <v>4.6157150000000003E-3</v>
-      </c>
-      <c r="F83">
-        <v>-6.5718689999999996E-2</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" s="2">
         <v>0</v>
       </c>
@@ -2107,17 +1354,8 @@
       <c r="C84">
         <v>0.59275615760078826</v>
       </c>
-      <c r="D84">
-        <v>1.511608778</v>
-      </c>
-      <c r="E84">
-        <v>4.7316099999999998E-3</v>
-      </c>
-      <c r="F84">
-        <v>-6.5580627000000002E-2</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6">
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" s="2">
         <v>0</v>
       </c>
@@ -2127,17 +1365,8 @@
       <c r="C85">
         <v>0.59943494615950677</v>
       </c>
-      <c r="D85">
-        <v>1.5117068899999999</v>
-      </c>
-      <c r="E85">
-        <v>4.914074E-3</v>
-      </c>
-      <c r="F85">
-        <v>-6.5401508999999997E-2</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" s="2">
         <v>0</v>
       </c>
@@ -2147,17 +1376,8 @@
       <c r="C86">
         <v>0.60578507577124807</v>
       </c>
-      <c r="D86">
-        <v>1.5118235120000001</v>
-      </c>
-      <c r="E86">
-        <v>5.169758E-3</v>
-      </c>
-      <c r="F86">
-        <v>-6.5184234999999993E-2</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" s="2">
         <v>0</v>
       </c>
@@ -2167,17 +1387,8 @@
       <c r="C87">
         <v>0.61183519267042341</v>
       </c>
-      <c r="D87">
-        <v>1.511957674</v>
-      </c>
-      <c r="E87">
-        <v>5.5038609999999996E-3</v>
-      </c>
-      <c r="F87">
-        <v>-6.4933137000000002E-2</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" s="2">
         <v>0</v>
       </c>
@@ -2187,17 +1398,8 @@
       <c r="C88">
         <v>0.61761637645291978</v>
       </c>
-      <c r="D88">
-        <v>1.5121079230000001</v>
-      </c>
-      <c r="E88">
-        <v>5.9194629999999998E-3</v>
-      </c>
-      <c r="F88">
-        <v>-6.4653919000000004E-2</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" s="2">
         <v>0</v>
       </c>
@@ -2207,17 +1409,8 @@
       <c r="C89">
         <v>0.62316100204905644</v>
       </c>
-      <c r="D89">
-        <v>1.512272236</v>
-      </c>
-      <c r="E89">
-        <v>6.4168810000000001E-3</v>
-      </c>
-      <c r="F89">
-        <v>-6.4353546999999997E-2</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90" s="2">
         <v>0</v>
       </c>
@@ -2227,17 +1420,8 @@
       <c r="C90">
         <v>0.62850165129158819</v>
       </c>
-      <c r="D90">
-        <v>1.512447997</v>
-      </c>
-      <c r="E90">
-        <v>6.993099E-3</v>
-      </c>
-      <c r="F90">
-        <v>-6.4040090999999993E-2</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91" s="2">
         <v>0</v>
       </c>
@@ -2247,17 +1431,8 @@
       <c r="C91">
         <v>0.63367010750415009</v>
       </c>
-      <c r="D91">
-        <v>1.5126320639999999</v>
-      </c>
-      <c r="E91">
-        <v>7.6413419999999998E-3</v>
-      </c>
-      <c r="F91">
-        <v>-6.3722532999999998E-2</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92" s="2">
         <v>0</v>
       </c>
@@ -2267,17 +1442,8 @@
       <c r="C92">
         <v>0.63869646150010528</v>
       </c>
-      <c r="D92">
-        <v>1.512820907</v>
-      </c>
-      <c r="E92">
-        <v>8.3508590000000004E-3</v>
-      </c>
-      <c r="F92">
-        <v>-6.3410515000000001E-2</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93" s="2">
         <v>0</v>
       </c>
@@ -2287,17 +1453,8 @@
       <c r="C93">
         <v>0.64360835138694328</v>
       </c>
-      <c r="D93">
-        <v>1.5130108019999999</v>
-      </c>
-      <c r="E93">
-        <v>9.1069400000000009E-3</v>
-      </c>
-      <c r="F93">
-        <v>-6.3114049000000005E-2</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94" s="2">
         <v>0</v>
       </c>
@@ -2307,17 +1464,8 @@
       <c r="C94">
         <v>0.64843035197183352</v>
       </c>
-      <c r="D94">
-        <v>1.5131980679999999</v>
-      </c>
-      <c r="E94">
-        <v>9.8911969999999991E-3</v>
-      </c>
-      <c r="F94">
-        <v>-6.2843185999999995E-2</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95" s="2">
         <v>0</v>
       </c>
@@ -2327,17 +1475,8 @@
       <c r="C95">
         <v>0.65318352272605429</v>
       </c>
-      <c r="D95">
-        <v>1.5133793</v>
-      </c>
-      <c r="E95">
-        <v>1.0682120999999999E-2</v>
-      </c>
-      <c r="F95">
-        <v>-6.2607640000000006E-2</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96" s="2">
         <v>0</v>
       </c>
@@ -2347,17 +1486,8 @@
       <c r="C96">
         <v>0.65788511648671011</v>
       </c>
-      <c r="D96">
-        <v>1.513551614</v>
-      </c>
-      <c r="E96">
-        <v>1.1455897E-2</v>
-      </c>
-      <c r="F96">
-        <v>-6.2416391000000002E-2</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6">
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97" s="2">
         <v>0</v>
       </c>
@@ -2367,17 +1497,8 @@
       <c r="C97">
         <v>0.66254844465255169</v>
       </c>
-      <c r="D97">
-        <v>1.5137128529999999</v>
-      </c>
-      <c r="E97">
-        <v>1.2187468E-2</v>
-      </c>
-      <c r="F97">
-        <v>-6.2277263999999999E-2</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6">
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98" s="2">
         <v>0</v>
       </c>
@@ -2387,17 +1508,8 @@
       <c r="C98">
         <v>0.6671828889416821</v>
       </c>
-      <c r="D98">
-        <v>1.513861763</v>
-      </c>
-      <c r="E98">
-        <v>1.2851807999999999E-2</v>
-      </c>
-      <c r="F98">
-        <v>-6.2196512000000002E-2</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99" s="2">
         <v>0</v>
       </c>
@@ -2407,17 +1519,8 @@
       <c r="C99">
         <v>0.67179404514506857</v>
       </c>
-      <c r="D99">
-        <v>1.513998113</v>
-      </c>
-      <c r="E99">
-        <v>1.3425338E-2</v>
-      </c>
-      <c r="F99">
-        <v>-6.2178428000000001E-2</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6">
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100" s="2">
         <v>0</v>
       </c>
@@ -2427,17 +1530,8 @@
       <c r="C100">
         <v>0.67638398089043417</v>
       </c>
-      <c r="D100">
-        <v>1.5141227349999999</v>
-      </c>
-      <c r="E100">
-        <v>1.3887371000000001E-2</v>
-      </c>
-      <c r="F100">
-        <v>-6.2225017000000001E-2</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6">
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101" s="2">
         <v>0</v>
       </c>
@@ -2447,17 +1541,8 @@
       <c r="C101">
         <v>0.68095158728000604</v>
       </c>
-      <c r="D101">
-        <v>1.5142374700000001</v>
-      </c>
-      <c r="E101">
-        <v>1.4221493E-2</v>
-      </c>
-      <c r="F101">
-        <v>-6.2335777000000002E-2</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102" s="2">
         <v>0</v>
       </c>
@@ -2467,17 +1552,8 @@
       <c r="C102">
         <v>0.68549300332246843</v>
       </c>
-      <c r="D102">
-        <v>1.5143450190000001</v>
-      </c>
-      <c r="E102">
-        <v>1.4416724000000001E-2</v>
-      </c>
-      <c r="F102">
-        <v>-6.2507607000000007E-2</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103" s="2">
         <v>0</v>
       </c>
@@ -2487,17 +1563,8 @@
       <c r="C103">
         <v>0.69000209207631447</v>
       </c>
-      <c r="D103">
-        <v>1.514448703</v>
-      </c>
-      <c r="E103">
-        <v>1.4468352E-2</v>
-      </c>
-      <c r="F103">
-        <v>-6.2734873999999996E-2</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104" s="2">
         <v>0</v>
       </c>
@@ -2507,17 +1574,8 @@
       <c r="C104">
         <v>0.69447094796158493</v>
       </c>
-      <c r="D104">
-        <v>1.5145521630000001</v>
-      </c>
-      <c r="E104">
-        <v>1.4378350999999999E-2</v>
-      </c>
-      <c r="F104">
-        <v>-6.3009628999999998E-2</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6">
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105" s="2">
         <v>0</v>
       </c>
@@ -2527,17 +1585,8 @@
       <c r="C105">
         <v>0.69889041549767372</v>
       </c>
-      <c r="D105">
-        <v>1.5146590179999999</v>
-      </c>
-      <c r="E105">
-        <v>1.4155332E-2</v>
-      </c>
-      <c r="F105">
-        <v>-6.3321968000000006E-2</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6">
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106" s="2">
         <v>0</v>
       </c>
@@ -2547,17 +1596,8 @@
       <c r="C106">
         <v>0.70325060079019763</v>
       </c>
-      <c r="D106">
-        <v>1.514772537</v>
-      </c>
-      <c r="E106">
-        <v>1.381404E-2</v>
-      </c>
-      <c r="F106">
-        <v>-6.3660496999999996E-2</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6">
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A107" s="2">
         <v>0</v>
       </c>
@@ -2567,17 +1607,8 @@
       <c r="C107">
         <v>0.70754135864757051</v>
       </c>
-      <c r="D107">
-        <v>1.5148953519999999</v>
-      </c>
-      <c r="E107">
-        <v>1.3374436E-2</v>
-      </c>
-      <c r="F107">
-        <v>-6.4012875999999996E-2</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6">
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A108" s="2">
         <v>0</v>
       </c>
@@ -2587,17 +1618,8 @@
       <c r="C108">
         <v>0.7117527404211601</v>
       </c>
-      <c r="D108">
-        <v>1.51502925</v>
-      </c>
-      <c r="E108">
-        <v>1.2860470000000001E-2</v>
-      </c>
-      <c r="F108">
-        <v>-6.4366397000000006E-2</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6">
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A109" s="2">
         <v>0</v>
       </c>
@@ -2607,17 +1629,8 @@
       <c r="C109">
         <v>0.71587539037330461</v>
       </c>
-      <c r="D109">
-        <v>1.515175073</v>
-      </c>
-      <c r="E109">
-        <v>1.2298643E-2</v>
-      </c>
-      <c r="F109">
-        <v>-6.4708555000000001E-2</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6">
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A110" s="2">
         <v>0</v>
       </c>
@@ -2627,17 +1640,8 @@
       <c r="C110">
         <v>0.71990088119908813</v>
       </c>
-      <c r="D110">
-        <v>1.515332753</v>
-      </c>
-      <c r="E110">
-        <v>1.1716528E-2</v>
-      </c>
-      <c r="F110">
-        <v>-6.5027571000000006E-2</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6">
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A111" s="2">
         <v>0</v>
       </c>
@@ -2647,17 +1651,8 @@
       <c r="C111">
         <v>0.72382198200216519</v>
       </c>
-      <c r="D111">
-        <v>1.5155014659999999</v>
-      </c>
-      <c r="E111">
-        <v>1.1141363E-2</v>
-      </c>
-      <c r="F111">
-        <v>-6.5312834E-2</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6">
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A112" s="2">
         <v>0</v>
       </c>
@@ -2667,17 +1662,8 @@
       <c r="C112">
         <v>0.72763285459262594</v>
       </c>
-      <c r="D112">
-        <v>1.515679907</v>
-      </c>
-      <c r="E112">
-        <v>1.0598869E-2</v>
-      </c>
-      <c r="F112">
-        <v>-6.5555234000000004E-2</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6">
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A113" s="2">
         <v>0</v>
       </c>
@@ -2687,17 +1673,8 @@
       <c r="C113">
         <v>0.73132917660027075</v>
       </c>
-      <c r="D113">
-        <v>1.5158666489999999</v>
-      </c>
-      <c r="E113">
-        <v>1.0112365999999999E-2</v>
-      </c>
-      <c r="F113">
-        <v>-6.5747360000000005E-2</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6">
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A114" s="2">
         <v>0</v>
       </c>
@@ -2707,17 +1684,8 @@
       <c r="C114">
         <v>0.73490819263764495</v>
       </c>
-      <c r="D114">
-        <v>1.5160605570000001</v>
-      </c>
-      <c r="E114">
-        <v>9.7022359999999995E-3</v>
-      </c>
-      <c r="F114">
-        <v>-6.5883572000000001E-2</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6">
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A115" s="2">
         <v>0</v>
       </c>
@@ -2727,17 +1695,8 @@
       <c r="C115">
         <v>0.7383686974983702</v>
       </c>
-      <c r="D115">
-        <v>1.516261192</v>
-      </c>
-      <c r="E115">
-        <v>9.3857320000000008E-3</v>
-      </c>
-      <c r="F115">
-        <v>-6.5959948000000004E-2</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6">
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A116" s="2">
         <v>0</v>
       </c>
@@ -2747,17 +1706,8 @@
       <c r="C116">
         <v>0.74171095792348962</v>
       </c>
-      <c r="D116">
-        <v>1.51646919</v>
-      </c>
-      <c r="E116">
-        <v>9.1770340000000006E-3</v>
-      </c>
-      <c r="F116">
-        <v>-6.5974169999999999E-2</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6">
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A117" s="2">
         <v>0</v>
       </c>
@@ -2767,17 +1717,8 @@
       <c r="C117">
         <v>0.7449365815929424</v>
       </c>
-      <c r="D117">
-        <v>1.5166865700000001</v>
-      </c>
-      <c r="E117">
-        <v>9.0874560000000007E-3</v>
-      </c>
-      <c r="F117">
-        <v>-6.5925361000000002E-2</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6">
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A118" s="2">
         <v>0</v>
       </c>
@@ -2787,17 +1728,8 @@
       <c r="C118">
         <v>0.74804834359061112</v>
       </c>
-      <c r="D118">
-        <v>1.5169169440000001</v>
-      </c>
-      <c r="E118">
-        <v>9.1256710000000001E-3</v>
-      </c>
-      <c r="F118">
-        <v>-6.5813959000000005E-2</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6">
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A119" s="2">
         <v>0</v>
       </c>
@@ -2807,17 +1739,8 @@
       <c r="C119">
         <v>0.75104998164836467</v>
       </c>
-      <c r="D119">
-        <v>1.5171656259999999</v>
-      </c>
-      <c r="E119">
-        <v>9.29783E-3</v>
-      </c>
-      <c r="F119">
-        <v>-6.5641643E-2</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6">
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A120" s="2">
         <v>0</v>
       </c>
@@ -2827,17 +1750,8 @@
       <c r="C120">
         <v>0.7539459720083771</v>
       </c>
-      <c r="D120">
-        <v>1.51743962</v>
-      </c>
-      <c r="E120">
-        <v>9.607516E-3</v>
-      </c>
-      <c r="F120">
-        <v>-6.5411330000000004E-2</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6">
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A121" s="2">
         <v>0</v>
       </c>
@@ -2847,17 +1761,8 @@
       <c r="C121">
         <v>0.7567412977412683</v>
       </c>
-      <c r="D121">
-        <v>1.5177474849999999</v>
-      </c>
-      <c r="E121">
-        <v>1.0055522000000001E-2</v>
-      </c>
-      <c r="F121">
-        <v>-6.5127207000000006E-2</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6">
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A122" s="2">
         <v>0</v>
       </c>
@@ -2867,17 +1772,8 @@
       <c r="C122">
         <v>0.7594412208188388</v>
       </c>
-      <c r="D122">
-        <v>1.518099088</v>
-      </c>
-      <c r="E122">
-        <v>1.0639475000000001E-2</v>
-      </c>
-      <c r="F122">
-        <v>-6.4794746E-2</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6">
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A123" s="2">
         <v>0</v>
       </c>
@@ -2887,17 +1783,8 @@
       <c r="C123">
         <v>0.7620510681856284</v>
       </c>
-      <c r="D123">
-        <v>1.5185052539999999</v>
-      </c>
-      <c r="E123">
-        <v>1.1353403E-2</v>
-      </c>
-      <c r="F123">
-        <v>-6.4420621999999997E-2</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6">
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A124" s="2">
         <v>0</v>
       </c>
@@ -2907,17 +1794,8 @@
       <c r="C124">
         <v>0.76457604053442296</v>
       </c>
-      <c r="D124">
-        <v>1.518977368</v>
-      </c>
-      <c r="E124">
-        <v>1.2187326E-2</v>
-      </c>
-      <c r="F124">
-        <v>-6.4012468000000003E-2</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6">
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A125" s="2">
         <v>0</v>
       </c>
@@ -2927,17 +1805,8 @@
       <c r="C125">
         <v>0.76702105052189051</v>
       </c>
-      <c r="D125">
-        <v>1.519526954</v>
-      </c>
-      <c r="E125">
-        <v>1.3126987E-2</v>
-      </c>
-      <c r="F125">
-        <v>-6.3578409000000002E-2</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6">
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A126" s="2">
         <v>0</v>
       </c>
@@ -2947,17 +1816,8 @@
       <c r="C126">
         <v>0.76939059488573447</v>
       </c>
-      <c r="D126">
-        <v>1.5201653079999999</v>
-      </c>
-      <c r="E126">
-        <v>1.4153786999999999E-2</v>
-      </c>
-      <c r="F126">
-        <v>-6.3126355999999995E-2</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6">
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A127" s="2">
         <v>0</v>
       </c>
@@ -2967,17 +1827,8 @@
       <c r="C127">
         <v>0.77168866254445079</v>
       </c>
-      <c r="D127">
-        <v>1.5209031989999999</v>
-      </c>
-      <c r="E127">
-        <v>1.524502E-2</v>
-      </c>
-      <c r="F127">
-        <v>-6.2663071000000001E-2</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6">
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A128" s="2">
         <v>0</v>
       </c>
@@ -2987,17 +1838,8 @@
       <c r="C128">
         <v>0.77391867847655682</v>
       </c>
-      <c r="D128">
-        <v>1.5217506970000001</v>
-      </c>
-      <c r="E128">
-        <v>1.6374412000000001E-2</v>
-      </c>
-      <c r="F128">
-        <v>-6.2193058000000002E-2</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6">
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A129" s="2">
         <v>0</v>
       </c>
@@ -3007,17 +1849,8 @@
       <c r="C129">
         <v>0.77608348114886661</v>
       </c>
-      <c r="D129">
-        <v>1.522717125</v>
-      </c>
-      <c r="E129">
-        <v>1.7513008E-2</v>
-      </c>
-      <c r="F129">
-        <v>-6.1717367000000002E-2</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6">
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A130" s="2">
         <v>0</v>
       </c>
@@ -3027,17 +1860,8 @@
       <c r="C130">
         <v>0.7781853296728688</v>
       </c>
-      <c r="D130">
-        <v>1.523811153</v>
-      </c>
-      <c r="E130">
-        <v>1.8630383E-2</v>
-      </c>
-      <c r="F130">
-        <v>-6.1232437000000001E-2</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6">
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A131" s="2">
         <v>0</v>
       </c>
@@ -3047,17 +1871,8 @@
       <c r="C131">
         <v>0.78022593587110478</v>
       </c>
-      <c r="D131">
-        <v>1.5250410249999999</v>
-      </c>
-      <c r="E131">
-        <v>1.9696148E-2</v>
-      </c>
-      <c r="F131">
-        <v>-6.0729088000000001E-2</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6">
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A132" s="2">
         <v>0</v>
       </c>
@@ -3067,17 +1882,8 @@
       <c r="C132">
         <v>0.78220651596277335</v>
       </c>
-      <c r="D132">
-        <v>1.526414911</v>
-      </c>
-      <c r="E132">
-        <v>2.0681663999999999E-2</v>
-      </c>
-      <c r="F132">
-        <v>-6.0191823999999998E-2</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6">
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133" s="2">
         <v>0</v>
       </c>
@@ -3087,17 +1893,8 @@
       <c r="C133">
         <v>0.78412785636680948</v>
       </c>
-      <c r="D133">
-        <v>1.527941368</v>
-      </c>
-      <c r="E133">
-        <v>2.1561872999999999E-2</v>
-      </c>
-      <c r="F133">
-        <v>-5.9598529999999997E-2</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6">
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" s="2">
         <v>0</v>
       </c>
@@ -3107,17 +1904,8 @@
       <c r="C134">
         <v>0.78599038807000376</v>
       </c>
-      <c r="D134">
-        <v>1.5296299040000001</v>
-      </c>
-      <c r="E134">
-        <v>2.2317077000000001E-2</v>
-      </c>
-      <c r="F134">
-        <v>-5.8920650999999997E-2</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6">
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" s="2">
         <v>0</v>
       </c>
@@ -3127,17 +1915,8 @@
       <c r="C135">
         <v>0.78779426427839438</v>
       </c>
-      <c r="D135">
-        <v>1.5314916409999999</v>
-      </c>
-      <c r="E135">
-        <v>2.2934487999999999E-2</v>
-      </c>
-      <c r="F135">
-        <v>-5.8123914999999998E-2</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6">
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" s="2">
         <v>0</v>
       </c>
@@ -3147,17 +1926,8 @@
       <c r="C136">
         <v>0.78953943675655136</v>
       </c>
-      <c r="D136">
-        <v>1.533540039</v>
-      </c>
-      <c r="E136">
-        <v>2.3409327000000001E-2</v>
-      </c>
-      <c r="F136">
-        <v>-5.7169593999999997E-2</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6">
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137" s="2">
         <v>0</v>
       </c>
@@ -3167,17 +1937,8 @@
       <c r="C137">
         <v>0.79122572720332673</v>
       </c>
-      <c r="D137">
-        <v>1.535791645</v>
-      </c>
-      <c r="E137">
-        <v>2.3745291000000002E-2</v>
-      </c>
-      <c r="F137">
-        <v>-5.6016304000000003E-2</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6">
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138" s="2">
         <v>0</v>
       </c>
@@ -3187,17 +1948,8 @@
       <c r="C138">
         <v>0.79285289098560197</v>
       </c>
-      <c r="D138">
-        <v>1.538266793</v>
-      </c>
-      <c r="E138">
-        <v>2.3954258999999999E-2</v>
-      </c>
-      <c r="F138">
-        <v>-5.4622257E-2</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6">
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A139" s="2">
         <v>0</v>
       </c>
@@ -3207,17 +1959,8 @@
       <c r="C139">
         <v>0.79442067144306294</v>
       </c>
-      <c r="D139">
-        <v>1.5409901749999999</v>
-      </c>
-      <c r="E139">
-        <v>2.4055211E-2</v>
-      </c>
-      <c r="F139">
-        <v>-5.2947882000000002E-2</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6">
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A140" s="2">
         <v>0</v>
       </c>
@@ -3227,17 +1970,8 @@
       <c r="C140">
         <v>0.79592884378819007</v>
       </c>
-      <c r="D140">
-        <v>1.543991221</v>
-      </c>
-      <c r="E140">
-        <v>2.4072435E-2</v>
-      </c>
-      <c r="F140">
-        <v>-5.0958641999999998E-2</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6">
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A141" s="2">
         <v>0</v>
       </c>
@@ -3247,17 +1981,8 @@
       <c r="C141">
         <v>0.79737724836485024</v>
       </c>
-      <c r="D141">
-        <v>1.547304265</v>
-      </c>
-      <c r="E141">
-        <v>2.4033210999999999E-2</v>
-      </c>
-      <c r="F141">
-        <v>-4.8627904999999999E-2</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6">
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A142" s="2">
         <v>0</v>
       </c>
@@ -3267,17 +1992,8 @@
       <c r="C142">
         <v>0.79876581364616051</v>
       </c>
-      <c r="D142">
-        <v>1.550968466</v>
-      </c>
-      <c r="E142">
-        <v>2.3965225E-2</v>
-      </c>
-      <c r="F142">
-        <v>-4.5939652999999997E-2</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6">
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A143" s="2">
         <v>0</v>
       </c>
@@ -3287,17 +2003,8 @@
       <c r="C143">
         <v>0.80009456977133431</v>
       </c>
-      <c r="D143">
-        <v>1.5550274879999999</v>
-      </c>
-      <c r="E143">
-        <v>2.3894044999999999E-2</v>
-      </c>
-      <c r="F143">
-        <v>-4.2890843999999997E-2</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6">
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A144" s="2">
         <v>0</v>
       </c>
@@ -3307,17 +2014,8 @@
       <c r="C144">
         <v>0.80136365362057549</v>
       </c>
-      <c r="D144">
-        <v>1.559528933</v>
-      </c>
-      <c r="E144">
-        <v>2.384097E-2</v>
-      </c>
-      <c r="F144">
-        <v>-3.9493195000000002E-2</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6">
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A145" s="2">
         <v>0</v>
       </c>
@@ -3327,17 +2025,8 @@
       <c r="C145">
         <v>0.80257330649449465</v>
       </c>
-      <c r="D145">
-        <v>1.564523482</v>
-      </c>
-      <c r="E145">
-        <v>2.3821492E-2</v>
-      </c>
-      <c r="F145">
-        <v>-3.5774173999999999E-2</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6">
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A146" s="2">
         <v>0</v>
       </c>
@@ -3347,17 +2036,8 @@
       <c r="C146">
         <v>0.80372386555911046</v>
       </c>
-      <c r="D146">
-        <v>1.570063757</v>
-      </c>
-      <c r="E146">
-        <v>2.3844575E-2</v>
-      </c>
-      <c r="F146">
-        <v>-3.1776998000000001E-2</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6">
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A147" s="2">
         <v>0</v>
       </c>
@@ -3367,17 +2047,8 @@
       <c r="C147">
         <v>0.80481575043259457</v>
       </c>
-      <c r="D147">
-        <v>1.576202908</v>
-      </c>
-      <c r="E147">
-        <v>2.3912806000000002E-2</v>
-      </c>
-      <c r="F147">
-        <v>-2.7559510999999998E-2</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6">
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A148" s="2">
         <v>0</v>
       </c>
@@ -3387,17 +2058,8 @@
       <c r="C148">
         <v>0.80584944655293544</v>
       </c>
-      <c r="D148">
-        <v>1.582992961</v>
-      </c>
-      <c r="E148">
-        <v>2.4023358000000002E-2</v>
-      </c>
-      <c r="F148">
-        <v>-2.3191902E-2</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6">
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A149" s="2">
         <v>0</v>
       </c>
@@ -3407,17 +2069,8 @@
       <c r="C149">
         <v>0.80682548710472546</v>
       </c>
-      <c r="D149">
-        <v>1.590483026</v>
-      </c>
-      <c r="E149">
-        <v>2.4169579E-2</v>
-      </c>
-      <c r="F149">
-        <v>-1.8753382999999998E-2</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6">
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A150" s="2">
         <v>0</v>
       </c>
@@ -3427,17 +2080,8 @@
       <c r="C150">
         <v>0.80774443519248174</v>
       </c>
-      <c r="D150">
-        <v>1.598717422</v>
-      </c>
-      <c r="E150">
-        <v>2.4342935E-2</v>
-      </c>
-      <c r="F150">
-        <v>-1.4328052000000001E-2</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6">
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A151" s="2">
         <v>0</v>
       </c>
@@ -3447,17 +2091,8 @@
       <c r="C151">
         <v>0.80860686767118217</v>
       </c>
-      <c r="D151">
-        <v>1.607733871</v>
-      </c>
-      <c r="E151">
-        <v>2.4535044999999998E-2</v>
-      </c>
-      <c r="F151">
-        <v>-1.0000302000000001E-2</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6">
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A152" s="2">
         <v>0</v>
       </c>
@@ -3467,17 +2102,8 @@
       <c r="C152">
         <v>0.8094133616980923</v>
       </c>
-      <c r="D152">
-        <v>1.6175618430000001</v>
-      </c>
-      <c r="E152">
-        <v>2.4739575999999999E-2</v>
-      </c>
-      <c r="F152">
-        <v>-5.8502210000000001E-3</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6">
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A153" s="2">
         <v>0</v>
       </c>
@@ -3487,17 +2113,8 @@
       <c r="C153">
         <v>0.81016448472037406</v>
       </c>
-      <c r="D153">
-        <v>1.6282211609999999</v>
-      </c>
-      <c r="E153">
-        <v>2.4953803E-2</v>
-      </c>
-      <c r="F153">
-        <v>-1.949398E-3</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6">
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A154" s="2">
         <v>0</v>
       </c>
@@ -3507,17 +2124,8 @@
       <c r="C154">
         <v>0.81086078826211583</v>
       </c>
-      <c r="D154">
-        <v>1.6397208999999999</v>
-      </c>
-      <c r="E154">
-        <v>2.5179672E-2</v>
-      </c>
-      <c r="F154">
-        <v>1.642515E-3</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6">
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A155" s="2">
         <v>0</v>
       </c>
@@ -3527,17 +2135,8 @@
       <c r="C155">
         <v>0.8115028055291128</v>
       </c>
-      <c r="D155">
-        <v>1.652058593</v>
-      </c>
-      <c r="E155">
-        <v>2.5424192000000002E-2</v>
-      </c>
-      <c r="F155">
-        <v>4.8802120000000001E-3</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6">
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A156" s="2">
         <v>0</v>
       </c>
@@ -3547,17 +2146,8 @@
       <c r="C156">
         <v>0.81209105256962177</v>
       </c>
-      <c r="D156">
-        <v>1.665219743</v>
-      </c>
-      <c r="E156">
-        <v>2.5699049000000002E-2</v>
-      </c>
-      <c r="F156">
-        <v>7.7340170000000001E-3</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6">
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A157" s="2">
         <v>0</v>
       </c>
@@ -3567,17 +2157,8 @@
       <c r="C157">
         <v>0.81262603259868615</v>
       </c>
-      <c r="D157">
-        <v>1.6791776860000001</v>
-      </c>
-      <c r="E157">
-        <v>2.6019383E-2</v>
-      </c>
-      <c r="F157">
-        <v>1.0189992E-2</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6">
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A158" s="2">
         <v>0</v>
       </c>
@@ -3587,17 +2168,8 @@
       <c r="C158">
         <v>0.8131082431340465</v>
       </c>
-      <c r="D158">
-        <v>1.6938938450000001</v>
-      </c>
-      <c r="E158">
-        <v>2.6401823000000001E-2</v>
-      </c>
-      <c r="F158">
-        <v>1.224896E-2</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6">
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A159" s="2">
         <v>0</v>
       </c>
@@ -3607,17 +2179,8 @@
       <c r="C159">
         <v>0.81353818570695358</v>
       </c>
-      <c r="D159">
-        <v>1.7093185070000001</v>
-      </c>
-      <c r="E159">
-        <v>2.6862001999999999E-2</v>
-      </c>
-      <c r="F159">
-        <v>1.3924654999999999E-2</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6">
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A160" s="2">
         <v>0</v>
       </c>
@@ -3627,17 +2190,8 @@
       <c r="C160">
         <v>0.81391637793759908</v>
       </c>
-      <c r="D160">
-        <v>1.7253921619999999</v>
-      </c>
-      <c r="E160">
-        <v>2.7411937000000001E-2</v>
-      </c>
-      <c r="F160">
-        <v>1.5241215000000001E-2</v>
-      </c>
-    </row>
-    <row r="161" spans="1:6">
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A161" s="2">
         <v>0</v>
       </c>
@@ -3647,17 +2201,8 @@
       <c r="C161">
         <v>0.81424336757937399</v>
       </c>
-      <c r="D161">
-        <v>1.742047425</v>
-      </c>
-      <c r="E161">
-        <v>2.8057611E-2</v>
-      </c>
-      <c r="F161">
-        <v>1.6230349000000002E-2</v>
-      </c>
-    </row>
-    <row r="162" spans="1:6">
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A162" s="2">
         <v>0</v>
       </c>
@@ -3667,17 +2212,8 @@
       <c r="C162">
         <v>0.81451974774381697</v>
       </c>
-      <c r="D162">
-        <v>1.7592114299999999</v>
-      </c>
-      <c r="E162">
-        <v>2.8797093999999999E-2</v>
-      </c>
-      <c r="F162">
-        <v>1.6928466999999999E-2</v>
-      </c>
-    </row>
-    <row r="163" spans="1:6">
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A163" s="2">
         <v>0</v>
       </c>
@@ -3687,17 +2223,8 @@
       <c r="C163">
         <v>0.81474617207169986</v>
       </c>
-      <c r="D163">
-        <v>1.7768085549999999</v>
-      </c>
-      <c r="E163">
-        <v>2.9619412000000001E-2</v>
-      </c>
-      <c r="F163">
-        <v>1.7374028E-2</v>
-      </c>
-    </row>
-    <row r="164" spans="1:6">
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A164" s="2">
         <v>0</v>
       </c>
@@ -3707,17 +2234,8 @@
       <c r="C164">
         <v>0.81492336832405632</v>
       </c>
-      <c r="D164">
-        <v>1.794763302</v>
-      </c>
-      <c r="E164">
-        <v>3.0504292999999998E-2</v>
-      </c>
-      <c r="F164">
-        <v>1.7605327E-2</v>
-      </c>
-    </row>
-    <row r="165" spans="1:6">
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A165" s="2">
         <v>0</v>
       </c>
@@ -3727,17 +2245,8 @@
       <c r="C165">
         <v>0.81505214884427546</v>
       </c>
-      <c r="D165">
-        <v>1.813003138</v>
-      </c>
-      <c r="E165">
-        <v>3.1422789E-2</v>
-      </c>
-      <c r="F165">
-        <v>1.7658805E-2</v>
-      </c>
-    </row>
-    <row r="166" spans="1:6">
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A166" s="2">
         <v>0</v>
       </c>
@@ -3747,17 +2256,8 @@
       <c r="C166">
         <v>0.81513341655848448</v>
       </c>
-      <c r="D166">
-        <v>1.831461137</v>
-      </c>
-      <c r="E166">
-        <v>3.2338684999999999E-2</v>
-      </c>
-      <c r="F166">
-        <v>1.7567896E-2</v>
-      </c>
-    </row>
-    <row r="167" spans="1:6">
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A167" s="2">
         <v>0</v>
       </c>
@@ -3767,17 +2267,8 @@
       <c r="C167">
         <v>0.81516816556071059</v>
       </c>
-      <c r="D167">
-        <v>1.8500782549999999</v>
-      </c>
-      <c r="E167">
-        <v>3.3210490000000002E-2</v>
-      </c>
-      <c r="F167">
-        <v>1.7362335999999999E-2</v>
-      </c>
-    </row>
-    <row r="168" spans="1:6">
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A168" s="2">
         <v>0</v>
       </c>
@@ -3787,17 +2278,8 @@
       <c r="C168">
         <v>0.81515747583921438</v>
       </c>
-      <c r="D168">
-        <v>1.868805126</v>
-      </c>
-      <c r="E168">
-        <v>3.3993793000000001E-2</v>
-      </c>
-      <c r="F168">
-        <v>1.7067816E-2</v>
-      </c>
-    </row>
-    <row r="169" spans="1:6">
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A169" s="2">
         <v>0</v>
       </c>
@@ -3807,17 +2289,8 @@
       <c r="C169">
         <v>0.81510250232344461</v>
       </c>
-      <c r="D169">
-        <v>1.8876033080000001</v>
-      </c>
-      <c r="E169">
-        <v>3.4643644000000001E-2</v>
-      </c>
-      <c r="F169">
-        <v>1.6705801999999999E-2</v>
-      </c>
-    </row>
-    <row r="170" spans="1:6">
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A170" s="2">
         <v>0</v>
       </c>
@@ -3827,17 +2300,8 @@
       <c r="C170">
         <v>0.81500445911219488</v>
       </c>
-      <c r="D170">
-        <v>1.906445921</v>
-      </c>
-      <c r="E170">
-        <v>3.5116623999999999E-2</v>
-      </c>
-      <c r="F170">
-        <v>1.6293358000000001E-2</v>
-      </c>
-    </row>
-    <row r="171" spans="1:6">
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A171" s="2">
         <v>0</v>
       </c>
@@ -3847,17 +2311,8 @@
       <c r="C171">
         <v>0.81486460037025521</v>
       </c>
-      <c r="D171">
-        <v>1.9253176380000001</v>
-      </c>
-      <c r="E171">
-        <v>3.5372318999999999E-2</v>
-      </c>
-      <c r="F171">
-        <v>1.5842894999999999E-2</v>
-      </c>
-    </row>
-    <row r="172" spans="1:6">
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A172" s="2">
         <v>0</v>
       </c>
@@ -3867,17 +2322,8 @@
       <c r="C172">
         <v>0.81468419975952411</v>
       </c>
-      <c r="D172">
-        <v>1.9442140059999999</v>
-      </c>
-      <c r="E172">
-        <v>3.5374122000000001E-2</v>
-      </c>
-      <c r="F172">
-        <v>1.5361846E-2</v>
-      </c>
-    </row>
-    <row r="173" spans="1:6">
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A173" s="2">
         <v>0</v>
       </c>
@@ -3887,17 +2333,8 @@
       <c r="C173">
         <v>0.81446453021208909</v>
       </c>
-      <c r="D173">
-        <v>1.963140098</v>
-      </c>
-      <c r="E173">
-        <v>3.5089587999999998E-2</v>
-      </c>
-      <c r="F173">
-        <v>1.4852394E-2</v>
-      </c>
-    </row>
-    <row r="174" spans="1:6">
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A174" s="2">
         <v>0</v>
       </c>
@@ -3907,17 +2344,8 @@
       <c r="C174">
         <v>0.81420684540783062</v>
       </c>
-      <c r="D174">
-        <v>1.982108601</v>
-      </c>
-      <c r="E174">
-        <v>3.4490707000000002E-2</v>
-      </c>
-      <c r="F174">
-        <v>1.4311432000000001E-2</v>
-      </c>
-    </row>
-    <row r="175" spans="1:6">
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A175" s="2">
         <v>0</v>
       </c>
@@ -3927,17 +2355,8 @@
       <c r="C175">
         <v>0.81391236380942289</v>
       </c>
-      <c r="D175">
-        <v>2.0011374769999999</v>
-      </c>
-      <c r="E175">
-        <v>3.3554542999999999E-2</v>
-      </c>
-      <c r="F175">
-        <v>1.3730885E-2</v>
-      </c>
-    </row>
-    <row r="176" spans="1:6">
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A176" s="2">
         <v>0</v>
       </c>
@@ -3947,17 +2366,8 @@
       <c r="C176">
         <v>0.81358225578859311</v>
       </c>
-      <c r="D176">
-        <v>2.0202474590000001</v>
-      </c>
-      <c r="E176">
-        <v>3.2264519999999998E-2</v>
-      </c>
-      <c r="F176">
-        <v>1.3098476E-2</v>
-      </c>
-    </row>
-    <row r="177" spans="1:6">
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A177" s="2">
         <v>0</v>
       </c>
@@ -3967,17 +2377,8 @@
       <c r="C177">
         <v>0.81321763419444604</v>
       </c>
-      <c r="D177">
-        <v>2.0394595789999999</v>
-      </c>
-      <c r="E177">
-        <v>3.0612415E-2</v>
-      </c>
-      <c r="F177">
-        <v>1.2398924E-2</v>
-      </c>
-    </row>
-    <row r="178" spans="1:6">
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A178" s="2">
         <v>0</v>
       </c>
@@ -3987,17 +2388,8 @@
       <c r="C178">
         <v>0.81281954847835425</v>
       </c>
-      <c r="D178">
-        <v>2.058792918</v>
-      </c>
-      <c r="E178">
-        <v>2.8600885E-2</v>
-      </c>
-      <c r="F178">
-        <v>1.1615464000000001E-2</v>
-      </c>
-    </row>
-    <row r="179" spans="1:6">
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A179" s="2">
         <v>0</v>
       </c>
@@ -4007,17 +2399,8 @@
       <c r="C179">
         <v>0.81238898215456812</v>
       </c>
-      <c r="D179">
-        <v>2.078262665</v>
-      </c>
-      <c r="E179">
-        <v>2.6246108000000001E-2</v>
-      </c>
-      <c r="F179">
-        <v>1.0731546E-2</v>
-      </c>
-    </row>
-    <row r="180" spans="1:6">
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A180" s="2">
         <v>0</v>
       </c>
@@ -4027,17 +2410,8 @@
       <c r="C180">
         <v>0.8119268530633289</v>
       </c>
-      <c r="D180">
-        <v>2.097878589</v>
-      </c>
-      <c r="E180">
-        <v>2.3580053E-2</v>
-      </c>
-      <c r="F180">
-        <v>9.7325199999999997E-3</v>
-      </c>
-    </row>
-    <row r="181" spans="1:6">
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A181" s="2">
         <v>0</v>
       </c>
@@ -4047,17 +2421,8 @@
       <c r="C181">
         <v>0.81143401573883223</v>
       </c>
-      <c r="D181">
-        <v>2.1176440240000001</v>
-      </c>
-      <c r="E181">
-        <v>2.0651882999999999E-2</v>
-      </c>
-      <c r="F181">
-        <v>8.6071120000000001E-3</v>
-      </c>
-    </row>
-    <row r="182" spans="1:6">
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A182" s="2">
         <v>0</v>
       </c>
@@ -4067,17 +2432,8 @@
       <c r="C182">
         <v>0.8109112651894741</v>
       </c>
-      <c r="D182">
-        <v>2.1375554810000001</v>
-      </c>
-      <c r="E182">
-        <v>1.7528135E-2</v>
-      </c>
-      <c r="F182">
-        <v>7.3485149999999999E-3</v>
-      </c>
-    </row>
-    <row r="183" spans="1:6">
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A183" s="2">
         <v>0</v>
       </c>
@@ -4087,17 +2443,8 @@
       <c r="C183">
         <v>0.81035934152751465</v>
       </c>
-      <c r="D183">
-        <v>2.1576029910000001</v>
-      </c>
-      <c r="E183">
-        <v>1.4291464E-2</v>
-      </c>
-      <c r="F183">
-        <v>5.9550050000000002E-3</v>
-      </c>
-    </row>
-    <row r="184" spans="1:6">
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A184" s="2">
         <v>0</v>
       </c>
@@ -4107,17 +2454,8 @@
       <c r="C184">
         <v>0.80977893508338161</v>
       </c>
-      <c r="D184">
-        <v>2.177771205</v>
-      </c>
-      <c r="E184">
-        <v>1.1037903E-2</v>
-      </c>
-      <c r="F184">
-        <v>4.4300210000000001E-3</v>
-      </c>
-    </row>
-    <row r="185" spans="1:6">
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A185" s="2">
         <v>0</v>
       </c>
@@ -4127,17 +2465,8 @@
       <c r="C185">
         <v>0.80917069184102486</v>
       </c>
-      <c r="D185">
-        <v>2.1980411960000001</v>
-      </c>
-      <c r="E185">
-        <v>7.8727090000000003E-3</v>
-      </c>
-      <c r="F185">
-        <v>2.7817530000000001E-3</v>
-      </c>
-    </row>
-    <row r="186" spans="1:6">
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A186" s="2">
         <v>0</v>
       </c>
@@ -4147,17 +2476,8 @@
       <c r="C186">
         <v>0.80853521919209903</v>
       </c>
-      <c r="D186">
-        <v>2.2183927699999999</v>
-      </c>
-      <c r="E186">
-        <v>4.9049719999999996E-3</v>
-      </c>
-      <c r="F186">
-        <v>1.0223140000000001E-3</v>
-      </c>
-    </row>
-    <row r="187" spans="1:6">
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A187" s="2">
         <v>0</v>
       </c>
@@ -4167,17 +2487,8 @@
       <c r="C187">
         <v>0.80787309214341707</v>
       </c>
-      <c r="D187">
-        <v>2.2388069970000002</v>
-      </c>
-      <c r="E187">
-        <v>2.241327E-3</v>
-      </c>
-      <c r="F187">
-        <v>-8.3336700000000001E-4</v>
-      </c>
-    </row>
-    <row r="188" spans="1:6">
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A188" s="2">
         <v>0</v>
       </c>
@@ -4187,17 +2498,9 @@
       <c r="C188">
         <v>0.80718486022769298</v>
       </c>
-      <c r="D188">
-        <v>2.2592686550000001</v>
-      </c>
-      <c r="E188" s="4">
-        <v>-2.07996E-5</v>
-      </c>
-      <c r="F188">
-        <v>-2.7687889999999998E-3</v>
-      </c>
-    </row>
-    <row r="189" spans="1:6">
+      <c r="E188" s="4"/>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A189" s="2">
         <v>0</v>
       </c>
@@ -4207,17 +2510,8 @@
       <c r="C189">
         <v>0.80647105539291408</v>
       </c>
-      <c r="D189">
-        <v>2.2797683129999999</v>
-      </c>
-      <c r="E189">
-        <v>-1.799826E-3</v>
-      </c>
-      <c r="F189">
-        <v>-4.7671279999999998E-3</v>
-      </c>
-    </row>
-    <row r="190" spans="1:6">
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A190" s="2">
         <v>0</v>
       </c>
@@ -4227,17 +2521,8 @@
       <c r="C190">
         <v>0.80573220102922993</v>
       </c>
-      <c r="D190">
-        <v>2.3003038920000001</v>
-      </c>
-      <c r="E190">
-        <v>-3.0358859999999998E-3</v>
-      </c>
-      <c r="F190">
-        <v>-6.8123410000000004E-3</v>
-      </c>
-    </row>
-    <row r="191" spans="1:6">
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A191" s="2">
         <v>0</v>
       </c>
@@ -4247,17 +2532,8 @@
       <c r="C191">
         <v>0.80496882207248244</v>
       </c>
-      <c r="D191">
-        <v>2.3208816159999999</v>
-      </c>
-      <c r="E191">
-        <v>-3.6953120000000001E-3</v>
-      </c>
-      <c r="F191">
-        <v>-8.8900330000000003E-3</v>
-      </c>
-    </row>
-    <row r="192" spans="1:6">
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A192" s="2">
         <v>0</v>
       </c>
@@ -4267,17 +2543,8 @@
       <c r="C192">
         <v>0.80418145586326373</v>
       </c>
-      <c r="D192">
-        <v>2.3415162939999998</v>
-      </c>
-      <c r="E192">
-        <v>-3.773176E-3</v>
-      </c>
-      <c r="F192">
-        <v>-1.0988023E-2</v>
-      </c>
-    </row>
-    <row r="193" spans="1:6">
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A193" s="2">
         <v>0</v>
       </c>
@@ -4287,17 +2554,8 @@
       <c r="C193">
         <v>0.8033706632005293</v>
       </c>
-      <c r="D193">
-        <v>2.3622308849999998</v>
-      </c>
-      <c r="E193">
-        <v>-3.2935809999999999E-3</v>
-      </c>
-      <c r="F193">
-        <v>-1.3096603E-2</v>
-      </c>
-    </row>
-    <row r="194" spans="1:6">
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A194" s="2">
         <v>0</v>
       </c>
@@ -4307,17 +2565,8 @@
       <c r="C194">
         <v>0.80253703889343608</v>
       </c>
-      <c r="D194">
-        <v>2.383055304</v>
-      </c>
-      <c r="E194">
-        <v>-2.3076070000000001E-3</v>
-      </c>
-      <c r="F194">
-        <v>-1.5208535E-2</v>
-      </c>
-    </row>
-    <row r="195" spans="1:6">
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A195" s="2">
         <v>0</v>
       </c>
@@ -4327,17 +2576,8 @@
       <c r="C195">
         <v>0.80168122111772555</v>
       </c>
-      <c r="D195">
-        <v>2.4040244670000002</v>
-      </c>
-      <c r="E195">
-        <v>-8.8907400000000001E-4</v>
-      </c>
-      <c r="F195">
-        <v>-1.7318839999999999E-2</v>
-      </c>
-    </row>
-    <row r="196" spans="1:6">
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A196" s="2">
         <v>0</v>
       </c>
@@ -4347,17 +2587,8 @@
       <c r="C196">
         <v>0.80080389894797033</v>
       </c>
-      <c r="D196">
-        <v>2.4251756279999999</v>
-      </c>
-      <c r="E196">
-        <v>8.7148E-4</v>
-      </c>
-      <c r="F196">
-        <v>-1.9424426000000002E-2</v>
-      </c>
-    </row>
-    <row r="197" spans="1:6">
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A197" s="2">
         <v>0</v>
       </c>
@@ -4367,17 +2598,8 @@
       <c r="C197">
         <v>0.79990581747611444</v>
       </c>
-      <c r="D197">
-        <v>2.446545145</v>
-      </c>
-      <c r="E197">
-        <v>2.874101E-3</v>
-      </c>
-      <c r="F197">
-        <v>-2.1523570999999998E-2</v>
-      </c>
-    </row>
-    <row r="198" spans="1:6">
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A198" s="2">
         <v>0</v>
       </c>
@@ -4387,17 +2609,8 @@
       <c r="C198">
         <v>0.79898777994321546</v>
       </c>
-      <c r="D198">
-        <v>2.4681648620000001</v>
-      </c>
-      <c r="E198">
-        <v>5.0173639999999999E-3</v>
-      </c>
-      <c r="F198">
-        <v>-2.3615267999999998E-2</v>
-      </c>
-    </row>
-    <row r="199" spans="1:6">
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A199" s="2">
         <v>0</v>
       </c>
@@ -4407,17 +2620,8 @@
       <c r="C199">
         <v>0.79805064637823553</v>
       </c>
-      <c r="D199">
-        <v>2.490058383</v>
-      </c>
-      <c r="E199">
-        <v>7.2062480000000002E-3</v>
-      </c>
-      <c r="F199">
-        <v>-2.5698510000000001E-2</v>
-      </c>
-    </row>
-    <row r="200" spans="1:6">
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A200" s="2">
         <v>0</v>
       </c>
@@ -4427,17 +2631,8 @@
       <c r="C200">
         <v>0.79709532842145159</v>
       </c>
-      <c r="D200">
-        <v>2.5122375049999999</v>
-      </c>
-      <c r="E200">
-        <v>9.3592429999999997E-3</v>
-      </c>
-      <c r="F200">
-        <v>-2.7771608E-2</v>
-      </c>
-    </row>
-    <row r="201" spans="1:6">
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A201" s="2">
         <v>0</v>
       </c>
@@ -4447,17 +2642,8 @@
       <c r="C201">
         <v>0.79612278033009565</v>
       </c>
-      <c r="D201">
-        <v>2.5346991220000001</v>
-      </c>
-      <c r="E201">
-        <v>1.141404E-2</v>
-      </c>
-      <c r="F201">
-        <v>-2.9831692E-2</v>
-      </c>
-    </row>
-    <row r="202" spans="1:6">
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A202" s="2">
         <v>0</v>
       </c>
@@ -4467,17 +2653,8 @@
       <c r="C202">
         <v>0.79513398658660051</v>
       </c>
-      <c r="D202">
-        <v>2.5574228360000002</v>
-      </c>
-      <c r="E202">
-        <v>1.3331279E-2</v>
-      </c>
-      <c r="F202">
-        <v>-3.1874515999999999E-2</v>
-      </c>
-    </row>
-    <row r="203" spans="1:6">
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A203" s="2">
         <v>0</v>
       </c>
@@ -4487,17 +2664,8 @@
       <c r="C203">
         <v>0.79412994696889871</v>
       </c>
-      <c r="D203">
-        <v>2.58036953</v>
-      </c>
-      <c r="E203">
-        <v>1.5096072E-2</v>
-      </c>
-      <c r="F203">
-        <v>-3.3894594E-2</v>
-      </c>
-    </row>
-    <row r="204" spans="1:6">
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A204" s="2">
         <v>0</v>
       </c>
@@ -4507,17 +2675,8 @@
       <c r="C204">
         <v>0.79311166027688274</v>
       </c>
-      <c r="D204">
-        <v>2.6034810469999998</v>
-      </c>
-      <c r="E204">
-        <v>1.6717221000000001E-2</v>
-      </c>
-      <c r="F204">
-        <v>-3.5885656000000002E-2</v>
-      </c>
-    </row>
-    <row r="205" spans="1:6">
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A205" s="2">
         <v>0</v>
       </c>
@@ -4527,17 +2686,8 @@
       <c r="C205">
         <v>0.79208010803401852</v>
       </c>
-      <c r="D205">
-        <v>2.6266810839999999</v>
-      </c>
-      <c r="E205">
-        <v>1.8224311E-2</v>
-      </c>
-      <c r="F205">
-        <v>-3.7841315E-2</v>
-      </c>
-    </row>
-    <row r="206" spans="1:6">
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A206" s="2">
         <v>0</v>
       </c>
@@ -4547,17 +2697,8 @@
       <c r="C206">
         <v>0.79103623937761225</v>
       </c>
-      <c r="D206">
-        <v>2.6498772989999999</v>
-      </c>
-      <c r="E206">
-        <v>1.9663054999999999E-2</v>
-      </c>
-      <c r="F206">
-        <v>-3.9755829999999999E-2</v>
-      </c>
-    </row>
-    <row r="207" spans="1:6">
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A207" s="2">
         <v>0</v>
       </c>
@@ -4567,17 +2708,8 @@
       <c r="C207">
         <v>0.78998095811908553</v>
       </c>
-      <c r="D207">
-        <v>2.672964522</v>
-      </c>
-      <c r="E207">
-        <v>2.1089433000000001E-2</v>
-      </c>
-      <c r="F207">
-        <v>-4.1624873999999999E-2</v>
-      </c>
-    </row>
-    <row r="208" spans="1:6">
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A208" s="2">
         <v>0</v>
       </c>
@@ -4587,17 +2719,8 @@
       <c r="C208">
         <v>0.78891511272683024</v>
       </c>
-      <c r="D208">
-        <v>2.6958288829999999</v>
-      </c>
-      <c r="E208">
-        <v>2.2563274000000001E-2</v>
-      </c>
-      <c r="F208">
-        <v>-4.3446191000000002E-2</v>
-      </c>
-    </row>
-    <row r="209" spans="1:6">
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A209" s="2">
         <v>0</v>
       </c>
@@ -4607,17 +2730,8 @@
       <c r="C209">
         <v>0.78783948974531537</v>
       </c>
-      <c r="D209">
-        <v>2.7183525610000001</v>
-      </c>
-      <c r="E209">
-        <v>2.4141955999999999E-2</v>
-      </c>
-      <c r="F209">
-        <v>-4.5220074999999998E-2</v>
-      </c>
-    </row>
-    <row r="210" spans="1:6">
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A210" s="2">
         <v>0</v>
       </c>
@@ -4627,17 +2741,8 @@
       <c r="C210">
         <v>0.78675481080808607</v>
       </c>
-      <c r="D210">
-        <v>2.7404188409999999</v>
-      </c>
-      <c r="E210">
-        <v>2.5874845E-2</v>
-      </c>
-      <c r="F210">
-        <v>-4.6949612000000002E-2</v>
-      </c>
-    </row>
-    <row r="211" spans="1:6">
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A211" s="2">
         <v>0</v>
       </c>
@@ -4647,17 +2752,8 @@
       <c r="C211">
         <v>0.78566173295065012</v>
       </c>
-      <c r="D211">
-        <v>2.7619170980000001</v>
-      </c>
-      <c r="E211">
-        <v>2.7798922E-2</v>
-      </c>
-      <c r="F211">
-        <v>-4.8640655999999997E-2</v>
-      </c>
-    </row>
-    <row r="212" spans="1:6">
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A212" s="2">
         <v>0</v>
       </c>
@@ -4667,17 +2763,8 @@
       <c r="C212">
         <v>0.78456085152594812</v>
       </c>
-      <c r="D212">
-        <v>2.7827473820000002</v>
-      </c>
-      <c r="E212">
-        <v>2.9935916E-2</v>
-      </c>
-      <c r="F212">
-        <v>-5.0301564E-2</v>
-      </c>
-    </row>
-    <row r="213" spans="1:6">
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A213" s="2">
         <v>0</v>
       </c>
@@ -4687,17 +2774,8 @@
       <c r="C213">
         <v>0.78345270474709916</v>
       </c>
-      <c r="D213">
-        <v>2.8028243050000001</v>
-      </c>
-      <c r="E213">
-        <v>3.2291047000000003E-2</v>
-      </c>
-      <c r="F213">
-        <v>-5.1942687000000001E-2</v>
-      </c>
-    </row>
-    <row r="214" spans="1:6">
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A214" s="2">
         <v>0</v>
       </c>
@@ -4707,17 +2785,8 @@
       <c r="C214">
         <v>0.78233777873963128</v>
       </c>
-      <c r="D214">
-        <v>2.8220799990000001</v>
-      </c>
-      <c r="E214">
-        <v>3.4853360999999999E-2</v>
-      </c>
-      <c r="F214">
-        <v>-5.3575695E-2</v>
-      </c>
-    </row>
-    <row r="215" spans="1:6">
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A215" s="2">
         <v>0</v>
       </c>
@@ -4727,17 +2796,8 @@
       <c r="C215">
         <v>0.78121651204291254</v>
       </c>
-      <c r="D215">
-        <v>2.840465977</v>
-      </c>
-      <c r="E215">
-        <v>3.7597424999999997E-2</v>
-      </c>
-      <c r="F215">
-        <v>-5.5212790999999997E-2</v>
-      </c>
-    </row>
-    <row r="216" spans="1:6">
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A216" s="2">
         <v>0</v>
       </c>
@@ -4747,17 +2807,8 @@
       <c r="C216">
         <v>0.78008929884216915</v>
       </c>
-      <c r="D216">
-        <v>2.8579538310000001</v>
-      </c>
-      <c r="E216">
-        <v>4.0486067000000001E-2</v>
-      </c>
-      <c r="F216">
-        <v>-5.6865885999999997E-2</v>
-      </c>
-    </row>
-    <row r="217" spans="1:6">
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A217" s="2">
         <v>0</v>
       </c>
@@ -4767,17 +2818,8 @@
       <c r="C217">
         <v>0.77895649080084239</v>
       </c>
-      <c r="D217">
-        <v>2.8745347689999998</v>
-      </c>
-      <c r="E217">
-        <v>4.3473750999999998E-2</v>
-      </c>
-      <c r="F217">
-        <v>-5.8545798000000003E-2</v>
-      </c>
-    </row>
-    <row r="218" spans="1:6">
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A218" s="2">
         <v>0</v>
       </c>
@@ -4787,17 +2829,8 @@
       <c r="C218">
         <v>0.77781839797957231</v>
       </c>
-      <c r="D218">
-        <v>2.8902180820000001</v>
-      </c>
-      <c r="E218">
-        <v>4.6510233999999998E-2</v>
-      </c>
-      <c r="F218">
-        <v>-6.0261525000000003E-2</v>
-      </c>
-    </row>
-    <row r="219" spans="1:6">
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A219" s="2">
         <v>0</v>
       </c>
@@ -4807,17 +2840,8 @@
       <c r="C219">
         <v>0.77667528968944588</v>
       </c>
-      <c r="D219">
-        <v>2.9050287039999998</v>
-      </c>
-      <c r="E219">
-        <v>4.9544179000000001E-2</v>
-      </c>
-      <c r="F219">
-        <v>-6.2019602E-2</v>
-      </c>
-    </row>
-    <row r="220" spans="1:6">
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A220" s="2">
         <v>0</v>
       </c>
@@ -4827,17 +2851,8 @@
       <c r="C220">
         <v>0.77552739610821642</v>
       </c>
-      <c r="D220">
-        <v>2.9190040810000002</v>
-      </c>
-      <c r="E220">
-        <v>5.2526466000000001E-2</v>
-      </c>
-      <c r="F220">
-        <v>-6.3823574999999994E-2</v>
-      </c>
-    </row>
-    <row r="221" spans="1:6">
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A221" s="2">
         <v>0</v>
       </c>
@@ -4847,17 +2862,8 @@
       <c r="C221">
         <v>0.77437491121652868</v>
       </c>
-      <c r="D221">
-        <v>2.9321905830000001</v>
-      </c>
-      <c r="E221">
-        <v>5.541302E-2</v>
-      </c>
-      <c r="F221">
-        <v>-6.5673616000000004E-2</v>
-      </c>
-    </row>
-    <row r="222" spans="1:6">
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A222" s="2">
         <v>0</v>
       </c>
@@ -4867,17 +2873,8 @@
       <c r="C222">
         <v>0.77321799732023044</v>
       </c>
-      <c r="D222">
-        <v>2.9446397310000001</v>
-      </c>
-      <c r="E222">
-        <v>5.8167053000000003E-2</v>
-      </c>
-      <c r="F222">
-        <v>-6.7566314000000002E-2</v>
-      </c>
-    </row>
-    <row r="223" spans="1:6">
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A223" s="2">
         <v>0</v>
       </c>
@@ -4887,17 +2884,8 @@
       <c r="C223">
         <v>0.77205679125503712</v>
       </c>
-      <c r="D223">
-        <v>2.9564044799999998</v>
-      </c>
-      <c r="E223">
-        <v>6.0760650999999999E-2</v>
-      </c>
-      <c r="F223">
-        <v>-6.9494664999999997E-2</v>
-      </c>
-    </row>
-    <row r="224" spans="1:6">
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A224" s="2">
         <v>0</v>
       </c>
@@ -4907,17 +2895,8 @@
       <c r="C224">
         <v>0.77089141232098835</v>
       </c>
-      <c r="D224">
-        <v>2.9675358200000002</v>
-      </c>
-      <c r="E224">
-        <v>6.3175673000000002E-2</v>
-      </c>
-      <c r="F224">
-        <v>-7.1448286E-2</v>
-      </c>
-    </row>
-    <row r="225" spans="1:6">
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A225" s="2">
         <v>0</v>
       </c>
@@ -4927,17 +2906,8 @@
       <c r="C225">
         <v>0.7697219720041647</v>
       </c>
-      <c r="D225">
-        <v>2.9780798989999999</v>
-      </c>
-      <c r="E225">
-        <v>6.5403891000000006E-2</v>
-      </c>
-      <c r="F225">
-        <v>-7.3413863999999995E-2</v>
-      </c>
-    </row>
-    <row r="226" spans="1:6">
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A226" s="2">
         <v>0</v>
       </c>
@@ -4947,17 +2917,8 @@
       <c r="C226">
         <v>0.76854858554900296</v>
       </c>
-      <c r="D226">
-        <v>2.9880758369999998</v>
-      </c>
-      <c r="E226">
-        <v>6.7446344000000005E-2</v>
-      </c>
-      <c r="F226">
-        <v>-7.5375831000000004E-2</v>
-      </c>
-    </row>
-    <row r="227" spans="1:6">
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A227" s="2">
         <v>0</v>
       </c>
@@ -4967,17 +2928,8 @@
       <c r="C227">
         <v>0.76737138538008853</v>
       </c>
-      <c r="D227">
-        <v>2.9975543359999999</v>
-      </c>
-      <c r="E227">
-        <v>6.9311933000000006E-2</v>
-      </c>
-      <c r="F227">
-        <v>-7.7317236999999997E-2</v>
-      </c>
-    </row>
-    <row r="228" spans="1:6">
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A228" s="2">
         <v>0</v>
       </c>
@@ -4987,17 +2939,8 @@
       <c r="C228">
         <v>0.76619053618365762</v>
       </c>
-      <c r="D228">
-        <v>3.0065371110000001</v>
-      </c>
-      <c r="E228">
-        <v>7.1015379000000003E-2</v>
-      </c>
-      <c r="F228">
-        <v>-7.9220745999999995E-2</v>
-      </c>
-    </row>
-    <row r="229" spans="1:6">
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A229" s="2">
         <v>0</v>
       </c>
@@ -5007,17 +2950,8 @@
       <c r="C229">
         <v>0.76500625116019583</v>
       </c>
-      <c r="D229">
-        <v>3.0150371140000001</v>
-      </c>
-      <c r="E229">
-        <v>7.2574783000000004E-2</v>
-      </c>
-      <c r="F229">
-        <v>-8.1069668999999997E-2</v>
-      </c>
-    </row>
-    <row r="230" spans="1:6">
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A230" s="2">
         <v>0</v>
       </c>
@@ -5027,17 +2961,8 @@
       <c r="C230">
         <v>0.76381880864850793</v>
       </c>
-      <c r="D230">
-        <v>3.0230594370000001</v>
-      </c>
-      <c r="E230">
-        <v>7.4009120999999997E-2</v>
-      </c>
-      <c r="F230">
-        <v>-8.2848923000000005E-2</v>
-      </c>
-    </row>
-    <row r="231" spans="1:6">
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A231" s="2">
         <v>0</v>
       </c>
@@ -5047,17 +2972,8 @@
       <c r="C231">
         <v>0.76262856812538293</v>
       </c>
-      <c r="D231">
-        <v>3.0306027539999998</v>
-      </c>
-      <c r="E231">
-        <v>7.5335989000000006E-2</v>
-      </c>
-      <c r="F231">
-        <v>-8.4545810999999998E-2</v>
-      </c>
-    </row>
-    <row r="232" spans="1:6">
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A232" s="2">
         <v>0</v>
       </c>
@@ -5067,17 +2983,8 @@
       <c r="C232">
         <v>0.76143598457692374</v>
       </c>
-      <c r="D232">
-        <v>3.0376611210000002</v>
-      </c>
-      <c r="E232">
-        <v>7.6569878999999993E-2</v>
-      </c>
-      <c r="F232">
-        <v>-8.6150545999999995E-2</v>
-      </c>
-    </row>
-    <row r="233" spans="1:6">
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A233" s="2">
         <v>0</v>
       </c>
@@ -5087,17 +2994,8 @@
       <c r="C233">
         <v>0.76024162038689336</v>
       </c>
-      <c r="D233">
-        <v>3.0442259479999998</v>
-      </c>
-      <c r="E233">
-        <v>7.7721140999999994E-2</v>
-      </c>
-      <c r="F233">
-        <v>-8.7656500999999998E-2</v>
-      </c>
-    </row>
-    <row r="234" spans="1:6">
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A234" s="2">
         <v>0</v>
       </c>
@@ -5107,17 +3005,8 @@
       <c r="C234">
         <v>0.75904615409564458</v>
       </c>
-      <c r="D234">
-        <v>3.0502879959999998</v>
-      </c>
-      <c r="E234">
-        <v>7.8795635000000003E-2</v>
-      </c>
-      <c r="F234">
-        <v>-8.9060194999999995E-2</v>
-      </c>
-    </row>
-    <row r="235" spans="1:6">
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A235" s="2">
         <v>0</v>
       </c>
@@ -5127,17 +3016,8 @@
       <c r="C235">
         <v>0.7578503855930343</v>
       </c>
-      <c r="D235">
-        <v>3.055839239</v>
-      </c>
-      <c r="E235">
-        <v>7.9794979000000002E-2</v>
-      </c>
-      <c r="F235">
-        <v>-9.0361076999999998E-2</v>
-      </c>
-    </row>
-    <row r="236" spans="1:6">
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A236" s="2">
         <v>0</v>
       </c>
@@ -5147,17 +3027,8 @@
       <c r="C236">
         <v>0.75665523754803465</v>
       </c>
-      <c r="D236">
-        <v>3.0608745079999999</v>
-      </c>
-      <c r="E236">
-        <v>8.0717246000000006E-2</v>
-      </c>
-      <c r="F236">
-        <v>-9.1561160000000003E-2</v>
-      </c>
-    </row>
-    <row r="237" spans="1:6">
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A237" s="2">
         <v>0</v>
       </c>
@@ -5167,17 +3038,8 @@
       <c r="C237">
         <v>0.75546175317029074</v>
       </c>
-      <c r="D237">
-        <v>3.0653928260000001</v>
-      </c>
-      <c r="E237">
-        <v>8.1557946000000006E-2</v>
-      </c>
-      <c r="F237">
-        <v>-9.2664568000000003E-2</v>
-      </c>
-    </row>
-    <row r="238" spans="1:6">
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A238" s="2">
         <v>0</v>
       </c>
@@ -5187,17 +3049,8 @@
       <c r="C238">
         <v>0.75427109070531106</v>
       </c>
-      <c r="D238">
-        <v>3.0693984159999999</v>
-      </c>
-      <c r="E238">
-        <v>8.2311151999999999E-2</v>
-      </c>
-      <c r="F238">
-        <v>-9.3677028999999995E-2</v>
-      </c>
-    </row>
-    <row r="239" spans="1:6">
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A239" s="2">
         <v>0</v>
       </c>
@@ -5207,17 +3060,8 @@
       <c r="C239">
         <v>0.75308451533693166</v>
       </c>
-      <c r="D239">
-        <v>3.0729013329999999</v>
-      </c>
-      <c r="E239">
-        <v>8.2970642999999997E-2</v>
-      </c>
-      <c r="F239">
-        <v>-9.4605355000000002E-2</v>
-      </c>
-    </row>
-    <row r="240" spans="1:6">
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A240" s="2">
         <v>0</v>
       </c>
@@ -5227,17 +3071,8 @@
       <c r="C240">
         <v>0.75190338934243706</v>
       </c>
-      <c r="D240">
-        <v>3.075917751</v>
-      </c>
-      <c r="E240">
-        <v>8.3530938999999998E-2</v>
-      </c>
-      <c r="F240">
-        <v>-9.5456935000000007E-2</v>
-      </c>
-    </row>
-    <row r="241" spans="1:6">
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A241" s="2">
         <v>0</v>
       </c>
@@ -5247,17 +3082,8 @@
       <c r="C241">
         <v>0.75072916129728573</v>
       </c>
-      <c r="D241">
-        <v>3.07846989</v>
-      </c>
-      <c r="E241">
-        <v>8.3988157999999993E-2</v>
-      </c>
-      <c r="F241">
-        <v>-9.6239284999999994E-2</v>
-      </c>
-    </row>
-    <row r="242" spans="1:6">
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A242" s="2">
         <v>0</v>
       </c>
@@ -5267,17 +3093,8 @@
       <c r="C242">
         <v>0.74956335484087966</v>
       </c>
-      <c r="D242">
-        <v>3.0805856509999998</v>
-      </c>
-      <c r="E242">
-        <v>8.4340626000000002E-2</v>
-      </c>
-      <c r="F242">
-        <v>-9.6959660000000003E-2</v>
-      </c>
-    </row>
-    <row r="243" spans="1:6">
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A243" s="2">
         <v>0</v>
       </c>
@@ -5287,17 +3104,8 @@
       <c r="C243">
         <v>0.7484075572040142</v>
       </c>
-      <c r="D243">
-        <v>3.0822979780000002</v>
-      </c>
-      <c r="E243">
-        <v>8.4589229000000002E-2</v>
-      </c>
-      <c r="F243">
-        <v>-9.7624762000000004E-2</v>
-      </c>
-    </row>
-    <row r="244" spans="1:6">
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A244" s="2">
         <v>0</v>
       </c>
@@ -5307,17 +3115,8 @@
       <c r="C244">
         <v>0.7472634075526452</v>
       </c>
-      <c r="D244">
-        <v>3.083644015</v>
-      </c>
-      <c r="E244">
-        <v>8.4737533000000004E-2</v>
-      </c>
-      <c r="F244">
-        <v>-9.8240523999999996E-2</v>
-      </c>
-    </row>
-    <row r="245" spans="1:6">
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A245" s="2">
         <v>0</v>
       </c>
@@ -5327,17 +3126,8 @@
       <c r="C245">
         <v>0.74613258510222991</v>
       </c>
-      <c r="D245">
-        <v>3.0846641090000002</v>
-      </c>
-      <c r="E245">
-        <v>8.4791702999999996E-2</v>
-      </c>
-      <c r="F245">
-        <v>-9.8811976999999995E-2</v>
-      </c>
-    </row>
-    <row r="246" spans="1:6">
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A246" s="2">
         <v>0</v>
       </c>
@@ -5347,17 +3137,8 @@
       <c r="C246">
         <v>0.7450167966783201</v>
       </c>
-      <c r="D246">
-        <v>3.0854006869999999</v>
-      </c>
-      <c r="E246">
-        <v>8.4760274999999996E-2</v>
-      </c>
-      <c r="F246">
-        <v>-9.9343204000000004E-2</v>
-      </c>
-    </row>
-    <row r="247" spans="1:6">
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A247" s="2">
         <v>0</v>
       </c>
@@ -5367,17 +3148,8 @@
       <c r="C247">
         <v>0.74391776304288182</v>
       </c>
-      <c r="D247">
-        <v>3.085897074</v>
-      </c>
-      <c r="E247">
-        <v>8.4653848000000004E-2</v>
-      </c>
-      <c r="F247">
-        <v>-9.9837363999999998E-2</v>
-      </c>
-    </row>
-    <row r="248" spans="1:6">
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A248" s="2">
         <v>0</v>
       </c>
@@ -5387,17 +3159,8 @@
       <c r="C248">
         <v>0.74283720325668678</v>
       </c>
-      <c r="D248">
-        <v>3.0861962909999998</v>
-      </c>
-      <c r="E248">
-        <v>8.4484737000000004E-2</v>
-      </c>
-      <c r="F248">
-        <v>-0.100296779</v>
-      </c>
-    </row>
-    <row r="249" spans="1:6">
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A249" s="2">
         <v>0</v>
       </c>
@@ -5407,17 +3170,8 @@
       <c r="C249">
         <v>0.74177681679803331</v>
       </c>
-      <c r="D249">
-        <v>3.0863398910000002</v>
-      </c>
-      <c r="E249">
-        <v>8.4266601999999996E-2</v>
-      </c>
-      <c r="F249">
-        <v>-0.100723088</v>
-      </c>
-    </row>
-    <row r="250" spans="1:6">
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A250" s="2">
         <v>0</v>
       </c>
@@ -5427,17 +3181,8 @@
       <c r="C250">
         <v>0.7407382638859713</v>
       </c>
-      <c r="D250">
-        <v>3.086366913</v>
-      </c>
-      <c r="E250">
-        <v>8.4014064999999999E-2</v>
-      </c>
-      <c r="F250">
-        <v>-0.101117445</v>
-      </c>
-    </row>
-    <row r="251" spans="1:6">
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A251" s="2">
         <v>0</v>
       </c>
@@ -5447,17 +3192,8 @@
       <c r="C251">
         <v>0.73972314508889214</v>
       </c>
-      <c r="D251">
-        <v>3.0863130000000001</v>
-      </c>
-      <c r="E251">
-        <v>8.3742286999999999E-2</v>
-      </c>
-      <c r="F251">
-        <v>-0.10148075199999999</v>
-      </c>
-    </row>
-    <row r="252" spans="1:6">
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A252" s="2">
         <v>0</v>
       </c>
@@ -5467,17 +3203,8 @@
       <c r="C252">
         <v>0.73873298162306533</v>
       </c>
-      <c r="D252">
-        <v>3.0862097309999998</v>
-      </c>
-      <c r="E252">
-        <v>8.3466495000000002E-2</v>
-      </c>
-      <c r="F252">
-        <v>-0.10181389</v>
-      </c>
-    </row>
-    <row r="253" spans="1:6">
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A253" s="2">
         <v>0</v>
       </c>
@@ -5487,17 +3214,8 @@
       <c r="C253">
         <v>0.73776919775505667</v>
       </c>
-      <c r="D253">
-        <v>3.0860841830000001</v>
-      </c>
-      <c r="E253">
-        <v>8.3201445999999998E-2</v>
-      </c>
-      <c r="F253">
-        <v>-0.102117927</v>
-      </c>
-    </row>
-    <row r="254" spans="1:6">
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A254" s="2">
         <v>0</v>
       </c>
@@ -5507,17 +3225,8 @@
       <c r="C254">
         <v>0.73683310649100875</v>
       </c>
-      <c r="D254">
-        <v>3.0859587089999998</v>
-      </c>
-      <c r="E254">
-        <v>8.2960832999999998E-2</v>
-      </c>
-      <c r="F254">
-        <v>-0.102394265</v>
-      </c>
-    </row>
-    <row r="255" spans="1:6">
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A255" s="2">
         <v>0</v>
       </c>
@@ -5527,17 +3236,8 @@
       <c r="C255">
         <v>0.73592589933235764</v>
       </c>
-      <c r="D255">
-        <v>3.0858509089999999</v>
-      </c>
-      <c r="E255">
-        <v>8.2756669000000005E-2</v>
-      </c>
-      <c r="F255">
-        <v>-0.10264472400000001</v>
-      </c>
-    </row>
-    <row r="256" spans="1:6">
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A256" s="2">
         <v>0</v>
       </c>
@@ -5547,17 +3247,8 @@
       <c r="C256">
         <v>0.73504864040003803</v>
       </c>
-      <c r="D256">
-        <v>3.085773739</v>
-      </c>
-      <c r="E256">
-        <v>8.2598693000000001E-2</v>
-      </c>
-      <c r="F256">
-        <v>-0.10287155100000001</v>
-      </c>
-    </row>
-    <row r="257" spans="1:6">
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A257" s="2">
         <v>0</v>
       </c>
@@ -5567,17 +3258,8 @@
       <c r="C257">
         <v>0.73420226482346063</v>
       </c>
-      <c r="D257">
-        <v>3.08573575</v>
-      </c>
-      <c r="E257">
-        <v>8.2493833000000003E-2</v>
-      </c>
-      <c r="F257">
-        <v>-0.103077372</v>
-      </c>
-    </row>
-    <row r="258" spans="1:6">
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A258" s="2">
         <v>0</v>
       </c>
@@ -5587,17 +3269,8 @@
       <c r="C258">
         <v>0.73338758105140189</v>
       </c>
-      <c r="D258">
-        <v>3.0857413990000002</v>
-      </c>
-      <c r="E258">
-        <v>8.2445788000000006E-2</v>
-      </c>
-      <c r="F258">
-        <v>-0.103265095</v>
-      </c>
-    </row>
-    <row r="259" spans="1:6">
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A259" s="2">
         <v>0</v>
       </c>
@@ -5607,17 +3280,8 @@
       <c r="C259">
         <v>0.73260527664260977</v>
       </c>
-      <c r="D259">
-        <v>3.0857914559999999</v>
-      </c>
-      <c r="E259">
-        <v>8.2454768999999997E-2</v>
-      </c>
-      <c r="F259">
-        <v>-0.103437786</v>
-      </c>
-    </row>
-    <row r="260" spans="1:6">
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A260" s="2">
         <v>0</v>
       </c>
@@ -5627,17 +3291,8 @@
       <c r="C260">
         <v>0.73185592705398828</v>
       </c>
-      <c r="D260">
-        <v>3.0858834800000001</v>
-      </c>
-      <c r="E260">
-        <v>8.2517415999999996E-2</v>
-      </c>
-      <c r="F260">
-        <v>-0.10359852999999999</v>
-      </c>
-    </row>
-    <row r="261" spans="1:6">
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A261" s="2">
         <v>0</v>
       </c>
@@ -5647,17 +3302,8 @@
       <c r="C261">
         <v>0.73114000690734648</v>
       </c>
-      <c r="D261">
-        <v>3.086012368</v>
-      </c>
-      <c r="E261">
-        <v>8.2626938999999996E-2</v>
-      </c>
-      <c r="F261">
-        <v>-0.103750305</v>
-      </c>
-    </row>
-    <row r="262" spans="1:6">
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A262" s="2">
         <v>0</v>
       </c>
@@ -5667,17 +3313,8 @@
       <c r="C262">
         <v>0.73045790313701886</v>
       </c>
-      <c r="D262">
-        <v>3.086170976</v>
-      </c>
-      <c r="E262">
-        <v>8.2773447999999999E-2</v>
-      </c>
-      <c r="F262">
-        <v>-0.10389585699999999</v>
-      </c>
-    </row>
-    <row r="263" spans="1:6">
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A263" s="2">
         <v>0</v>
       </c>
@@ -5687,17 +3324,8 @@
       <c r="C263">
         <v>0.72980992926843513</v>
       </c>
-      <c r="D263">
-        <v>3.0863507989999999</v>
-      </c>
-      <c r="E263">
-        <v>8.2944467999999993E-2</v>
-      </c>
-      <c r="F263">
-        <v>-0.104037611</v>
-      </c>
-    </row>
-    <row r="264" spans="1:6">
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A264" s="2">
         <v>0</v>
       </c>
@@ -5707,17 +3335,8 @@
       <c r="C264">
         <v>0.72919633988862309</v>
       </c>
-      <c r="D264">
-        <v>3.0865426949999999</v>
-      </c>
-      <c r="E264">
-        <v>8.3125589999999999E-2</v>
-      </c>
-      <c r="F264">
-        <v>-0.10417760500000001</v>
-      </c>
-    </row>
-    <row r="265" spans="1:6">
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A265" s="2">
         <v>0</v>
       </c>
@@ -5727,17 +3346,8 @@
       <c r="C265">
         <v>0.72861734423952274</v>
       </c>
-      <c r="D265">
-        <v>3.086737614</v>
-      </c>
-      <c r="E265">
-        <v>8.3301211999999999E-2</v>
-      </c>
-      <c r="F265">
-        <v>-0.10431747399999999</v>
-      </c>
-    </row>
-    <row r="266" spans="1:6">
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A266" s="2">
         <v>0</v>
       </c>
@@ -5747,17 +3357,8 @@
       <c r="C266">
         <v>0.72807311787056928</v>
       </c>
-      <c r="D266">
-        <v>3.0869273050000001</v>
-      </c>
-      <c r="E266">
-        <v>8.3455300999999996E-2</v>
-      </c>
-      <c r="F266">
-        <v>-0.104458472</v>
-      </c>
-    </row>
-    <row r="267" spans="1:6">
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A267" s="2">
         <v>0</v>
       </c>
@@ -5767,17 +3368,8 @@
       <c r="C267">
         <v>0.72756381144581617</v>
       </c>
-      <c r="D267">
-        <v>3.087104949</v>
-      </c>
-      <c r="E267">
-        <v>8.3572146E-2</v>
-      </c>
-      <c r="F267">
-        <v>-0.10460154000000001</v>
-      </c>
-    </row>
-    <row r="268" spans="1:6">
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A268" s="2">
         <v>0</v>
       </c>
@@ -5787,17 +3379,8 @@
       <c r="C268">
         <v>0.72708955607687464</v>
       </c>
-      <c r="D268">
-        <v>3.0872656699999999</v>
-      </c>
-      <c r="E268">
-        <v>8.3637063999999997E-2</v>
-      </c>
-      <c r="F268">
-        <v>-0.104747407</v>
-      </c>
-    </row>
-    <row r="269" spans="1:6">
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A269" s="2">
         <v>0</v>
       </c>
@@ -5807,17 +3390,8 @@
       <c r="C269">
         <v>0.72665046489043061</v>
       </c>
-      <c r="D269">
-        <v>3.0874068920000002</v>
-      </c>
-      <c r="E269">
-        <v>8.3637057000000001E-2</v>
-      </c>
-      <c r="F269">
-        <v>-0.10489670700000001</v>
-      </c>
-    </row>
-    <row r="270" spans="1:6">
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A270" s="2">
         <v>0</v>
       </c>
@@ -5827,17 +3401,8 @@
       <c r="C270">
         <v>0.72624663092394581</v>
       </c>
-      <c r="D270">
-        <v>3.0875284970000001</v>
-      </c>
-      <c r="E270">
-        <v>8.3561396999999996E-2</v>
-      </c>
-      <c r="F270">
-        <v>-0.105050089</v>
-      </c>
-    </row>
-    <row r="271" spans="1:6">
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A271" s="2">
         <v>0</v>
       </c>
@@ -5847,17 +3412,8 @@
       <c r="C271">
         <v>0.72587812189460332</v>
       </c>
-      <c r="D271">
-        <v>3.0876327940000001</v>
-      </c>
-      <c r="E271">
-        <v>8.3402131000000004E-2</v>
-      </c>
-      <c r="F271">
-        <v>-0.105208301</v>
-      </c>
-    </row>
-    <row r="272" spans="1:6">
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A272" s="2">
         <v>0</v>
       </c>
@@ -5867,17 +3423,8 @@
       <c r="C272">
         <v>0.72554497286194519</v>
       </c>
-      <c r="D272">
-        <v>3.0877242659999999</v>
-      </c>
-      <c r="E272">
-        <v>8.3154481000000002E-2</v>
-      </c>
-      <c r="F272">
-        <v>-0.105372233</v>
-      </c>
-    </row>
-    <row r="273" spans="1:6">
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A273" s="2">
         <v>0</v>
       </c>
@@ -5887,17 +3434,8 @@
       <c r="C273">
         <v>0.72524717818692264</v>
       </c>
-      <c r="D273">
-        <v>3.0878091479999998</v>
-      </c>
-      <c r="E273">
-        <v>8.2817078000000002E-2</v>
-      </c>
-      <c r="F273">
-        <v>-0.10554290600000001</v>
-      </c>
-    </row>
-    <row r="274" spans="1:6">
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A274" s="2">
         <v>0</v>
       </c>
@@ -5907,17 +3445,8 @@
       <c r="C274">
         <v>0.72498468438262331</v>
       </c>
-      <c r="D274">
-        <v>3.0878948510000002</v>
-      </c>
-      <c r="E274">
-        <v>8.2392031000000004E-2</v>
-      </c>
-      <c r="F274">
-        <v>-0.105721394</v>
-      </c>
-    </row>
-    <row r="275" spans="1:6">
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A275" s="2">
         <v>0</v>
       </c>
@@ -5927,17 +3456,8 @@
       <c r="C275">
         <v>0.72475738540395196</v>
       </c>
-      <c r="D275">
-        <v>3.0879892779999998</v>
-      </c>
-      <c r="E275">
-        <v>8.1884789999999999E-2</v>
-      </c>
-      <c r="F275">
-        <v>-0.105908692</v>
-      </c>
-    </row>
-    <row r="276" spans="1:6">
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A276" s="2">
         <v>0</v>
       </c>
@@ -5947,17 +3467,8 @@
       <c r="C276">
         <v>0.72456512158484732</v>
       </c>
-      <c r="D276">
-        <v>3.0881001019999998</v>
-      </c>
-      <c r="E276">
-        <v>8.1303838000000003E-2</v>
-      </c>
-      <c r="F276">
-        <v>-0.106105534</v>
-      </c>
-    </row>
-    <row r="277" spans="1:6">
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A277" s="2">
         <v>0</v>
       </c>
@@ -5967,17 +3478,8 @@
       <c r="C277">
         <v>0.72440768280039991</v>
       </c>
-      <c r="D277">
-        <v>3.0882340770000001</v>
-      </c>
-      <c r="E277">
-        <v>8.0660228E-2</v>
-      </c>
-      <c r="F277">
-        <v>-0.106312171</v>
-      </c>
-    </row>
-    <row r="278" spans="1:6">
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A278" s="2">
         <v>0</v>
       </c>
@@ -5987,17 +3489,8 @@
       <c r="C278">
         <v>0.72428481568577108</v>
       </c>
-      <c r="D278">
-        <v>3.0883964270000002</v>
-      </c>
-      <c r="E278">
-        <v>7.9967055999999995E-2</v>
-      </c>
-      <c r="F278">
-        <v>-0.106528161</v>
-      </c>
-    </row>
-    <row r="279" spans="1:6">
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A279" s="2">
         <v>0</v>
       </c>
@@ -6007,17 +3500,8 @@
       <c r="C279">
         <v>0.7241962342245899</v>
       </c>
-      <c r="D279">
-        <v>3.088590392</v>
-      </c>
-      <c r="E279">
-        <v>7.9238897000000003E-2</v>
-      </c>
-      <c r="F279">
-        <v>-0.106752162</v>
-      </c>
-    </row>
-    <row r="280" spans="1:6">
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A280" s="2">
         <v>0</v>
       </c>
@@ -6027,17 +3511,8 @@
       <c r="C280">
         <v>0.72414163291707356</v>
       </c>
-      <c r="D280">
-        <v>3.0888169479999998</v>
-      </c>
-      <c r="E280">
-        <v>7.8491291000000005E-2</v>
-      </c>
-      <c r="F280">
-        <v>-0.10698179200000001</v>
-      </c>
-    </row>
-    <row r="281" spans="1:6">
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A281" s="2">
         <v>0</v>
       </c>
@@ -6047,17 +3522,8 @@
       <c r="C281">
         <v>0.72412070181184163</v>
       </c>
-      <c r="D281">
-        <v>3.0890747250000001</v>
-      </c>
-      <c r="E281">
-        <v>7.7740305999999995E-2</v>
-      </c>
-      <c r="F281">
-        <v>-0.10721354600000001</v>
-      </c>
-    </row>
-    <row r="282" spans="1:6">
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A282" s="2">
         <v>0</v>
       </c>
@@ -6067,17 +3533,8 @@
       <c r="C282">
         <v>0.72413314251523353</v>
       </c>
-      <c r="D282">
-        <v>3.089360106</v>
-      </c>
-      <c r="E282">
-        <v>7.7002175000000006E-2</v>
-      </c>
-      <c r="F282">
-        <v>-0.107442811</v>
-      </c>
-    </row>
-    <row r="283" spans="1:6">
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A283" s="2">
         <v>0</v>
       </c>
@@ -6087,17 +3544,8 @@
       <c r="C283">
         <v>0.72417868384007655</v>
       </c>
-      <c r="D283">
-        <v>3.0896675149999999</v>
-      </c>
-      <c r="E283">
-        <v>7.6293007999999995E-2</v>
-      </c>
-      <c r="F283">
-        <v>-0.107663961</v>
-      </c>
-    </row>
-    <row r="284" spans="1:6">
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A284" s="2">
         <v>0</v>
       </c>
@@ -6107,17 +3555,8 @@
       <c r="C284">
         <v>0.72425709543402517</v>
       </c>
-      <c r="D284">
-        <v>3.0899898299999999</v>
-      </c>
-      <c r="E284">
-        <v>7.5628529999999999E-2</v>
-      </c>
-      <c r="F284">
-        <v>-0.10787055</v>
-      </c>
-    </row>
-    <row r="285" spans="1:6">
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A285" s="2">
         <v>0</v>
       </c>
@@ -6127,17 +3566,8 @@
       <c r="C285">
         <v>0.72436819786526596</v>
       </c>
-      <c r="D285">
-        <v>3.090318924</v>
-      </c>
-      <c r="E285">
-        <v>7.5023796000000004E-2</v>
-      </c>
-      <c r="F285">
-        <v>-0.108055569</v>
-      </c>
-    </row>
-    <row r="286" spans="1:6">
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A286" s="2">
         <v>0</v>
       </c>
@@ -6147,17 +3577,8 @@
       <c r="C286">
         <v>0.72451186814334345</v>
       </c>
-      <c r="D286">
-        <v>3.0906462530000001</v>
-      </c>
-      <c r="E286">
-        <v>7.4492848E-2</v>
-      </c>
-      <c r="F286">
-        <v>-0.10821177</v>
-      </c>
-    </row>
-    <row r="287" spans="1:6">
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A287" s="2">
         <v>0</v>
       </c>
@@ -6168,7 +3589,7 @@
         <v>0.72468804023850109</v>
       </c>
     </row>
-    <row r="288" spans="1:6">
+    <row r="288" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A288" s="2">
         <v>0</v>
       </c>
@@ -6179,7 +3600,7 @@
         <v>0.72489670072181367</v>
       </c>
     </row>
-    <row r="289" spans="1:3">
+    <row r="289" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A289" s="2">
         <v>0</v>
       </c>
@@ -6190,7 +3611,7 @@
         <v>0.72513788020672509</v>
       </c>
     </row>
-    <row r="290" spans="1:3">
+    <row r="290" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A290" s="2">
         <v>0</v>
       </c>
@@ -6201,7 +3622,7 @@
         <v>0.72541164178138551</v>
       </c>
     </row>
-    <row r="291" spans="1:3">
+    <row r="291" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A291" s="2">
         <v>0</v>
       </c>
@@ -6212,7 +3633,7 @@
         <v>0.72571806791528382</v>
       </c>
     </row>
-    <row r="292" spans="1:3">
+    <row r="292" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A292" s="2">
         <v>0</v>
       </c>
@@ -6223,7 +3644,7 @@
         <v>0.72605724729174792</v>
       </c>
     </row>
-    <row r="293" spans="1:3">
+    <row r="293" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A293" s="2">
         <v>0</v>
       </c>
@@ -6234,7 +3655,7 @@
         <v>0.72642926273455621</v>
       </c>
     </row>
-    <row r="294" spans="1:3">
+    <row r="294" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A294" s="2">
         <v>0</v>
       </c>
@@ -6245,7 +3666,7 @@
         <v>0.72683418103236619</v>
       </c>
     </row>
-    <row r="295" spans="1:3">
+    <row r="295" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A295" s="2">
         <v>0</v>
       </c>
@@ -6256,7 +3677,7 @@
         <v>0.72727204511593713</v>
       </c>
     </row>
-    <row r="296" spans="1:3">
+    <row r="296" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A296" s="2">
         <v>0</v>
       </c>
@@ -6267,7 +3688,7 @@
         <v>0.72774286873591676</v>
       </c>
     </row>
-    <row r="297" spans="1:3">
+    <row r="297" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A297" s="2">
         <v>0</v>
       </c>
@@ -6278,7 +3699,7 @@
         <v>0.72824663357551023</v>
       </c>
     </row>
-    <row r="298" spans="1:3">
+    <row r="298" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A298" s="2">
         <v>0</v>
       </c>
@@ -6289,7 +3710,7 @@
         <v>0.72878328863512365</v>
       </c>
     </row>
-    <row r="299" spans="1:3">
+    <row r="299" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A299" s="2">
         <v>0</v>
       </c>
@@ -6300,7 +3721,7 @@
         <v>0.72935275162185864</v>
       </c>
     </row>
-    <row r="300" spans="1:3">
+    <row r="300" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A300" s="2">
         <v>0</v>
       </c>
@@ -6311,7 +3732,7 @@
         <v>0.72995491182056937</v>
       </c>
     </row>
-    <row r="301" spans="1:3">
+    <row r="301" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A301" s="2">
         <v>0</v>
       </c>
@@ -6322,7 +3743,7 @@
         <v>0.7305896335885711</v>
       </c>
     </row>
-    <row r="302" spans="1:3">
+    <row r="302" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A302" s="2">
         <v>0</v>
       </c>
@@ -6333,7 +3754,7 @@
         <v>0.73125675945090218</v>
       </c>
     </row>
-    <row r="303" spans="1:3">
+    <row r="303" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A303" s="2">
         <v>0</v>
       </c>
@@ -6344,7 +3765,7 @@
         <v>0.73195611192455523</v>
       </c>
     </row>
-    <row r="304" spans="1:3">
+    <row r="304" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A304" s="2">
         <v>0</v>
       </c>
@@ -6355,7 +3776,7 @@
         <v>0.7326874936050698</v>
       </c>
     </row>
-    <row r="305" spans="1:3">
+    <row r="305" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A305" s="2">
         <v>0</v>
       </c>
@@ -6366,7 +3787,7 @@
         <v>0.73345068555548243</v>
       </c>
     </row>
-    <row r="306" spans="1:3">
+    <row r="306" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A306" s="2">
         <v>0</v>
       </c>
@@ -6377,7 +3798,7 @@
         <v>0.7342454445240657</v>
       </c>
     </row>
-    <row r="307" spans="1:3">
+    <row r="307" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A307" s="2">
         <v>0</v>
       </c>
@@ -6388,7 +3809,7 @@
         <v>0.7350714998972</v>
       </c>
     </row>
-    <row r="308" spans="1:3">
+    <row r="308" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A308" s="2">
         <v>0</v>
       </c>
@@ -6399,7 +3820,7 @@
         <v>0.73592855147962899</v>
       </c>
     </row>
-    <row r="309" spans="1:3">
+    <row r="309" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A309" s="2">
         <v>0</v>
       </c>
@@ -6410,7 +3831,7 @@
         <v>0.73681626911625053</v>
       </c>
     </row>
-    <row r="310" spans="1:3">
+    <row r="310" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A310" s="2">
         <v>0</v>
       </c>
@@ -6421,7 +3842,7 @@
         <v>0.73773429484352171</v>
       </c>
     </row>
-    <row r="311" spans="1:3">
+    <row r="311" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A311" s="2">
         <v>0</v>
       </c>
@@ -6432,7 +3853,7 @@
         <v>0.73868224778932945</v>
       </c>
     </row>
-    <row r="312" spans="1:3">
+    <row r="312" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A312" s="2">
         <v>0</v>
       </c>
@@ -6443,7 +3864,7 @@
         <v>0.73965973154433351</v>
       </c>
     </row>
-    <row r="313" spans="1:3">
+    <row r="313" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A313" s="2">
         <v>0</v>
       </c>
@@ -6454,7 +3875,7 @@
         <v>0.74066634331729031</v>
       </c>
     </row>
-    <row r="314" spans="1:3">
+    <row r="314" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A314" s="2">
         <v>0</v>
       </c>
@@ -6465,7 +3886,7 @@
         <v>0.74170168397830583</v>
       </c>
     </row>
-    <row r="315" spans="1:3">
+    <row r="315" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A315" s="2">
         <v>0</v>
       </c>
@@ -6476,7 +3897,7 @@
         <v>0.74276536807353533</v>
       </c>
     </row>
-    <row r="316" spans="1:3">
+    <row r="316" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A316" s="2">
         <v>0</v>
       </c>
@@ -6487,7 +3908,7 @@
         <v>0.74385703284623217</v>
       </c>
     </row>
-    <row r="317" spans="1:3">
+    <row r="317" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A317" s="2">
         <v>0</v>
       </c>
@@ -6498,7 +3919,7 @@
         <v>0.74497634508870214</v>
       </c>
     </row>
-    <row r="318" spans="1:3">
+    <row r="318" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A318" s="2">
         <v>0</v>
       </c>
@@ -6509,7 +3930,7 @@
         <v>0.74612300449770252</v>
       </c>
     </row>
-    <row r="319" spans="1:3">
+    <row r="319" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A319" s="2">
         <v>0</v>
       </c>
@@ -6520,7 +3941,7 @@
         <v>0.74729674245636801</v>
       </c>
     </row>
-    <row r="320" spans="1:3">
+    <row r="320" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A320" s="2">
         <v>0</v>
       </c>
@@ -6531,7 +3952,7 @@
         <v>0.74849731587577528</v>
       </c>
     </row>
-    <row r="321" spans="1:3">
+    <row r="321" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A321" s="2">
         <v>0</v>
       </c>
@@ -6542,7 +3963,7 @@
         <v>0.74972449660380713</v>
       </c>
     </row>
-    <row r="322" spans="1:3">
+    <row r="322" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A322" s="2">
         <v>0</v>
       </c>
@@ -6553,7 +3974,7 @@
         <v>0.75097805755792169</v>
       </c>
     </row>
-    <row r="323" spans="1:3">
+    <row r="323" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A323" s="2">
         <v>0</v>
       </c>
@@ -6564,7 +3985,7 @@
         <v>0.7522577569840555</v>
       </c>
     </row>
-    <row r="324" spans="1:3">
+    <row r="324" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A324" s="2">
         <v>0</v>
       </c>
@@ -6575,7 +3996,7 @@
         <v>0.75356332222783762</v>
       </c>
     </row>
-    <row r="325" spans="1:3">
+    <row r="325" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A325" s="2">
         <v>0</v>
       </c>
@@ -6586,7 +4007,7 @@
         <v>0.75489443435628512</v>
       </c>
     </row>
-    <row r="326" spans="1:3">
+    <row r="326" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A326" s="2">
         <v>0</v>
       </c>
@@ -6597,7 +4018,7 @@
         <v>0.75625071492190432</v>
       </c>
     </row>
-    <row r="327" spans="1:3">
+    <row r="327" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A327" s="2">
         <v>0</v>
       </c>
@@ -6608,7 +4029,7 @@
         <v>0.75763171598725054</v>
       </c>
     </row>
-    <row r="328" spans="1:3">
+    <row r="328" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A328" s="2">
         <v>0</v>
       </c>
@@ -6619,7 +4040,7 @@
         <v>0.75903691414813956</v>
       </c>
     </row>
-    <row r="329" spans="1:3">
+    <row r="329" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A329" s="2">
         <v>0</v>
       </c>
@@ -6630,7 +4051,7 @@
         <v>0.76046570876763786</v>
       </c>
     </row>
-    <row r="330" spans="1:3">
+    <row r="330" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A330" s="2">
         <v>0</v>
       </c>
@@ -6641,7 +4062,7 @@
         <v>0.7619174241041935</v>
       </c>
     </row>
-    <row r="331" spans="1:3">
+    <row r="331" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A331" s="2">
         <v>0</v>
       </c>
@@ -6652,7 +4073,7 @@
         <v>0.76339131462585985</v>
       </c>
     </row>
-    <row r="332" spans="1:3">
+    <row r="332" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A332" s="2">
         <v>0</v>
       </c>
@@ -6663,7 +4084,7 @@
         <v>0.76488657262583415</v>
       </c>
     </row>
-    <row r="333" spans="1:3">
+    <row r="333" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A333" s="2">
         <v>0</v>
       </c>
@@ -6674,7 +4095,7 @@
         <v>0.76640233729452678</v>
       </c>
     </row>
-    <row r="334" spans="1:3">
+    <row r="334" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A334" s="2">
         <v>0</v>
       </c>
@@ -6685,7 +4106,7 @@
         <v>0.76793770458799171</v>
       </c>
     </row>
-    <row r="335" spans="1:3">
+    <row r="335" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A335" s="2">
         <v>0</v>
       </c>
@@ -6696,7 +4117,7 @@
         <v>0.76949173744161592</v>
       </c>
     </row>
-    <row r="336" spans="1:3">
+    <row r="336" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A336" s="2">
         <v>0</v>
       </c>
@@ -6707,7 +4128,7 @@
         <v>0.77106347602406122</v>
       </c>
     </row>
-    <row r="337" spans="1:3">
+    <row r="337" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A337" s="2">
         <v>0</v>
       </c>
@@ -6718,7 +4139,7 @@
         <v>0.77265194779556068</v>
       </c>
     </row>
-    <row r="338" spans="1:3">
+    <row r="338" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A338" s="2">
         <v>0</v>
       </c>
@@ -6729,7 +4150,7 @@
         <v>0.77425617713059169</v>
       </c>
     </row>
-    <row r="339" spans="1:3">
+    <row r="339" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A339" s="2">
         <v>0</v>
       </c>
@@ -6740,7 +4161,7 @@
         <v>0.77587519419806816</v>
       </c>
     </row>
-    <row r="340" spans="1:3">
+    <row r="340" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A340" s="2">
         <v>0</v>
       </c>
@@ -6751,7 +4172,7 @@
         <v>0.77750804274537855</v>
       </c>
     </row>
-    <row r="341" spans="1:3">
+    <row r="341" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A341" s="2">
         <v>0</v>
       </c>
@@ -6762,7 +4183,7 @@
         <v>0.77915378652449163</v>
       </c>
     </row>
-    <row r="342" spans="1:3">
+    <row r="342" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A342" s="2">
         <v>0</v>
       </c>
@@ -6773,7 +4194,7 @@
         <v>0.78081151435011409</v>
       </c>
     </row>
-    <row r="343" spans="1:3">
+    <row r="343" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A343" s="2">
         <v>0</v>
       </c>
@@ -6784,7 +4205,7 @@
         <v>0.78248034408698064</v>
       </c>
     </row>
-    <row r="344" spans="1:3">
+    <row r="344" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A344" s="2">
         <v>0</v>
       </c>
@@ -6795,7 +4216,7 @@
         <v>0.78415942607566391</v>
       </c>
     </row>
-    <row r="345" spans="1:3">
+    <row r="345" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A345" s="2">
         <v>0</v>
       </c>
@@ -6806,7 +4227,7 @@
         <v>0.78584794650902146</v>
       </c>
     </row>
-    <row r="346" spans="1:3">
+    <row r="346" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A346" s="2">
         <v>0</v>
       </c>
@@ -6817,7 +4238,7 @@
         <v>0.78754513107659541</v>
       </c>
     </row>
-    <row r="347" spans="1:3">
+    <row r="347" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A347" s="2">
         <v>0</v>
       </c>
@@ -6828,7 +4249,7 @@
         <v>0.78925024897717466</v>
       </c>
     </row>
-    <row r="348" spans="1:3">
+    <row r="348" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A348" s="2">
         <v>0</v>
       </c>
@@ -6839,7 +4260,7 @@
         <v>0.79096261734400897</v>
       </c>
     </row>
-    <row r="349" spans="1:3">
+    <row r="349" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A349" s="2">
         <v>0</v>
       </c>
@@ -6850,7 +4271,7 @@
         <v>0.79268160623350115</v>
       </c>
     </row>
-    <row r="350" spans="1:3">
+    <row r="350" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A350" s="2">
         <v>0</v>
       </c>
@@ -6861,7 +4282,7 @@
         <v>0.79440664447688858</v>
       </c>
     </row>
-    <row r="351" spans="1:3">
+    <row r="351" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A351" s="2">
         <v>0</v>
       </c>
@@ -6872,7 +4293,7 @@
         <v>0.7961372268120579</v>
       </c>
     </row>
-    <row r="352" spans="1:3">
+    <row r="352" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A352" s="2">
         <v>0</v>
       </c>
@@ -6883,7 +4304,7 @@
         <v>0.79787292271259924</v>
       </c>
     </row>
-    <row r="353" spans="1:3">
+    <row r="353" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A353" s="2">
         <v>0</v>
       </c>
@@ -6894,7 +4315,7 @@
         <v>0.79961338704603779</v>
       </c>
     </row>
-    <row r="354" spans="1:3">
+    <row r="354" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A354" s="2">
         <v>0</v>
       </c>
@@ -6905,7 +4326,7 @@
         <v>0.80135837211133587</v>
       </c>
     </row>
-    <row r="355" spans="1:3">
+    <row r="355" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A355" s="2">
         <v>0</v>
       </c>
@@ -6916,7 +4337,7 @@
         <v>0.80310774003705365</v>
       </c>
     </row>
-    <row r="356" spans="1:3">
+    <row r="356" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A356" s="2">
         <v>0</v>
       </c>
@@ -6927,7 +4348,7 @@
         <v>0.80486147430409871</v>
       </c>
     </row>
-    <row r="357" spans="1:3">
+    <row r="357" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A357" s="2">
         <v>0</v>
       </c>
@@ -6938,7 +4359,7 @@
         <v>0.80661968928822925</v>
       </c>
     </row>
-    <row r="358" spans="1:3">
+    <row r="358" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A358" s="2">
         <v>0</v>
       </c>
@@ -6949,7 +4370,7 @@
         <v>0.80838263692518031</v>
       </c>
     </row>
-    <row r="359" spans="1:3">
+    <row r="359" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A359" s="2">
         <v>0</v>
       </c>
@@ -6960,7 +4381,7 @@
         <v>0.8101507097227697</v>
       </c>
     </row>
-    <row r="360" spans="1:3">
+    <row r="360" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A360" s="2">
         <v>0</v>
       </c>
@@ -6971,7 +4392,7 @@
         <v>0.81192443947599202</v>
       </c>
     </row>
-    <row r="361" spans="1:3">
+    <row r="361" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A361" s="2">
         <v>0</v>
       </c>
@@ -6982,7 +4403,7 @@
         <v>0.81370449130303024</v>
       </c>
     </row>
-    <row r="362" spans="1:3">
+    <row r="362" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A362" s="2">
         <v>0</v>
       </c>
@@ -6993,7 +4414,7 @@
         <v>0.81549165295821635</v>
       </c>
     </row>
-    <row r="363" spans="1:3">
+    <row r="363" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A363" s="2">
         <v>0</v>
       </c>
@@ -7004,7 +4425,7 @@
         <v>0.81728681966407524</v>
       </c>
     </row>
-    <row r="364" spans="1:3">
+    <row r="364" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A364" s="2">
         <v>0</v>
       </c>
@@ -7015,7 +4436,7 @@
         <v>0.81909097487778559</v>
       </c>
     </row>
-    <row r="365" spans="1:3">
+    <row r="365" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A365" s="2">
         <v>0</v>
       </c>
@@ -7026,7 +4447,7 @@
         <v>0.82090516748103581</v>
       </c>
     </row>
-    <row r="366" spans="1:3">
+    <row r="366" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A366" s="2">
         <v>0</v>
       </c>
@@ -7037,7 +4458,7 @@
         <v>0.82273048592573084</v>
       </c>
     </row>
-    <row r="367" spans="1:3">
+    <row r="367" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A367" s="2">
         <v>0</v>
       </c>
@@ -7048,7 +4469,7 @@
         <v>0.82456802997766332</v>
       </c>
     </row>
-    <row r="368" spans="1:3">
+    <row r="368" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A368" s="2">
         <v>0</v>
       </c>
@@ -7059,7 +4480,7 @@
         <v>0.82641888091487703</v>
       </c>
     </row>
-    <row r="369" spans="1:3">
+    <row r="369" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A369" s="2">
         <v>0</v>
       </c>
@@ -7070,7 +4491,7 @@
         <v>0.82828407129460879</v>
       </c>
     </row>
-    <row r="370" spans="1:3">
+    <row r="370" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A370" s="2">
         <v>0</v>
       </c>
@@ -7081,7 +4502,7 @@
         <v>0.83016455559192559</v>
       </c>
     </row>
-    <row r="371" spans="1:3">
+    <row r="371" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A371" s="2">
         <v>0</v>
       </c>
@@ -7092,7 +4513,7 @@
         <v>0.83206118305131282</v>
       </c>
     </row>
-    <row r="372" spans="1:3">
+    <row r="372" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A372" s="2">
         <v>0</v>
       </c>
@@ -7103,7 +4524,7 @@
         <v>0.83397467396280855</v>
       </c>
     </row>
-    <row r="373" spans="1:3">
+    <row r="373" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A373" s="2">
         <v>0</v>
       </c>
@@ -7114,7 +4535,7 @@
         <v>0.83590560031894945</v>
       </c>
     </row>
-    <row r="374" spans="1:3">
+    <row r="374" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A374" s="2">
         <v>0</v>
       </c>
@@ -7125,7 +4546,7 @@
         <v>0.83785437149297892</v>
       </c>
     </row>
-    <row r="375" spans="1:3">
+    <row r="375" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A375" s="2">
         <v>0</v>
       </c>
@@ -7136,7 +4557,7 @@
         <v>0.83982122527022351</v>
       </c>
     </row>
-    <row r="376" spans="1:3">
+    <row r="376" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A376" s="2">
         <v>0</v>
       </c>
@@ -7147,7 +4568,7 @@
         <v>0.84180622431014918</v>
       </c>
     </row>
-    <row r="377" spans="1:3">
+    <row r="377" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A377" s="2">
         <v>0</v>
       </c>
@@ -7158,7 +4579,7 @@
         <v>0.84380925788824945</v>
       </c>
     </row>
-    <row r="378" spans="1:3">
+    <row r="378" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A378" s="2">
         <v>0</v>
       </c>
@@ -7169,7 +4590,7 @@
         <v>0.84583004848031718</v>
       </c>
     </row>
-    <row r="379" spans="1:3">
+    <row r="379" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A379" s="2">
         <v>0</v>
       </c>
@@ -7180,7 +4601,7 @@
         <v>0.84786816240118312</v>
       </c>
     </row>
-    <row r="380" spans="1:3">
+    <row r="380" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A380" s="2">
         <v>0</v>
       </c>
@@ -7191,7 +4612,7 @@
         <v>0.84992302343129833</v>
       </c>
     </row>
-    <row r="381" spans="1:3">
+    <row r="381" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A381" s="2">
         <v>0</v>
       </c>
@@ -7202,7 +4623,7 @@
         <v>0.85199392829444198</v>
       </c>
     </row>
-    <row r="382" spans="1:3">
+    <row r="382" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A382" s="2">
         <v>0</v>
       </c>
@@ -7213,7 +4634,7 @@
         <v>0.85408006296345063</v>
       </c>
     </row>
-    <row r="383" spans="1:3">
+    <row r="383" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A383" s="2">
         <v>0</v>
       </c>
@@ -7224,7 +4645,7 @@
         <v>0.85618051892542502</v>
       </c>
     </row>
-    <row r="384" spans="1:3">
+    <row r="384" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A384" s="2">
         <v>0</v>
       </c>
@@ -7235,7 +4656,7 @@
         <v>0.85829430864145395</v>
       </c>
     </row>
-    <row r="385" spans="1:3">
+    <row r="385" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A385" s="2">
         <v>0</v>
       </c>
@@ -7246,7 +4667,7 @@
         <v>0.8604203795085843</v>
       </c>
     </row>
-    <row r="386" spans="1:3">
+    <row r="386" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A386" s="2">
         <v>0</v>
       </c>
@@ -7257,7 +4678,7 @@
         <v>0.86255762576275108</v>
       </c>
     </row>
-    <row r="387" spans="1:3">
+    <row r="387" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A387" s="2">
         <v>0</v>
       </c>
@@ -7268,7 +4689,7 @@
         <v>0.8647048980582438</v>
       </c>
     </row>
-    <row r="388" spans="1:3">
+    <row r="388" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A388" s="2">
         <v>0</v>
       </c>
@@ -7279,7 +4700,7 @@
         <v>0.86686101092833334</v>
       </c>
     </row>
-    <row r="389" spans="1:3">
+    <row r="389" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A389" s="2">
         <v>0</v>
       </c>
@@ -7290,7 +4711,7 @@
         <v>0.86902474877004998</v>
       </c>
     </row>
-    <row r="390" spans="1:3">
+    <row r="390" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A390" s="2">
         <v>0</v>
       </c>
@@ -7301,7 +4722,7 @@
         <v>0.87119487115351368</v>
       </c>
     </row>
-    <row r="391" spans="1:3">
+    <row r="391" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A391" s="2">
         <v>0</v>
       </c>
@@ -7312,7 +4733,7 @@
         <v>0.87337011814188159</v>
       </c>
     </row>
-    <row r="392" spans="1:3">
+    <row r="392" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A392" s="2">
         <v>0</v>
       </c>
@@ -7323,7 +4744,7 @@
         <v>0.87554921618256987</v>
       </c>
     </row>
-    <row r="393" spans="1:3">
+    <row r="393" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A393" s="2">
         <v>0</v>
       </c>
@@ -7334,7 +4755,7 @@
         <v>0.87773088514253994</v>
       </c>
     </row>
-    <row r="394" spans="1:3">
+    <row r="394" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A394" s="2">
         <v>0</v>
       </c>
@@ -7345,7 +4766,7 @@
         <v>0.87991384703262987</v>
       </c>
     </row>
-    <row r="395" spans="1:3">
+    <row r="395" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A395" s="2">
         <v>0</v>
       </c>
@@ -7356,7 +4777,7 @@
         <v>0.88209683665429217</v>
       </c>
     </row>
-    <row r="396" spans="1:3">
+    <row r="396" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A396" s="2">
         <v>0</v>
       </c>
@@ -7367,7 +4788,7 @@
         <v>0.88427861387481832</v>
       </c>
     </row>
-    <row r="397" spans="1:3">
+    <row r="397" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A397" s="2">
         <v>0</v>
       </c>
@@ -7378,7 +4799,7 @@
         <v>0.88645797681684879</v>
       </c>
     </row>
-    <row r="398" spans="1:3">
+    <row r="398" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A398" s="2">
         <v>0</v>
       </c>
@@ -7389,7 +4810,7 @@
         <v>0.88863377511389452</v>
       </c>
     </row>
-    <row r="399" spans="1:3">
+    <row r="399" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A399" s="2">
         <v>0</v>
       </c>
@@ -7400,7 +4821,7 @@
         <v>0.89080492243297604</v>
       </c>
     </row>
-    <row r="400" spans="1:3">
+    <row r="400" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A400" s="2">
         <v>0</v>
       </c>
@@ -7411,7 +4832,7 @@
         <v>0.89297040755858148</v>
       </c>
     </row>
-    <row r="401" spans="1:3">
+    <row r="401" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A401" s="2">
         <v>0</v>
       </c>
@@ -7422,7 +4843,7 @@
         <v>0.89512930346788799</v>
       </c>
     </row>
-    <row r="402" spans="1:3">
+    <row r="402" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A402" s="2">
         <v>0</v>
       </c>
@@ -7433,7 +4854,7 @@
         <v>0.89728077405187001</v>
       </c>
     </row>
-    <row r="403" spans="1:3">
+    <row r="403" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A403" s="2">
         <v>0</v>
       </c>
@@ -7444,7 +4865,7 @@
         <v>0.89942407842739303</v>
       </c>
     </row>
-    <row r="404" spans="1:3">
+    <row r="404" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A404" s="2">
         <v>0</v>
       </c>
@@ -7455,7 +4876,7 @@
         <v>0.90155857306861664</v>
       </c>
     </row>
-    <row r="405" spans="1:3">
+    <row r="405" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A405" s="2">
         <v>0</v>
       </c>
@@ -7466,7 +4887,7 @@
         <v>0.90368371220208743</v>
       </c>
     </row>
-    <row r="406" spans="1:3">
+    <row r="406" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A406" s="2">
         <v>0</v>
       </c>
@@ -7477,7 +4898,7 @@
         <v>0.90579904701658609</v>
       </c>
     </row>
-    <row r="407" spans="1:3">
+    <row r="407" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A407" s="2">
         <v>0</v>
       </c>
@@ -7488,7 +4909,7 @@
         <v>0.9079042242040184</v>
       </c>
     </row>
-    <row r="408" spans="1:3">
+    <row r="408" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A408" s="2">
         <v>0</v>
       </c>
@@ -7499,7 +4920,7 @@
         <v>0.90999898418537661</v>
       </c>
     </row>
-    <row r="409" spans="1:3">
+    <row r="409" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A409" s="2">
         <v>0</v>
       </c>
@@ -7510,7 +4931,7 @@
         <v>0.91208315915001514</v>
       </c>
     </row>
-    <row r="410" spans="1:3">
+    <row r="410" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A410" s="2">
         <v>0</v>
       </c>
@@ -7521,7 +4942,7 @@
         <v>0.91415667079800111</v>
       </c>
     </row>
-    <row r="411" spans="1:3">
+    <row r="411" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A411" s="2">
         <v>0</v>
       </c>
@@ -7532,7 +4953,7 @@
         <v>0.91621952743314972</v>
       </c>
     </row>
-    <row r="412" spans="1:3">
+    <row r="412" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A412" s="2">
         <v>0</v>
       </c>
@@ -7543,7 +4964,7 @@
         <v>0.91827181981076222</v>
       </c>
     </row>
-    <row r="413" spans="1:3">
+    <row r="413" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A413" s="2">
         <v>0</v>
       </c>
@@ -7554,7 +4975,7 @@
         <v>0.92031371492758285</v>
       </c>
     </row>
-    <row r="414" spans="1:3">
+    <row r="414" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A414" s="2">
         <v>0</v>
       </c>
@@ -7565,7 +4986,7 @@
         <v>0.92234544681457831</v>
       </c>
     </row>
-    <row r="415" spans="1:3">
+    <row r="415" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A415" s="2">
         <v>0</v>
       </c>
@@ -7576,7 +4997,7 @@
         <v>0.92436730342092199</v>
       </c>
     </row>
-    <row r="416" spans="1:3">
+    <row r="416" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A416" s="2">
         <v>0</v>
       </c>
@@ -7587,7 +5008,7 @@
         <v>0.92637960888144588</v>
       </c>
     </row>
-    <row r="417" spans="1:3">
+    <row r="417" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A417" s="2">
         <v>0</v>
       </c>
@@ -7598,7 +5019,7 @@
         <v>0.92838270083750973</v>
       </c>
     </row>
-    <row r="418" spans="1:3">
+    <row r="418" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A418" s="2">
         <v>0</v>
       </c>
@@ -7609,7 +5030,7 @@
         <v>0.93037690305219278</v>
       </c>
     </row>
-    <row r="419" spans="1:3">
+    <row r="419" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A419" s="2">
         <v>0</v>
       </c>
@@ -7620,7 +5041,7 @@
         <v>0.93236249431047513</v>
       </c>
     </row>
-    <row r="420" spans="1:3">
+    <row r="420" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A420" s="2">
         <v>0</v>
       </c>
@@ -7631,7 +5052,7 @@
         <v>0.93433967536901219</v>
       </c>
     </row>
-    <row r="421" spans="1:3">
+    <row r="421" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A421" s="2">
         <v>0</v>
       </c>
@@ -7642,7 +5063,7 @@
         <v>0.93630853624093335</v>
       </c>
     </row>
-    <row r="422" spans="1:3">
+    <row r="422" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A422" s="2">
         <v>0</v>
       </c>
@@ -7653,7 +5074,7 @@
         <v>0.93826902615672625</v>
       </c>
     </row>
-    <row r="423" spans="1:3">
+    <row r="423" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A423" s="2">
         <v>0</v>
       </c>
@@ -7664,7 +5085,7 @@
         <v>0.94022092818796732</v>
       </c>
     </row>
-    <row r="424" spans="1:3">
+    <row r="424" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A424" s="2">
         <v>0</v>
       </c>
@@ -7675,7 +5096,7 @@
         <v>0.94216384005178322</v>
       </c>
     </row>
-    <row r="425" spans="1:3">
+    <row r="425" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A425" s="2">
         <v>0</v>
       </c>
@@ -7686,7 +5107,7 @@
         <v>0.9440971622769958</v>
       </c>
     </row>
-    <row r="426" spans="1:3">
+    <row r="426" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A426" s="2">
         <v>0</v>
       </c>
@@ -7697,7 +5118,7 @@
         <v>0.94602009466315296</v>
       </c>
     </row>
-    <row r="427" spans="1:3">
+    <row r="427" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A427" s="2">
         <v>0</v>
       </c>
@@ -7708,7 +5129,7 @@
         <v>0.94793164154888621</v>
       </c>
     </row>
-    <row r="428" spans="1:3">
+    <row r="428" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A428" s="2">
         <v>0</v>
       </c>
@@ -7719,7 +5140,7 @@
         <v>0.94983062569242704</v>
       </c>
     </row>
-    <row r="429" spans="1:3">
+    <row r="429" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A429" s="2">
         <v>0</v>
       </c>
@@ -7730,7 +5151,7 @@
         <v>0.95171570972608455</v>
       </c>
     </row>
-    <row r="430" spans="1:3">
+    <row r="430" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A430" s="2">
         <v>0</v>
       </c>
@@ -7741,7 +5162,7 @@
         <v>0.95358542345207153</v>
       </c>
     </row>
-    <row r="431" spans="1:3">
+    <row r="431" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A431" s="2">
         <v>0</v>
       </c>
@@ -7752,7 +5173,7 @@
         <v>0.95543819479694159</v>
       </c>
     </row>
-    <row r="432" spans="1:3">
+    <row r="432" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A432" s="2">
         <v>0</v>
       </c>
@@ -7763,7 +5184,7 @@
         <v>0.95727238201329556</v>
       </c>
     </row>
-    <row r="433" spans="1:3">
+    <row r="433" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A433" s="2">
         <v>0</v>
       </c>
@@ -7774,7 +5195,7 @@
         <v>0.95908630474865841</v>
       </c>
     </row>
-    <row r="434" spans="1:3">
+    <row r="434" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A434" s="2">
         <v>0</v>
       </c>
@@ -7785,7 +5206,7 @@
         <v>0.96087827194938802</v>
       </c>
     </row>
-    <row r="435" spans="1:3">
+    <row r="435" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A435" s="2">
         <v>0</v>
       </c>
@@ -7796,7 +5217,7 @@
         <v>0.96264660517727252</v>
       </c>
     </row>
-    <row r="436" spans="1:3">
+    <row r="436" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A436" s="2">
         <v>0</v>
       </c>
@@ -7807,7 +5228,7 @@
         <v>0.96438965662692955</v>
       </c>
     </row>
-    <row r="437" spans="1:3">
+    <row r="437" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A437" s="2">
         <v>0</v>
       </c>
@@ -7818,7 +5239,7 @@
         <v>0.96610582178071069</v>
       </c>
     </row>
-    <row r="438" spans="1:3">
+    <row r="438" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A438" s="2">
         <v>0</v>
       </c>
@@ -7829,7 +5250,7 @@
         <v>0.96779354715159127</v>
       </c>
     </row>
-    <row r="439" spans="1:3">
+    <row r="439" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A439" s="2">
         <v>0</v>
       </c>
@@ -7840,7 +5261,7 @@
         <v>0.96945133395888827</v>
       </c>
     </row>
-    <row r="440" spans="1:3">
+    <row r="440" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A440" s="2">
         <v>0</v>
       </c>
@@ -7851,7 +5272,7 @@
         <v>0.97107773887044557</v>
       </c>
     </row>
-    <row r="441" spans="1:3">
+    <row r="441" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A441" s="2">
         <v>0</v>
       </c>
@@ -7862,7 +5283,7 @@
         <v>0.97267137307944873</v>
       </c>
     </row>
-    <row r="442" spans="1:3">
+    <row r="442" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A442" s="2">
         <v>0</v>
       </c>
@@ -7873,7 +5294,7 @@
         <v>0.97423090089331099</v>
       </c>
     </row>
-    <row r="443" spans="1:3">
+    <row r="443" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A443" s="2">
         <v>0</v>
       </c>
@@ -7884,7 +5305,7 @@
         <v>0.97575503867582358</v>
       </c>
     </row>
-    <row r="444" spans="1:3">
+    <row r="444" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A444" s="2">
         <v>0</v>
       </c>
@@ -7895,7 +5316,7 @@
         <v>0.97724255446682318</v>
       </c>
     </row>
-    <row r="445" spans="1:3">
+    <row r="445" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A445" s="2">
         <v>0</v>
       </c>
@@ -7906,7 +5327,7 @@
         <v>0.97869226805452836</v>
       </c>
     </row>
-    <row r="446" spans="1:3">
+    <row r="446" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A446" s="2">
         <v>0</v>
       </c>
@@ -7917,7 +5338,7 @@
         <v>0.98010305088348815</v>
       </c>
     </row>
-    <row r="447" spans="1:3">
+    <row r="447" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A447" s="2">
         <v>0</v>
       </c>
@@ -7928,7 +5349,7 @@
         <v>0.98147382506967107</v>
       </c>
     </row>
-    <row r="448" spans="1:3">
+    <row r="448" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A448" s="2">
         <v>0</v>
       </c>
@@ -7939,7 +5360,7 @@
         <v>0.98280356093583476</v>
       </c>
     </row>
-    <row r="449" spans="1:3">
+    <row r="449" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A449" s="2">
         <v>0</v>
       </c>
@@ -7950,7 +5371,7 @@
         <v>0.9840912727476091</v>
       </c>
     </row>
-    <row r="450" spans="1:3">
+    <row r="450" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A450" s="2">
         <v>0</v>
       </c>
@@ -7961,7 +5382,7 @@
         <v>0.9853360126138534</v>
       </c>
     </row>
-    <row r="451" spans="1:3">
+    <row r="451" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A451" s="2">
         <v>0</v>
       </c>
@@ -7972,7 +5393,7 @@
         <v>0.98653686274857666</v>
       </c>
     </row>
-    <row r="452" spans="1:3">
+    <row r="452" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A452" s="2">
         <v>0</v>
       </c>
@@ -7983,7 +5404,7 @@
         <v>0.98769292645263795</v>
       </c>
     </row>
-    <row r="453" spans="1:3">
+    <row r="453" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A453" s="2">
         <v>0</v>
       </c>
@@ -7994,7 +5415,7 @@
         <v>0.98880331831539037</v>
       </c>
     </row>
-    <row r="454" spans="1:3">
+    <row r="454" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A454" s="2">
         <v>0</v>
       </c>
@@ -8005,7 +5426,7 @@
         <v>0.9898671543256532</v>
       </c>
     </row>
-    <row r="455" spans="1:3">
+    <row r="455" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A455" s="2">
         <v>0</v>
       </c>
@@ -8016,7 +5437,7 @@
         <v>0.99088354276202795</v>
       </c>
     </row>
-    <row r="456" spans="1:3">
+    <row r="456" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A456" s="2">
         <v>0</v>
       </c>
@@ -8027,7 +5448,7 @@
         <v>0.99185157677387281</v>
       </c>
     </row>
-    <row r="457" spans="1:3">
+    <row r="457" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A457" s="2">
         <v>0</v>
       </c>
@@ -8038,7 +5459,7 @@
         <v>0.99277032943600851</v>
       </c>
     </row>
-    <row r="458" spans="1:3">
+    <row r="458" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A458" s="2">
         <v>0</v>
       </c>
@@ -8049,7 +5470,7 @@
         <v>0.99363885184610257</v>
       </c>
     </row>
-    <row r="459" spans="1:3">
+    <row r="459" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A459" s="2">
         <v>0</v>
       </c>
@@ -8060,7 +5481,7 @@
         <v>0.99445617460337832</v>
       </c>
     </row>
-    <row r="460" spans="1:3">
+    <row r="460" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A460" s="2">
         <v>0</v>
       </c>
@@ -8071,7 +5492,7 @@
         <v>0.99522131275491277</v>
       </c>
     </row>
-    <row r="461" spans="1:3">
+    <row r="461" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A461" s="2">
         <v>0</v>
       </c>
@@ -8082,7 +5503,7 @@
         <v>0.9959332739503779</v>
       </c>
     </row>
-    <row r="462" spans="1:3">
+    <row r="462" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A462" s="2">
         <v>0</v>
       </c>
@@ -8093,7 +5514,7 @@
         <v>0.99659106904690864</v>
       </c>
     </row>
-    <row r="463" spans="1:3">
+    <row r="463" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A463" s="2">
         <v>0</v>
       </c>
@@ -8104,7 +5525,7 @@
         <v>0.99719372387432548</v>
       </c>
     </row>
-    <row r="464" spans="1:3">
+    <row r="464" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A464" s="2">
         <v>0</v>
       </c>
@@ -8115,7 +5536,7 @@
         <v>0.99774029062478853</v>
       </c>
     </row>
-    <row r="465" spans="1:3">
+    <row r="465" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A465" s="2">
         <v>0</v>
       </c>
@@ -8126,7 +5547,7 @@
         <v>0.99822985755888327</v>
       </c>
     </row>
-    <row r="466" spans="1:3">
+    <row r="466" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A466" s="2">
         <v>0</v>
       </c>
@@ -8137,7 +5558,7 @@
         <v>0.99866155623651554</v>
       </c>
     </row>
-    <row r="467" spans="1:3">
+    <row r="467" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A467" s="2">
         <v>0</v>
       </c>
@@ -8148,7 +5569,7 @@
         <v>0.99903456593404183</v>
       </c>
     </row>
-    <row r="468" spans="1:3">
+    <row r="468" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A468" s="2">
         <v>0</v>
       </c>
@@ -8159,7 +5580,7 @@
         <v>0.99934811513426958</v>
       </c>
     </row>
-    <row r="469" spans="1:3">
+    <row r="469" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A469" s="2">
         <v>0</v>
       </c>
@@ -8170,7 +5591,7 @@
         <v>0.99960148007834126</v>
       </c>
     </row>
-    <row r="470" spans="1:3">
+    <row r="470" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A470" s="2">
         <v>0</v>
       </c>
@@ -8181,7 +5602,7 @@
         <v>0.99979398054397894</v>
       </c>
     </row>
-    <row r="471" spans="1:3">
+    <row r="471" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A471" s="2">
         <v>0</v>
       </c>
@@ -8192,7 +5613,7 @@
         <v>0.99992497333143326</v>
       </c>
     </row>
-    <row r="472" spans="1:3">
+    <row r="472" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A472" s="2">
         <v>0</v>
       </c>
@@ -8203,7 +5624,7 @@
         <v>0.99999384429151439</v>
       </c>
     </row>
-    <row r="473" spans="1:3">
+    <row r="473" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A473" s="2">
         <v>0</v>
       </c>
@@ -8214,7 +5635,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="474" spans="1:3">
+    <row r="474" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A474" s="2">
         <v>0</v>
       </c>
@@ -8225,7 +5646,7 @@
         <v>0.9999428603423951</v>
       </c>
     </row>
-    <row r="475" spans="1:3">
+    <row r="475" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A475" s="2">
         <v>0</v>
       </c>
@@ -8236,7 +5657,7 @@
         <v>0.999821853290222</v>
       </c>
     </row>
-    <row r="476" spans="1:3">
+    <row r="476" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A476" s="2">
         <v>0</v>
       </c>
@@ -8247,7 +5668,7 @@
         <v>0.99963641293636718</v>
       </c>
     </row>
-    <row r="477" spans="1:3">
+    <row r="477" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A477" s="2">
         <v>0</v>
       </c>
@@ -8258,7 +5679,7 @@
         <v>0.99938598140913948</v>
       </c>
     </row>
-    <row r="478" spans="1:3">
+    <row r="478" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A478" s="2">
         <v>0</v>
       </c>
@@ -8269,7 +5690,7 @@
         <v>0.9990700147344137</v>
       </c>
     </row>
-    <row r="479" spans="1:3">
+    <row r="479" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A479" s="2">
         <v>0</v>
       </c>
@@ -8280,7 +5701,7 @@
         <v>0.99868799218348325</v>
       </c>
     </row>
-    <row r="480" spans="1:3">
+    <row r="480" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A480" s="2">
         <v>0</v>
       </c>
@@ -8291,7 +5712,7 @@
         <v>0.99823942817872324</v>
       </c>
     </row>
-    <row r="481" spans="1:3">
+    <row r="481" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A481" s="2">
         <v>0</v>
       </c>
@@ -8302,7 +5723,7 @@
         <v>0.99772388547606961</v>
       </c>
     </row>
-    <row r="482" spans="1:3">
+    <row r="482" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A482" s="2">
         <v>0</v>
       </c>
@@ -8313,7 +5734,7 @@
         <v>0.9971409881679858</v>
       </c>
     </row>
-    <row r="483" spans="1:3">
+    <row r="483" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A483" s="2">
         <v>0</v>
       </c>
@@ -8324,7 +5745,7 @@
         <v>0.9964904331030624</v>
       </c>
     </row>
-    <row r="484" spans="1:3">
+    <row r="484" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A484" s="2">
         <v>0</v>
       </c>
@@ -8335,7 +5756,7 @@
         <v>0.99577199859041066</v>
       </c>
     </row>
-    <row r="485" spans="1:3">
+    <row r="485" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A485" s="2">
         <v>0</v>
       </c>
@@ -8346,7 +5767,7 @@
         <v>0.99498554964107688</v>
       </c>
     </row>
-    <row r="486" spans="1:3">
+    <row r="486" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A486" s="2">
         <v>0</v>
       </c>
@@ -8357,7 +5778,7 @@
         <v>0.99413103935111624</v>
       </c>
     </row>
-    <row r="487" spans="1:3">
+    <row r="487" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A487" s="2">
         <v>0</v>
       </c>
@@ -8368,7 +5789,7 @@
         <v>0.99320850631537816</v>
       </c>
     </row>
-    <row r="488" spans="1:3">
+    <row r="488" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A488" s="2">
         <v>0</v>
       </c>
@@ -8379,7 +5800,7 @@
         <v>0.99221806824753034</v>
       </c>
     </row>
-    <row r="489" spans="1:3">
+    <row r="489" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A489" s="2">
         <v>0</v>
       </c>
@@ -8390,7 +5811,7 @@
         <v>0.99115991229287637</v>
       </c>
     </row>
-    <row r="490" spans="1:3">
+    <row r="490" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A490" s="2">
         <v>0</v>
       </c>
@@ -8401,7 +5822,7 @@
         <v>0.99003428279087957</v>
       </c>
     </row>
-    <row r="491" spans="1:3">
+    <row r="491" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A491" s="2">
         <v>0</v>
       </c>
@@ -8412,7 +5833,7 @@
         <v>0.9888414674273529</v>
       </c>
     </row>
-    <row r="492" spans="1:3">
+    <row r="492" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A492" s="2">
         <v>0</v>
       </c>
@@ -8423,7 +5844,7 @@
         <v>0.9875817828028951</v>
       </c>
     </row>
-    <row r="493" spans="1:3">
+    <row r="493" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A493" s="2">
         <v>0</v>
       </c>
@@ -8434,7 +5855,7 @@
         <v>0.98625556038992312</v>
       </c>
     </row>
-    <row r="494" spans="1:3">
+    <row r="494" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A494" s="2">
         <v>0</v>
       </c>
@@ -8445,7 +5866,7 @@
         <v>0.98486313360221922</v>
       </c>
     </row>
-    <row r="495" spans="1:3">
+    <row r="495" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A495" s="2">
         <v>0</v>
       </c>
@@ -8456,7 +5877,7 @@
         <v>0.98340482629682191</v>
       </c>
     </row>
-    <row r="496" spans="1:3">
+    <row r="496" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A496" s="2">
         <v>0</v>
       </c>
@@ -8467,7 +5888,7 @@
         <v>0.98188094262293935</v>
       </c>
     </row>
-    <row r="497" spans="1:3">
+    <row r="497" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A497" s="2">
         <v>0</v>
       </c>
@@ -8478,7 +5899,7 @@
         <v>0.98029175791069401</v>
       </c>
     </row>
-    <row r="498" spans="1:3">
+    <row r="498" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A498" s="2">
         <v>0</v>
       </c>
@@ -8489,7 +5910,7 @@
         <v>0.97863751032361923</v>
       </c>
     </row>
-    <row r="499" spans="1:3">
+    <row r="499" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A499" s="2">
         <v>0</v>
       </c>
@@ -8500,7 +5921,7 @@
         <v>0.9769183931914921</v>
       </c>
     </row>
-    <row r="500" spans="1:3">
+    <row r="500" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A500" s="2">
         <v>0</v>
       </c>
@@ -8511,7 +5932,7 @@
         <v>0.97513454818504186</v>
       </c>
     </row>
-    <row r="501" spans="1:3">
+    <row r="501" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A501" s="2">
         <v>0</v>
       </c>
@@ -8522,7 +5943,7 @@
         <v>0.97328605975818061</v>
       </c>
     </row>
-    <row r="502" spans="1:3">
+    <row r="502" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A502" s="2">
         <v>0</v>
       </c>
@@ -8533,7 +5954,7 @@
         <v>0.97137295149864966</v>
       </c>
     </row>
-    <row r="503" spans="1:3">
+    <row r="503" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A503" s="2">
         <v>0</v>
       </c>
@@ -8544,7 +5965,7 @@
         <v>0.96939518505727773</v>
       </c>
     </row>
-    <row r="504" spans="1:3">
+    <row r="504" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A504" s="2">
         <v>0</v>
       </c>
@@ -8555,7 +5976,7 @@
         <v>0.96735266212935234</v>
       </c>
     </row>
-    <row r="505" spans="1:3">
+    <row r="505" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A505" s="2">
         <v>0</v>
       </c>
@@ -8566,7 +5987,7 @@
         <v>0.96524522965622195</v>
       </c>
     </row>
-    <row r="506" spans="1:3">
+    <row r="506" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A506" s="2">
         <v>0</v>
       </c>
@@ -8577,7 +5998,7 @@
         <v>0.96307268812453817</v>
       </c>
     </row>
-    <row r="507" spans="1:3">
+    <row r="507" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A507" s="2">
         <v>0</v>
       </c>
@@ -8588,7 +6009,7 @@
         <v>0.96083480259399756</v>
       </c>
     </row>
-    <row r="508" spans="1:3">
+    <row r="508" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A508" s="2">
         <v>0</v>
       </c>
@@ -8599,7 +6020,7 @@
         <v>0.95853131588783058</v>
       </c>
     </row>
-    <row r="509" spans="1:3">
+    <row r="509" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A509" s="2">
         <v>0</v>
       </c>
@@ -8610,7 +6031,7 @@
         <v>0.95616196328751524</v>
       </c>
     </row>
-    <row r="510" spans="1:3">
+    <row r="510" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A510" s="2">
         <v>0</v>
       </c>
@@ -8621,7 +6042,7 @@
         <v>0.95372648812386185</v>
       </c>
     </row>
-    <row r="511" spans="1:3">
+    <row r="511" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A511" s="2">
         <v>0</v>
       </c>
@@ -8632,7 +6053,7 @@
         <v>0.95122465777577081</v>
       </c>
     </row>
-    <row r="512" spans="1:3">
+    <row r="512" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A512" s="2">
         <v>0</v>
       </c>
@@ -8643,7 +6064,7 @@
         <v>0.94865627962823762</v>
       </c>
     </row>
-    <row r="513" spans="1:3">
+    <row r="513" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A513" s="2">
         <v>0</v>
       </c>
@@ -8654,7 +6075,7 @@
         <v>0.94602121644573112</v>
       </c>
     </row>
-    <row r="514" spans="1:3">
+    <row r="514" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A514" s="2">
         <v>0</v>
       </c>
@@ -8665,7 +6086,7 @@
         <v>0.94331940048785967</v>
       </c>
     </row>
-    <row r="515" spans="1:3">
+    <row r="515" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A515" s="2">
         <v>0</v>
       </c>
@@ -8676,7 +6097,7 @@
         <v>0.94055084567127245</v>
       </c>
     </row>
-    <row r="516" spans="1:3">
+    <row r="516" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A516" s="2">
         <v>0</v>
       </c>
@@ -8687,7 +6108,7 @@
         <v>0.93771565720376571</v>
       </c>
     </row>
-    <row r="517" spans="1:3">
+    <row r="517" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A517" s="2">
         <v>0</v>
       </c>
@@ -8698,7 +6119,7 @@
         <v>0.93481403832567234</v>
       </c>
     </row>
-    <row r="518" spans="1:3">
+    <row r="518" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A518" s="2">
         <v>0</v>
       </c>
@@ -8709,7 +6130,7 @@
         <v>0.93184629401097263</v>
       </c>
     </row>
-    <row r="519" spans="1:3">
+    <row r="519" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A519" s="2">
         <v>0</v>
       </c>
@@ -8720,7 +6141,7 @@
         <v>0.92881283164688611</v>
       </c>
     </row>
-    <row r="520" spans="1:3">
+    <row r="520" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A520" s="2">
         <v>0</v>
       </c>
@@ -8731,7 +6152,7 @@
         <v>0.92571415881690955</v>
       </c>
     </row>
-    <row r="521" spans="1:3">
+    <row r="521" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A521" s="2">
         <v>0</v>
       </c>
@@ -8742,7 +6163,7 @@
         <v>0.92255087841235628</v>
       </c>
     </row>
-    <row r="522" spans="1:3">
+    <row r="522" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A522" s="2">
         <v>0</v>
       </c>
@@ -8753,7 +6174,7 @@
         <v>0.91932368144138166</v>
       </c>
     </row>
-    <row r="523" spans="1:3">
+    <row r="523" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A523" s="2">
         <v>0</v>
       </c>
@@ -8764,7 +6185,7 @@
         <v>0.91603333806797649</v>
       </c>
     </row>
-    <row r="524" spans="1:3">
+    <row r="524" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A524" s="2">
         <v>0</v>
       </c>
@@ -8775,7 +6196,7 @@
         <v>0.91268068754545695</v>
       </c>
     </row>
-    <row r="525" spans="1:3">
+    <row r="525" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A525" s="2">
         <v>0</v>
       </c>
@@ -8786,7 +6207,7 @@
         <v>0.90926662780033762</v>
       </c>
     </row>
-    <row r="526" spans="1:3">
+    <row r="526" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A526" s="2">
         <v>0</v>
       </c>
@@ -8797,7 +6218,7 @@
         <v>0.90579210545606259</v>
       </c>
     </row>
-    <row r="527" spans="1:3">
+    <row r="527" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A527" s="2">
         <v>0</v>
       </c>
@@ -8808,7 +6229,7 @@
         <v>0.90225810699239861</v>
       </c>
     </row>
-    <row r="528" spans="1:3">
+    <row r="528" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A528" s="2">
         <v>0</v>
       </c>
@@ -8819,7 +6240,7 @@
         <v>0.89866565149377564</v>
       </c>
     </row>
-    <row r="529" spans="1:3">
+    <row r="529" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A529" s="2">
         <v>0</v>
       </c>
@@ -8830,7 +6251,7 @@
         <v>0.89501578515807145</v>
       </c>
     </row>
-    <row r="530" spans="1:3">
+    <row r="530" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A530" s="2">
         <v>0</v>
       </c>
@@ -8841,7 +6262,7 @@
         <v>0.89130957753624629</v>
       </c>
     </row>
-    <row r="531" spans="1:3">
+    <row r="531" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A531" s="2">
         <v>0</v>
       </c>
@@ -8852,7 +6273,7 @@
         <v>0.88754811933102595</v>
       </c>
     </row>
-    <row r="532" spans="1:3">
+    <row r="532" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A532" s="2">
         <v>0</v>
       </c>
@@ -8863,7 +6284,7 @@
         <v>0.8837325214186087</v>
       </c>
     </row>
-    <row r="533" spans="1:3">
+    <row r="533" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A533" s="2">
         <v>0</v>
       </c>
@@ -8874,7 +6295,7 @@
         <v>0.87986391459988011</v>
       </c>
     </row>
-    <row r="534" spans="1:3">
+    <row r="534" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A534" s="2">
         <v>0</v>
       </c>
@@ -8885,7 +6306,7 @@
         <v>0.87594344951309988</v>
       </c>
     </row>
-    <row r="535" spans="1:3">
+    <row r="535" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A535" s="2">
         <v>0</v>
       </c>
@@ -8896,7 +6317,7 @@
         <v>0.87197229613642135</v>
       </c>
     </row>
-    <row r="536" spans="1:3">
+    <row r="536" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A536" s="2">
         <v>0</v>
       </c>
@@ -8907,7 +6328,7 @@
         <v>0.86795164237389844</v>
       </c>
     </row>
-    <row r="537" spans="1:3">
+    <row r="537" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A537" s="2">
         <v>0</v>
       </c>
@@ -8918,7 +6339,7 @@
         <v>0.86388269144900565</v>
       </c>
     </row>
-    <row r="538" spans="1:3">
+    <row r="538" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A538" s="2">
         <v>0</v>
       </c>
@@ -8929,7 +6350,7 @@
         <v>0.85976665822175113</v>
       </c>
     </row>
-    <row r="539" spans="1:3">
+    <row r="539" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A539" s="2">
         <v>0</v>
       </c>
@@ -8940,7 +6361,7 @@
         <v>0.85560476488050341</v>
       </c>
     </row>
-    <row r="540" spans="1:3">
+    <row r="540" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A540" s="2">
         <v>0</v>
       </c>
@@ -8951,7 +6372,7 @@
         <v>0.85139823654521551</v>
       </c>
     </row>
-    <row r="541" spans="1:3">
+    <row r="541" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A541" s="2">
         <v>0</v>
       </c>
@@ -8962,7 +6383,7 @@
         <v>0.84714829720563767</v>
       </c>
     </row>
-    <row r="542" spans="1:3">
+    <row r="542" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A542" s="2">
         <v>0</v>
       </c>
@@ -8973,7 +6394,7 @@
         <v>0.84285616631093163</v>
       </c>
     </row>
-    <row r="543" spans="1:3">
+    <row r="543" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A543" s="2">
         <v>0</v>
       </c>
@@ -8984,7 +6405,7 @@
         <v>0.83852305637189939</v>
       </c>
     </row>
-    <row r="544" spans="1:3">
+    <row r="544" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A544" s="2">
         <v>0</v>
       </c>
@@ -8995,7 +6416,7 @@
         <v>0.83415017207731934</v>
       </c>
     </row>
-    <row r="545" spans="1:3">
+    <row r="545" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A545" s="2">
         <v>0</v>
       </c>
@@ -9006,7 +6427,7 @@
         <v>0.82973871143484179</v>
       </c>
     </row>
-    <row r="546" spans="1:3">
+    <row r="546" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A546" s="2">
         <v>0</v>
       </c>
@@ -9017,7 +6438,7 @@
         <v>0.825289869161276</v>
       </c>
     </row>
-    <row r="547" spans="1:3">
+    <row r="547" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A547" s="2">
         <v>0</v>
       </c>
@@ -9028,7 +6449,7 @@
         <v>0.82080484205006488</v>
       </c>
     </row>
-    <row r="548" spans="1:3">
+    <row r="548" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A548" s="2">
         <v>0</v>
       </c>
@@ -9039,7 +6460,7 @@
         <v>0.81628483557966636</v>
       </c>
     </row>
-    <row r="549" spans="1:3">
+    <row r="549" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A549" s="2">
         <v>0</v>
       </c>
@@ -9050,7 +6471,7 @@
         <v>0.81173107079585005</v>
       </c>
     </row>
-    <row r="550" spans="1:3">
+    <row r="550" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A550" s="2">
         <v>0</v>
       </c>
@@ -9061,7 +6482,7 @@
         <v>0.80714479054404809</v>
       </c>
     </row>
-    <row r="551" spans="1:3">
+    <row r="551" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A551" s="2">
         <v>0</v>
       </c>
@@ -9072,7 +6493,7 @@
         <v>0.80252726433237731</v>
       </c>
     </row>
-    <row r="552" spans="1:3">
+    <row r="552" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A552" s="2">
         <v>0</v>
       </c>
@@ -9083,7 +6504,7 @@
         <v>0.79787979131223585</v>
       </c>
     </row>
-    <row r="553" spans="1:3">
+    <row r="553" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A553" s="2">
         <v>0</v>
       </c>
@@ -9094,7 +6515,7 @@
         <v>0.79320370100605875</v>
       </c>
     </row>
-    <row r="554" spans="1:3">
+    <row r="554" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A554" s="2">
         <v>0</v>
       </c>
@@ -9105,7 +6526,7 @@
         <v>0.78850035156342679</v>
       </c>
     </row>
-    <row r="555" spans="1:3">
+    <row r="555" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A555" s="2">
         <v>0</v>
       </c>
@@ -9116,7 +6537,7 @@
         <v>0.78377112559172546</v>
       </c>
     </row>
-    <row r="556" spans="1:3">
+    <row r="556" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A556" s="2">
         <v>0</v>
       </c>
@@ -9127,7 +6548,7 @@
         <v>0.77901742398214024</v>
       </c>
     </row>
-    <row r="557" spans="1:3">
+    <row r="557" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A557" s="2">
         <v>0</v>
       </c>
@@ -9138,7 +6559,7 @@
         <v>0.77424065850756263</v>
       </c>
     </row>
-    <row r="558" spans="1:3">
+    <row r="558" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A558" s="2">
         <v>0</v>
       </c>
@@ -9149,7 +6570,7 @@
         <v>0.76944224418151375</v>
       </c>
     </row>
-    <row r="559" spans="1:3">
+    <row r="559" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A559" s="2">
         <v>0</v>
       </c>
@@ -9160,7 +6581,7 @@
         <v>0.76462359240964251</v>
       </c>
     </row>
-    <row r="560" spans="1:3">
+    <row r="560" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A560" s="2">
         <v>0</v>
       </c>
@@ -9171,7 +6592,7 @@
         <v>0.75978610584033357</v>
       </c>
     </row>
-    <row r="561" spans="1:3">
+    <row r="561" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A561" s="2">
         <v>0</v>
       </c>
@@ -9182,7 +6603,7 @@
         <v>0.75493117550819633</v>
       </c>
     </row>
-    <row r="562" spans="1:3">
+    <row r="562" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A562" s="2">
         <v>0</v>
       </c>
@@ -9193,7 +6614,7 @@
         <v>0.7500601804166025</v>
       </c>
     </row>
-    <row r="563" spans="1:3">
+    <row r="563" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A563" s="2">
         <v>0</v>
       </c>
@@ -9204,7 +6625,7 @@
         <v>0.74517448928270513</v>
       </c>
     </row>
-    <row r="564" spans="1:3">
+    <row r="564" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A564" s="2">
         <v>0</v>
       </c>
@@ -9215,7 +6636,7 @@
         <v>0.74027546390754595</v>
       </c>
     </row>
-    <row r="565" spans="1:3">
+    <row r="565" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A565" s="2">
         <v>0</v>
       </c>
@@ -9226,7 +6647,7 @@
         <v>0.73536446356060725</v>
       </c>
     </row>
-    <row r="566" spans="1:3">
+    <row r="566" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A566" s="2">
         <v>0</v>
       </c>
@@ -9237,7 +6658,7 @@
         <v>0.73044284982951713</v>
       </c>
     </row>
-    <row r="567" spans="1:3">
+    <row r="567" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A567" s="2">
         <v>0</v>
       </c>
@@ -9248,7 +6669,7 @@
         <v>0.72551199151660362</v>
       </c>
     </row>
-    <row r="568" spans="1:3">
+    <row r="568" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A568" s="2">
         <v>0</v>
       </c>
@@ -9259,7 +6680,7 @@
         <v>0.72057326933603216</v>
       </c>
     </row>
-    <row r="569" spans="1:3">
+    <row r="569" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A569" s="2">
         <v>0</v>
       </c>
@@ -9270,7 +6691,7 @@
         <v>0.7156280803626055</v>
       </c>
     </row>
-    <row r="570" spans="1:3">
+    <row r="570" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A570" s="2">
         <v>0</v>
       </c>
@@ -9281,7 +6702,7 @@
         <v>0.7106778423419926</v>
       </c>
     </row>
-    <row r="571" spans="1:3">
+    <row r="571" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A571" s="2">
         <v>0</v>
       </c>
@@ -9292,7 +6713,7 @@
         <v>0.70572399801626073</v>
       </c>
     </row>
-    <row r="572" spans="1:3">
+    <row r="572" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A572" s="2">
         <v>0</v>
       </c>
@@ -9303,7 +6724,7 @@
         <v>0.70076801955232304</v>
       </c>
     </row>
-    <row r="573" spans="1:3">
+    <row r="573" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A573" s="2">
         <v>0</v>
       </c>
@@ -9314,7 +6735,7 @@
         <v>0.69581141305392424</v>
       </c>
     </row>
-    <row r="574" spans="1:3">
+    <row r="574" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A574" s="2">
         <v>0</v>
       </c>
@@ -9325,7 +6746,7 @@
         <v>0.6908557230268445</v>
       </c>
     </row>
-    <row r="575" spans="1:3">
+    <row r="575" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A575" s="2">
         <v>0</v>
       </c>
@@ -9336,7 +6757,7 @@
         <v>0.68590253651665489</v>
       </c>
     </row>
-    <row r="576" spans="1:3">
+    <row r="576" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A576" s="2">
         <v>0</v>
       </c>
@@ -9347,7 +6768,7 @@
         <v>0.68095348641455389</v>
       </c>
     </row>
-    <row r="577" spans="1:3">
+    <row r="577" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A577" s="2">
         <v>0</v>
       </c>
@@ -9358,7 +6779,7 @@
         <v>0.676010253200102</v>
       </c>
     </row>
-    <row r="578" spans="1:3">
+    <row r="578" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A578" s="2">
         <v>0</v>
       </c>
@@ -9369,7 +6790,7 @@
         <v>0.67107456430361712</v>
       </c>
     </row>
-    <row r="579" spans="1:3">
+    <row r="579" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A579" s="2">
         <v>0</v>
       </c>
@@ -9380,7 +6801,7 @@
         <v>0.66614819037039363</v>
       </c>
     </row>
-    <row r="580" spans="1:3">
+    <row r="580" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A580" s="2">
         <v>0</v>
       </c>
@@ -9391,7 +6812,7 @@
         <v>0.66123293788906001</v>
       </c>
     </row>
-    <row r="581" spans="1:3">
+    <row r="581" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A581" s="2">
         <v>0</v>
       </c>
@@ -9402,7 +6823,7 @@
         <v>0.65633063782191015</v>
       </c>
     </row>
-    <row r="582" spans="1:3">
+    <row r="582" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A582" s="2">
         <v>0</v>
       </c>
@@ -9413,7 +6834,7 @@
         <v>0.65144313008164889</v>
       </c>
     </row>
-    <row r="583" spans="1:3">
+    <row r="583" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A583" s="2">
         <v>0</v>
       </c>
@@ -9424,7 +6845,7 @@
         <v>0.64657224397852442</v>
       </c>
     </row>
-    <row r="584" spans="1:3">
+    <row r="584" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A584" s="2">
         <v>0</v>
       </c>
@@ -9435,7 +6856,7 @@
         <v>0.64171977506846278</v>
       </c>
     </row>
-    <row r="585" spans="1:3">
+    <row r="585" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A585" s="2">
         <v>0</v>
       </c>
@@ -9446,7 +6867,7 @@
         <v>0.63688745910399902</v>
       </c>
     </row>
-    <row r="586" spans="1:3">
+    <row r="586" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A586" s="2">
         <v>0</v>
       </c>
@@ -9457,7 +6878,7 @@
         <v>0.63207694402093517</v>
       </c>
     </row>
-    <row r="587" spans="1:3">
+    <row r="587" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A587" s="2">
         <v>0</v>
       </c>
@@ -9468,7 +6889,7 @@
         <v>0.62728976108770351</v>
       </c>
     </row>
-    <row r="588" spans="1:3">
+    <row r="588" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A588" s="2">
         <v>0</v>
       </c>
@@ -9479,7 +6900,7 @@
         <v>0.62252729642131088</v>
       </c>
     </row>
-    <row r="589" spans="1:3">
+    <row r="589" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A589" s="2">
         <v>0</v>
       </c>
@@ -9490,7 +6911,7 @@
         <v>0.61779076389613152</v>
       </c>
     </row>
-    <row r="590" spans="1:3">
+    <row r="590" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A590" s="2">
         <v>0</v>
       </c>
@@ -9501,7 +6922,7 @@
         <v>0.61308118001323497</v>
       </c>
     </row>
-    <row r="591" spans="1:3">
+    <row r="591" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A591" s="2">
         <v>0</v>
       </c>
@@ -9512,7 +6933,7 @@
         <v>0.60839934077018287</v>
       </c>
     </row>
-    <row r="592" spans="1:3">
+    <row r="592" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A592" s="2">
         <v>0</v>
       </c>
@@ -9523,7 +6944,7 @@
         <v>0.60374580030604119</v>
       </c>
     </row>
-    <row r="593" spans="1:3">
+    <row r="593" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A593" s="2">
         <v>0</v>
       </c>
@@ -9534,7 +6955,7 @@
         <v>0.59912085126009029</v>
       </c>
     </row>
-    <row r="594" spans="1:3">
+    <row r="594" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A594" s="2">
         <v>0</v>
       </c>
@@ -9545,7 +6966,7 @@
         <v>0.59452450725772477</v>
       </c>
     </row>
-    <row r="595" spans="1:3">
+    <row r="595" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A595" s="2">
         <v>0</v>
       </c>
@@ -9556,7 +6977,7 @@
         <v>0.58995648850750104</v>
       </c>
     </row>
-    <row r="596" spans="1:3">
+    <row r="596" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A596" s="2">
         <v>0</v>
       </c>
@@ -9567,7 +6988,7 @@
         <v>0.58541621203226168</v>
       </c>
     </row>
-    <row r="597" spans="1:3">
+    <row r="597" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A597" s="2">
         <v>0</v>
       </c>
@@ -9578,7 +6999,7 @@
         <v>0.58090278845167165</v>
       </c>
     </row>
-    <row r="598" spans="1:3">
+    <row r="598" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A598" s="2">
         <v>0</v>
       </c>
@@ -9589,7 +7010,7 @@
         <v>0.57641502729249494</v>
       </c>
     </row>
-    <row r="599" spans="1:3">
+    <row r="599" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A599" s="2">
         <v>0</v>
       </c>
@@ -9600,7 +7021,7 @@
         <v>0.57195145241436551</v>
       </c>
     </row>
-    <row r="600" spans="1:3">
+    <row r="600" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A600" s="2">
         <v>0</v>
       </c>
@@ -9611,7 +7032,7 @@
         <v>0.56751032841284332</v>
       </c>
     </row>
-    <row r="601" spans="1:3">
+    <row r="601" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A601" s="2">
         <v>0</v>
       </c>
@@ -9622,7 +7043,7 @@
         <v>0.56308969800163555</v>
       </c>
     </row>
-    <row r="602" spans="1:3">
+    <row r="602" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A602" s="2">
         <v>0</v>
       </c>
@@ -9633,7 +7054,7 @@
         <v>0.55868742952053807</v>
       </c>
     </row>
-    <row r="603" spans="1:3">
+    <row r="603" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A603" s="2">
         <v>0</v>
       </c>
@@ -9644,7 +7065,7 @@
         <v>0.55430127297716436</v>
       </c>
     </row>
-    <row r="604" spans="1:3">
+    <row r="604" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A604" s="2">
         <v>0</v>
       </c>
@@ -9655,7 +7076,7 @@
         <v>0.54992892254849446</v>
       </c>
     </row>
-    <row r="605" spans="1:3">
+    <row r="605" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A605" s="2">
         <v>0</v>
       </c>
@@ -9666,7 +7087,7 @@
         <v>0.54556808331999829</v>
       </c>
     </row>
-    <row r="606" spans="1:3">
+    <row r="606" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A606" s="2">
         <v>0</v>
       </c>
@@ -9677,7 +7098,7 @@
         <v>0.54121654013608367</v>
       </c>
     </row>
-    <row r="607" spans="1:3">
+    <row r="607" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A607" s="2">
         <v>0</v>
       </c>
@@ -9688,7 +7109,7 @@
         <v>0.53687222656217615</v>
       </c>
     </row>
-    <row r="608" spans="1:3">
+    <row r="608" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A608" s="2">
         <v>0</v>
       </c>
@@ -9699,7 +7120,7 @@
         <v>0.53253329194815413</v>
       </c>
     </row>
-    <row r="609" spans="1:3">
+    <row r="609" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A609" s="2">
         <v>0</v>
       </c>
@@ -9710,7 +7131,7 @@
         <v>0.52819816443370515</v>
       </c>
     </row>
-    <row r="610" spans="1:3">
+    <row r="610" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A610" s="2">
         <v>0</v>
       </c>
@@ -9721,7 +7142,7 @@
         <v>0.52386560756061218</v>
       </c>
     </row>
-    <row r="611" spans="1:3">
+    <row r="611" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A611" s="2">
         <v>0</v>
       </c>
@@ -9732,7 +7153,7 @@
         <v>0.51953476806520682</v>
       </c>
     </row>
-    <row r="612" spans="1:3">
+    <row r="612" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A612" s="2">
         <v>0</v>
       </c>
@@ -9743,7 +7164,7 @@
         <v>0.51520521250409335</v>
       </c>
     </row>
-    <row r="613" spans="1:3">
+    <row r="613" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A613" s="2">
         <v>0</v>
       </c>
@@ -9754,7 +7175,7 @@
         <v>0.51087695071144734</v>
       </c>
     </row>
-    <row r="614" spans="1:3">
+    <row r="614" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A614" s="2">
         <v>0</v>
       </c>
@@ -9765,7 +7186,7 @@
         <v>0.50655044474308553</v>
       </c>
     </row>
-    <row r="615" spans="1:3">
+    <row r="615" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A615" s="2">
         <v>0</v>
       </c>
@@ -9776,7 +7197,7 @@
         <v>0.50222660283005949</v>
       </c>
     </row>
-    <row r="616" spans="1:3">
+    <row r="616" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A616" s="2">
         <v>0</v>
       </c>
@@ -9787,7 +7208,7 @@
         <v>0.49790675870206624</v>
       </c>
     </row>
-    <row r="617" spans="1:3">
+    <row r="617" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A617" s="2">
         <v>0</v>
       </c>
@@ -9798,7 +7219,7 @@
         <v>0.49359263723347258</v>
       </c>
     </row>
-    <row r="618" spans="1:3">
+    <row r="618" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A618" s="2">
         <v>0</v>
       </c>
@@ -9809,7 +7230,7 @@
         <v>0.48928630768950665</v>
       </c>
     </row>
-    <row r="619" spans="1:3">
+    <row r="619" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A619" s="2">
         <v>0</v>
       </c>
@@ -9820,7 +7241,7 @@
         <v>0.48499012604828839</v>
       </c>
     </row>
-    <row r="620" spans="1:3">
+    <row r="620" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A620" s="2">
         <v>0</v>
       </c>
@@ -9831,7 +7252,7 @@
         <v>0.48070666808168877</v>
       </c>
     </row>
-    <row r="621" spans="1:3">
+    <row r="621" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A621" s="2">
         <v>0</v>
       </c>
@@ -9842,7 +7263,7 @@
         <v>0.47643865513816097</v>
       </c>
     </row>
-    <row r="622" spans="1:3">
+    <row r="622" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A622" s="2">
         <v>0</v>
       </c>
@@ -9853,7 +7274,7 @@
         <v>0.47218887485808703</v>
       </c>
     </row>
-    <row r="623" spans="1:3">
+    <row r="623" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A623" s="2">
         <v>0</v>
       </c>
@@ -9864,7 +7285,7 @@
         <v>0.46796009928746662</v>
       </c>
     </row>
-    <row r="624" spans="1:3">
+    <row r="624" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A624" s="2">
         <v>0</v>
       </c>
@@ -9875,7 +7296,7 @@
         <v>0.46375500291903343</v>
       </c>
     </row>
-    <row r="625" spans="1:3">
+    <row r="625" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A625" s="2">
         <v>0</v>
       </c>
@@ -9886,7 +7307,7 @@
         <v>0.45957608299700975</v>
       </c>
     </row>
-    <row r="626" spans="1:3">
+    <row r="626" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A626" s="2">
         <v>0</v>
       </c>
@@ -9897,7 +7318,7 @@
         <v>0.45542558402093475</v>
       </c>
     </row>
-    <row r="627" spans="1:3">
+    <row r="627" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A627" s="2">
         <v>0</v>
       </c>
@@ -9908,7 +7329,7 @@
         <v>0.4513054279570537</v>
       </c>
     </row>
-    <row r="628" spans="1:3">
+    <row r="628" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A628" s="2">
         <v>0</v>
       </c>
@@ -9919,7 +7340,7 @@
         <v>0.44721715141534751</v>
       </c>
     </row>
-    <row r="629" spans="1:3">
+    <row r="629" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A629" s="2">
         <v>0</v>
       </c>
@@ -9930,7 +7351,7 @@
         <v>0.44316185106665357</v>
       </c>
     </row>
-    <row r="630" spans="1:3">
+    <row r="630" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A630" s="2">
         <v>0</v>
       </c>
@@ -9941,7 +7362,7 @@
         <v>0.43914013877090829</v>
       </c>
     </row>
-    <row r="631" spans="1:3">
+    <row r="631" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A631" s="2">
         <v>0</v>
       </c>
@@ -9952,7 +7373,7 @@
         <v>0.43515210807903604</v>
       </c>
     </row>
-    <row r="632" spans="1:3">
+    <row r="632" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A632" s="2">
         <v>0</v>
       </c>
@@ -9963,7 +7384,7 @@
         <v>0.43119731382878257</v>
       </c>
     </row>
-    <row r="633" spans="1:3">
+    <row r="633" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A633" s="2">
         <v>0</v>
       </c>
@@ -9974,7 +7395,7 @@
         <v>0.42727476642624035</v>
       </c>
     </row>
-    <row r="634" spans="1:3">
+    <row r="634" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A634" s="2">
         <v>0</v>
       </c>
@@ -9985,7 +7406,7 @@
         <v>0.42338294202208687</v>
       </c>
     </row>
-    <row r="635" spans="1:3">
+    <row r="635" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A635" s="2">
         <v>0</v>
       </c>
@@ -9996,7 +7417,7 @@
         <v>0.41951980910114489</v>
       </c>
     </row>
-    <row r="636" spans="1:3">
+    <row r="636" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A636" s="2">
         <v>0</v>
       </c>
@@ -10007,7 +7428,7 @@
         <v>0.41568287108410201</v>
       </c>
     </row>
-    <row r="637" spans="1:3">
+    <row r="637" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A637" s="2">
         <v>0</v>
       </c>
@@ -10018,7 +7439,7 @@
         <v>0.41186922361059436</v>
       </c>
     </row>
-    <row r="638" spans="1:3">
+    <row r="638" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A638" s="2">
         <v>0</v>
       </c>
@@ -10029,7 +7450,7 @@
         <v>0.40807562446676537</v>
       </c>
     </row>
-    <row r="639" spans="1:3">
+    <row r="639" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A639" s="2">
         <v>0</v>
       </c>
@@ -10040,7 +7461,7 @@
         <v>0.40429857370330169</v>
       </c>
     </row>
-    <row r="640" spans="1:3">
+    <row r="640" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A640" s="2">
         <v>0</v>
       </c>
@@ -10051,7 +7472,7 @@
         <v>0.40053440120559186</v>
       </c>
     </row>
-    <row r="641" spans="1:3">
+    <row r="641" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A641" s="2">
         <v>0</v>
       </c>
@@ -10062,7 +7483,7 @@
         <v>0.39677935867091657</v>
       </c>
     </row>
-    <row r="642" spans="1:3">
+    <row r="642" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A642" s="2">
         <v>0</v>
       </c>
@@ -10073,7 +7494,7 @@
         <v>0.39302971267732756</v>
       </c>
     </row>
-    <row r="643" spans="1:3">
+    <row r="643" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A643" s="2">
         <v>0</v>
       </c>
@@ -10084,7 +7505,7 @@
         <v>0.38928183542860306</v>
       </c>
     </row>
-    <row r="644" spans="1:3">
+    <row r="644" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A644" s="2">
         <v>0</v>
       </c>
@@ -10095,7 +7516,7 @@
         <v>0.38553228983830201</v>
       </c>
     </row>
-    <row r="645" spans="1:3">
+    <row r="645" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A645" s="2">
         <v>0</v>
       </c>
@@ -10106,7 +7527,7 @@
         <v>0.38177790583473892</v>
       </c>
     </row>
-    <row r="646" spans="1:3">
+    <row r="646" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A646" s="2">
         <v>0</v>
       </c>
@@ -10117,7 +7538,7 @@
         <v>0.37801584511987946</v>
       </c>
     </row>
-    <row r="647" spans="1:3">
+    <row r="647" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A647" s="2">
         <v>0</v>
       </c>
@@ -10128,7 +7549,7 @@
         <v>0.3742436520545811</v>
       </c>
     </row>
-    <row r="648" spans="1:3">
+    <row r="648" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A648" s="2">
         <v>0</v>
       </c>
@@ -10139,7 +7560,7 @@
         <v>0.37045928886115131</v>
       </c>
     </row>
-    <row r="649" spans="1:3">
+    <row r="649" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A649" s="2">
         <v>0</v>
       </c>
@@ -10150,7 +7571,7 @@
         <v>0.36666115408181515</v>
       </c>
     </row>
-    <row r="650" spans="1:3">
+    <row r="650" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A650" s="2">
         <v>0</v>
       </c>
@@ -10161,7 +7582,7 @@
         <v>0.36284808433941546</v>
       </c>
     </row>
-    <row r="651" spans="1:3">
+    <row r="651" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A651" s="2">
         <v>0</v>
       </c>
@@ -10172,7 +7593,7 @@
         <v>0.35901934074195424</v>
       </c>
     </row>
-    <row r="652" spans="1:3">
+    <row r="652" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A652" s="2">
         <v>0</v>
       </c>
@@ -10183,7 +7604,7 @@
         <v>0.35517458235990007</v>
       </c>
     </row>
-    <row r="653" spans="1:3">
+    <row r="653" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A653" s="2">
         <v>0</v>
       </c>
@@ -10194,7 +7615,7 @@
         <v>0.35131382983351883</v>
       </c>
     </row>
-    <row r="654" spans="1:3">
+    <row r="654" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A654" s="2">
         <v>0</v>
       </c>
@@ -10205,7 +7626,7 @@
         <v>0.34743742238083253</v>
       </c>
     </row>
-    <row r="655" spans="1:3">
+    <row r="655" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A655" s="2">
         <v>0</v>
       </c>
@@ -10216,7 +7637,7 @@
         <v>0.34354597140229176</v>
       </c>
     </row>
-    <row r="656" spans="1:3">
+    <row r="656" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A656" s="2">
         <v>0</v>
       </c>
@@ -10227,7 +7648,7 @@
         <v>0.33964031351791268</v>
       </c>
     </row>
-    <row r="657" spans="1:3">
+    <row r="657" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A657" s="2">
         <v>0</v>
       </c>
@@ -10238,7 +7659,7 @@
         <v>0.33572146517126722</v>
       </c>
     </row>
-    <row r="658" spans="1:3">
+    <row r="658" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A658" s="2">
         <v>0</v>
       </c>
@@ -10249,7 +7670,7 @@
         <v>0.33179057998052353</v>
       </c>
     </row>
-    <row r="659" spans="1:3">
+    <row r="659" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A659" s="2">
         <v>0</v>
       </c>
@@ -10260,7 +7681,7 @@
         <v>0.32784890908993619</v>
       </c>
     </row>
-    <row r="660" spans="1:3">
+    <row r="660" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A660" s="2">
         <v>0</v>
       </c>
@@ -10271,7 +7692,7 @@
         <v>0.3238977641639007</v>
       </c>
     </row>
-    <row r="661" spans="1:3">
+    <row r="661" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A661" s="2">
         <v>0</v>
       </c>
@@ -10282,7 +7703,7 @@
         <v>0.31993848247253981</v>
       </c>
     </row>
-    <row r="662" spans="1:3">
+    <row r="662" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A662" s="2">
         <v>0</v>
       </c>
@@ -10293,7 +7714,7 @@
         <v>0.31597239365480057</v>
       </c>
     </row>
-    <row r="663" spans="1:3">
+    <row r="663" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A663" s="2">
         <v>0</v>
       </c>
@@ -10304,7 +7725,7 @@
         <v>0.31200078800994191</v>
       </c>
     </row>
-    <row r="664" spans="1:3">
+    <row r="664" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A664" s="2">
         <v>0</v>
       </c>
@@ -10315,7 +7736,7 @@
         <v>0.30802488632685343</v>
       </c>
     </row>
-    <row r="665" spans="1:3">
+    <row r="665" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A665" s="2">
         <v>0</v>
       </c>
@@ -10326,7 +7747,7 @@
         <v>0.30404581120688401</v>
       </c>
     </row>
-    <row r="666" spans="1:3">
+    <row r="666" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A666" s="2">
         <v>0</v>
       </c>
@@ -10337,7 +7758,7 @@
         <v>0.30006455967335244</v>
       </c>
     </row>
-    <row r="667" spans="1:3">
+    <row r="667" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A667" s="2">
         <v>0</v>
       </c>
@@ -10348,7 +7769,7 @@
         <v>0.29608197674630482</v>
       </c>
     </row>
-    <row r="668" spans="1:3">
+    <row r="668" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A668" s="2">
         <v>0</v>
       </c>
@@ -10359,7 +7780,7 @@
         <v>0.29209872966671085</v>
       </c>
     </row>
-    <row r="669" spans="1:3">
+    <row r="669" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A669" s="2">
         <v>0</v>
       </c>
@@ -10370,7 +7791,7 @@
         <v>0.28811528263805353</v>
       </c>
     </row>
-    <row r="670" spans="1:3">
+    <row r="670" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A670" s="2">
         <v>0</v>
       </c>
@@ -10381,7 +7802,7 @@
         <v>0.28413187238903526</v>
       </c>
     </row>
-    <row r="671" spans="1:3">
+    <row r="671" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A671" s="2">
         <v>0</v>
       </c>
@@ -10392,7 +7813,7 @@
         <v>0.2801484855076124</v>
       </c>
     </row>
-    <row r="672" spans="1:3">
+    <row r="672" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A672" s="2">
         <v>0</v>
       </c>
@@ -10403,7 +7824,7 @@
         <v>0.27616483913093703</v>
       </c>
     </row>
-    <row r="673" spans="1:3">
+    <row r="673" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A673" s="2">
         <v>0</v>
       </c>
@@ -10414,7 +7835,7 @@
         <v>0.27218036689842084</v>
       </c>
     </row>
-    <row r="674" spans="1:3">
+    <row r="674" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A674" s="2">
         <v>0</v>
       </c>
@@ -10425,7 +7846,7 @@
         <v>0.26819421186977577</v>
       </c>
     </row>
-    <row r="675" spans="1:3">
+    <row r="675" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A675" s="2">
         <v>0</v>
       </c>
@@ -10436,7 +7857,7 @@
         <v>0.26420522735293267</v>
       </c>
     </row>
-    <row r="676" spans="1:3">
+    <row r="676" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A676" s="2">
         <v>0</v>
       </c>
@@ -10447,7 +7868,7 @@
         <v>0.26021198545578145</v>
       </c>
     </row>
-    <row r="677" spans="1:3">
+    <row r="677" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A677" s="2">
         <v>0</v>
       </c>
@@ -10458,7 +7879,7 @@
         <v>0.25621279196230645</v>
       </c>
     </row>
-    <row r="678" spans="1:3">
+    <row r="678" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A678" s="2">
         <v>0</v>
       </c>
@@ -10469,7 +7890,7 @@
         <v>0.25220570513108564</v>
       </c>
     </row>
-    <row r="679" spans="1:3">
+    <row r="679" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A679" s="2">
         <v>0</v>
       </c>
@@ -10480,7 +7901,7 @@
         <v>0.24818855545569846</v>
       </c>
     </row>
-    <row r="680" spans="1:3">
+    <row r="680" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A680" s="2">
         <v>0</v>
       </c>
@@ -10491,7 +7912,7 @@
         <v>0.24415896347206509</v>
       </c>
     </row>
-    <row r="681" spans="1:3">
+    <row r="681" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A681" s="2">
         <v>0</v>
       </c>
@@ -10502,7 +7923,7 @@
         <v>0.24011435338366932</v>
       </c>
     </row>
-    <row r="682" spans="1:3">
+    <row r="682" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A682" s="2">
         <v>0</v>
       </c>
@@ -10513,7 +7934,7 @@
         <v>0.23605196143248353</v>
       </c>
     </row>
-    <row r="683" spans="1:3">
+    <row r="683" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A683" s="2">
         <v>0</v>
       </c>
@@ -10524,7 +7945,7 @@
         <v>0.23196883920398231</v>
       </c>
     </row>
-    <row r="684" spans="1:3">
+    <row r="684" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A684" s="2">
         <v>0</v>
       </c>
@@ -10535,7 +7956,7 @@
         <v>0.22786185300014597</v>
       </c>
     </row>
-    <row r="685" spans="1:3">
+    <row r="685" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A685" s="2">
         <v>0</v>
       </c>
@@ -10546,7 +7967,7 @@
         <v>0.22372768080062636</v>
       </c>
     </row>
-    <row r="686" spans="1:3">
+    <row r="686" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A686" s="2">
         <v>0</v>
       </c>
@@ -10557,7 +7978,7 @@
         <v>0.21956280827851088</v>
       </c>
     </row>
-    <row r="687" spans="1:3">
+    <row r="687" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A687" s="2">
         <v>0</v>
       </c>
@@ -10568,7 +7989,7 @@
         <v>0.21536352524989308</v>
       </c>
     </row>
-    <row r="688" spans="1:3">
+    <row r="688" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A688" s="2">
         <v>0</v>
       </c>
@@ -10579,7 +8000,7 @@
         <v>0.21112592414575801</v>
       </c>
     </row>
-    <row r="689" spans="1:3">
+    <row r="689" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A689" s="2">
         <v>0</v>
       </c>
@@ -10590,7 +8011,7 @@
         <v>0.20684590260486757</v>
       </c>
     </row>
-    <row r="690" spans="1:3">
+    <row r="690" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A690" s="2">
         <v>0</v>
       </c>
@@ -10601,7 +8022,7 @@
         <v>0.20251917288777616</v>
       </c>
     </row>
-    <row r="691" spans="1:3">
+    <row r="691" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A691" s="2">
         <v>0</v>
       </c>
@@ -10612,7 +8033,7 @@
         <v>0.19814128129830627</v>
       </c>
     </row>
-    <row r="692" spans="1:3">
+    <row r="692" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A692" s="2">
         <v>0</v>
       </c>
@@ -10623,7 +8044,7 @@
         <v>0.19370764103073643</v>
       </c>
     </row>
-    <row r="693" spans="1:3">
+    <row r="693" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A693" s="2">
         <v>0</v>
       </c>
@@ -10634,7 +8055,7 @@
         <v>0.18921358171797584</v>
       </c>
     </row>
-    <row r="694" spans="1:3">
+    <row r="694" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A694" s="2">
         <v>0</v>
       </c>
@@ -10645,7 +8066,7 @@
         <v>0.18465441833476548</v>
       </c>
     </row>
-    <row r="695" spans="1:3">
+    <row r="695" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A695" s="2">
         <v>0</v>
       </c>
@@ -10656,7 +8077,7 @@
         <v>0.18002554103928273</v>
       </c>
     </row>
-    <row r="696" spans="1:3">
+    <row r="696" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A696" s="2">
         <v>0</v>
       </c>
@@ -10667,7 +8088,7 @@
         <v>0.17532252622169278</v>
       </c>
     </row>
-    <row r="697" spans="1:3">
+    <row r="697" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A697" s="2">
         <v>0</v>
       </c>
@@ -10678,7 +8099,7 @@
         <v>0.17054126768172018</v>
       </c>
     </row>
-    <row r="698" spans="1:3">
+    <row r="698" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A698" s="2">
         <v>0</v>
       </c>
@@ -10689,7 +8110,7 @@
         <v>0.16567812557610445</v>
       </c>
     </row>
-    <row r="699" spans="1:3">
+    <row r="699" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A699" s="2">
         <v>0</v>
       </c>
@@ -10700,7 +8121,7 @@
         <v>0.16073008964322311</v>
       </c>
     </row>
-    <row r="700" spans="1:3">
+    <row r="700" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A700" s="2">
         <v>0</v>
       </c>
@@ -10711,7 +8132,7 @@
         <v>0.15569495236069414</v>
       </c>
     </row>
-    <row r="701" spans="1:3">
+    <row r="701" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A701" s="2">
         <v>0</v>
       </c>
@@ -10722,7 +8143,7 @@
         <v>0.15057148719021604</v>
       </c>
     </row>
-    <row r="702" spans="1:3">
+    <row r="702" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A702" s="2">
         <v>0</v>
       </c>
@@ -10733,7 +8154,7 @@
         <v>0.14535962682606587</v>
       </c>
     </row>
-    <row r="703" spans="1:3">
+    <row r="703" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A703" s="2">
         <v>0</v>
       </c>
@@ -10744,7 +8165,7 @@
         <v>0.14006063624196438</v>
       </c>
     </row>
-    <row r="704" spans="1:3">
+    <row r="704" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A704" s="2">
         <v>0</v>
       </c>
@@ -10755,7 +8176,7 @@
         <v>0.13467727522883358</v>
       </c>
     </row>
-    <row r="705" spans="1:3">
+    <row r="705" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A705" s="2">
         <v>0</v>
       </c>
@@ -10766,7 +8187,7 @@
         <v>0.1292139449814815</v>
       </c>
     </row>
-    <row r="706" spans="1:3">
+    <row r="706" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A706" s="2">
         <v>0</v>
       </c>
@@ -10777,7 +8198,7 @@
         <v>0.1236768131220022</v>
       </c>
     </row>
-    <row r="707" spans="1:3">
+    <row r="707" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A707" s="2">
         <v>0</v>
       </c>
@@ -10788,7 +8209,7 @@
         <v>0.11807391144842831</v>
       </c>
     </row>
-    <row r="708" spans="1:3">
+    <row r="708" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A708" s="2">
         <v>0</v>
       </c>
@@ -10799,7 +8220,7 @@
         <v>0.11241520084337381</v>
       </c>
     </row>
-    <row r="709" spans="1:3">
+    <row r="709" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A709" s="2">
         <v>0</v>
       </c>
@@ -10810,7 +8231,7 @@
         <v>0.1067125982817876</v>
       </c>
     </row>
-    <row r="710" spans="1:3">
+    <row r="710" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A710" s="2">
         <v>0</v>
       </c>
@@ -10821,7 +8242,7 @@
         <v>0.10097996172640138</v>
       </c>
     </row>
-    <row r="711" spans="1:3">
+    <row r="711" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A711" s="2">
         <v>0</v>
       </c>
@@ -10832,7 +8253,7 @@
         <v>9.5233029755738177E-2</v>
       </c>
     </row>
-    <row r="712" spans="1:3">
+    <row r="712" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A712" s="2">
         <v>0</v>
       </c>
@@ -10843,7 +8264,7 @@
         <v>8.94893138387272E-2</v>
       </c>
     </row>
-    <row r="713" spans="1:3">
+    <row r="713" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A713" s="2">
         <v>0</v>
       </c>
@@ -10854,7 +8275,7 @@
         <v>8.3767942182813984E-2</v>
       </c>
     </row>
-    <row r="714" spans="1:3">
+    <row r="714" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A714" s="2">
         <v>0</v>
       </c>
@@ -10865,7 +8286,7 @@
         <v>7.8089455190601578E-2</v>
       </c>
     </row>
-    <row r="715" spans="1:3">
+    <row r="715" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A715" s="2">
         <v>0</v>
       </c>
@@ -10876,7 +8297,7 @@
         <v>7.2475553927699179E-2</v>
       </c>
     </row>
-    <row r="716" spans="1:3">
+    <row r="716" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A716" s="2">
         <v>0</v>
       </c>
@@ -10887,7 +8308,7 @@
         <v>6.6948804562858608E-2</v>
       </c>
     </row>
-    <row r="717" spans="1:3">
+    <row r="717" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A717" s="2">
         <v>0</v>
       </c>
@@ -10898,7 +8319,7 @@
         <v>6.153230332183824E-2</v>
       </c>
     </row>
-    <row r="718" spans="1:3">
+    <row r="718" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A718" s="2">
         <v>0</v>
       </c>
@@ -10909,7 +8330,7 @@
         <v>5.6249308093577248E-2</v>
       </c>
     </row>
-    <row r="719" spans="1:3">
+    <row r="719" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A719" s="2">
         <v>0</v>
       </c>
@@ -10920,7 +8341,7 @@
         <v>5.1122844478560234E-2</v>
       </c>
     </row>
-    <row r="720" spans="1:3">
+    <row r="720" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A720" s="2">
         <v>0</v>
       </c>
@@ -10931,7 +8352,7 @@
         <v>4.6175295599856857E-2</v>
       </c>
     </row>
-    <row r="721" spans="1:3">
+    <row r="721" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A721" s="2">
         <v>0</v>
       </c>
@@ -10942,7 +8363,7 @@
         <v>4.142798617963464E-2</v>
       </c>
     </row>
-    <row r="722" spans="1:3">
+    <row r="722" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A722" s="2">
         <v>0</v>
       </c>
@@ -10953,7 +8374,7 @@
         <v>3.6900772202296511E-2</v>
       </c>
     </row>
-    <row r="723" spans="1:3">
+    <row r="723" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A723" s="2">
         <v>0</v>
       </c>
@@ -10964,7 +8385,7 @@
         <v>3.2611647952322485E-2</v>
       </c>
     </row>
-    <row r="724" spans="1:3">
+    <row r="724" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A724" s="2">
         <v>0</v>
       </c>
@@ -10975,7 +8396,7 @@
         <v>2.8576382139897358E-2</v>
       </c>
     </row>
-    <row r="725" spans="1:3">
+    <row r="725" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A725" s="2">
         <v>0</v>
       </c>
@@ -10986,7 +8407,7 @@
         <v>2.4808194086169098E-2</v>
       </c>
     </row>
-    <row r="726" spans="1:3">
+    <row r="726" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A726" s="2">
         <v>0</v>
       </c>
@@ -10997,7 +8418,7 @@
         <v>2.1317479768414367E-2</v>
       </c>
     </row>
-    <row r="727" spans="1:3">
+    <row r="727" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A727" s="2">
         <v>0</v>
       </c>
@@ -11008,7 +8429,7 @@
         <v>1.8111596272516402E-2</v>
       </c>
     </row>
-    <row r="728" spans="1:3">
+    <row r="728" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A728" s="2">
         <v>0</v>
       </c>
@@ -11019,7 +8440,7 @@
         <v>1.5194711935770013E-2</v>
       </c>
     </row>
-    <row r="729" spans="1:3">
+    <row r="729" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A729" s="2">
         <v>0</v>
       </c>
@@ -11030,7 +8451,7 @@
         <v>1.2567727990975164E-2</v>
       </c>
     </row>
-    <row r="730" spans="1:3">
+    <row r="730" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A730" s="2">
         <v>0</v>
       </c>
@@ -11041,7 +8462,7 @@
         <v>1.0228275654912543E-2</v>
       </c>
     </row>
-    <row r="731" spans="1:3">
+    <row r="731" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A731" s="2">
         <v>0</v>
       </c>
@@ -11052,7 +8473,7 @@
         <v>8.1707902966058031E-3</v>
       </c>
     </row>
-    <row r="732" spans="1:3">
+    <row r="732" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A732" s="2">
         <v>0</v>
       </c>
@@ -11063,7 +8484,7 @@
         <v>6.3866616318804395E-3</v>
       </c>
     </row>
-    <row r="733" spans="1:3">
+    <row r="733" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A733" s="2">
         <v>0</v>
       </c>
@@ -11074,7 +8495,7 @@
         <v>4.8644559627106223E-3</v>
       </c>
     </row>
-    <row r="734" spans="1:3">
+    <row r="734" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A734" s="2">
         <v>0</v>
       </c>
